--- a/util/icecube_acceptance.xlsx
+++ b/util/icecube_acceptance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1660" windowWidth="24160" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="31000" yWindow="10200" windowWidth="24160" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="icecube_acceptance.csv" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,37 +525,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>16.413152242686898</v>
+        <v>14.673534626079</v>
       </c>
       <c r="B3">
-        <v>12.3116347673402</v>
+        <v>11.979551673969199</v>
       </c>
       <c r="C3">
         <f>POWER(10, B3-10)/$N$3</f>
-        <v>9.777554116059838E-7</v>
+        <v>4.5514223201753288E-7</v>
       </c>
       <c r="D3">
-        <v>16.443303092732201</v>
+        <v>14.687886073346601</v>
       </c>
       <c r="E3">
-        <v>12.009049592816501</v>
+        <v>12.020664990976</v>
       </c>
       <c r="F3">
         <f>POWER(10, E3-10)/$N$3</f>
-        <v>4.8713019886756495E-7</v>
+        <v>5.0033450203391288E-7</v>
       </c>
       <c r="G3">
-        <v>16.3623979943983</v>
+        <v>14.7442636493978</v>
       </c>
       <c r="H3">
-        <v>12.0096656020353</v>
+        <v>12.013846700824001</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">POWER(10, H3-10)/$N$3</f>
-        <v>4.878216412479428E-7</v>
+        <v>4.9254074371361153E-7</v>
       </c>
       <c r="J3">
-        <v>16.325037224646799</v>
+        <v>14.770164027960201</v>
       </c>
       <c r="K3">
         <v>12.023877872285</v>
@@ -573,17 +573,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16.415976534759501</v>
+        <v>14.7092452501096</v>
       </c>
       <c r="B4">
-        <v>12.195446336726199</v>
+        <v>12.3116347673402</v>
       </c>
       <c r="C4">
         <f>POWER(10, B4-10)/$N$3</f>
-        <v>7.4824150990353195E-7</v>
+        <v>9.777554116059838E-7</v>
       </c>
       <c r="D4">
-        <v>16.368029595962899</v>
+        <v>14.7403686028042</v>
       </c>
       <c r="E4">
         <v>12.3339875579512</v>
@@ -593,7 +593,7 @@
         <v>1.0293972860971493E-6</v>
       </c>
       <c r="G4">
-        <v>16.337079755717699</v>
+        <v>14.7618040998504</v>
       </c>
       <c r="H4">
         <v>12.104843423721601</v>
@@ -603,7 +603,7 @@
         <v>6.0734978867375655E-7</v>
       </c>
       <c r="J4">
-        <v>16.3011390587811</v>
+        <v>14.7867864669181</v>
       </c>
       <c r="K4">
         <v>12.112287538826299</v>
@@ -618,17 +618,17 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16.415976534759501</v>
+        <v>14.707302223950199</v>
       </c>
       <c r="B5">
-        <v>12.118307815306601</v>
+        <v>12.195446336726199</v>
       </c>
       <c r="C5">
         <f>POWER(10, B5-10)/$N$3</f>
-        <v>6.2647432418291061E-7</v>
+        <v>7.4824150990353195E-7</v>
       </c>
       <c r="D5">
-        <v>16.390575391710399</v>
+        <v>14.724798703400401</v>
       </c>
       <c r="E5">
         <v>12.208767664360799</v>
@@ -638,7 +638,7 @@
         <v>7.7154831183309275E-7</v>
       </c>
       <c r="G5">
-        <v>16.3146075450429</v>
+        <v>14.777413128502101</v>
       </c>
       <c r="H5">
         <v>12.199177688552099</v>
@@ -648,7 +648,7 @@
         <v>7.5469791390990651E-7</v>
       </c>
       <c r="J5">
-        <v>16.2865607457206</v>
+        <v>14.7969476263463</v>
       </c>
       <c r="K5">
         <v>12.1934824667513</v>
@@ -660,17 +660,17 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16.415411637468502</v>
+        <v>14.707302223950199</v>
       </c>
       <c r="B6">
-        <v>12.0360708901141</v>
+        <v>12.118307815306601</v>
       </c>
       <c r="C6">
         <f>POWER(10, B6-10)/$N$3</f>
-        <v>5.184016212819718E-7</v>
+        <v>6.2647432418291061E-7</v>
       </c>
       <c r="D6">
-        <v>16.334269037467301</v>
+        <v>14.7637543264174</v>
       </c>
       <c r="E6">
         <v>12.4340361389494</v>
@@ -680,7 +680,7 @@
         <v>1.2960793760695447E-6</v>
       </c>
       <c r="G6">
-        <v>16.289363254569899</v>
+        <v>14.7949930150913</v>
       </c>
       <c r="H6">
         <v>12.2874786219946</v>
@@ -690,7 +690,7 @@
         <v>9.2485592460533784E-7</v>
       </c>
       <c r="J6">
-        <v>16.258562162265601</v>
+        <v>14.8165079471543</v>
       </c>
       <c r="K6">
         <v>12.277680993867</v>
@@ -702,27 +702,27 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16.394806184444501</v>
+        <v>14.705359454456</v>
       </c>
       <c r="B7">
-        <v>12.436323171848599</v>
+        <v>12.037161848442199</v>
       </c>
       <c r="C7">
         <f>POWER(10, B7-10)/$N$3</f>
-        <v>1.3029226467563407E-6</v>
+        <v>5.1970549579163583E-7</v>
       </c>
       <c r="D7">
-        <v>16.303638050839101</v>
+        <v>14.7832707684734</v>
       </c>
       <c r="E7">
-        <v>12.5158433167397</v>
+        <v>12.5122413616345</v>
       </c>
       <c r="F7">
         <f>POWER(10, E7-10)/$N$3</f>
-        <v>1.5647277248140988E-6</v>
+        <v>1.551803841474921E-6</v>
       </c>
       <c r="G7">
-        <v>16.261359853260601</v>
+        <v>14.8145507520676</v>
       </c>
       <c r="H7">
         <v>12.369784378528101</v>
@@ -732,7 +732,7 @@
         <v>1.1178404979833432E-6</v>
       </c>
       <c r="J7">
-        <v>16.225027390366801</v>
+        <v>14.840014466502801</v>
       </c>
       <c r="K7">
         <v>12.3703933908424</v>
@@ -744,27 +744,27 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16.381553349177501</v>
+        <v>14.7150758689179</v>
       </c>
       <c r="B8">
-        <v>12.5335254495035</v>
+        <v>11.966119912668701</v>
       </c>
       <c r="C8">
         <f>POWER(10, B8-10)/$N$3</f>
-        <v>1.6297497027229012E-6</v>
+        <v>4.4128114732730155E-7</v>
       </c>
       <c r="D8">
-        <v>16.276119278031398</v>
+        <v>14.804768654003199</v>
       </c>
       <c r="E8">
-        <v>12.5956913201383</v>
+        <v>12.5950839083325</v>
       </c>
       <c r="F8">
         <f>POWER(10, E8-10)/$N$3</f>
-        <v>1.8805582108463952E-6</v>
+        <v>1.8779298679201243E-6</v>
       </c>
       <c r="G8">
-        <v>16.233404593212001</v>
+        <v>14.834134342727999</v>
       </c>
       <c r="H8">
         <v>12.451919040955699</v>
@@ -774,7 +774,7 @@
         <v>1.3505619250189747E-6</v>
       </c>
       <c r="J8">
-        <v>16.194347948912899</v>
+        <v>14.8615948689223</v>
       </c>
       <c r="K8">
         <v>12.455969552247799</v>
@@ -786,27 +786,27 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16.3623979943983</v>
+        <v>14.721881178701199</v>
       </c>
       <c r="B9">
-        <v>12.6363854378368</v>
+        <v>12.436323171848599</v>
       </c>
       <c r="C9">
         <f>POWER(10, B9-10)/$N$3</f>
-        <v>2.0652893181024261E-6</v>
+        <v>1.3029226467563407E-6</v>
       </c>
       <c r="D9">
-        <v>16.239690333678301</v>
+        <v>14.8282565488605</v>
       </c>
       <c r="E9">
-        <v>12.676860525005701</v>
+        <v>12.683446323462199</v>
       </c>
       <c r="F9">
         <f>POWER(10, E9-10)/$N$3</f>
-        <v>2.267023311783057E-6</v>
+        <v>2.3016632549748102E-6</v>
       </c>
       <c r="G9">
-        <v>16.205497391663499</v>
+        <v>14.8537438212489</v>
       </c>
       <c r="H9">
         <v>12.5345990728551</v>
@@ -816,7 +816,7 @@
         <v>1.6337836059043367E-6</v>
       </c>
       <c r="J9">
-        <v>16.163979350579101</v>
+        <v>14.883027915118401</v>
       </c>
       <c r="K9">
         <v>12.5365986066553</v>
@@ -828,27 +828,27 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>16.342447015487199</v>
+        <v>14.731024688654999</v>
       </c>
       <c r="B10">
-        <v>12.744235340094001</v>
+        <v>12.5335254495035</v>
       </c>
       <c r="C10">
         <f>POWER(10, B10-10)/$N$3</f>
-        <v>2.6474684974329554E-6</v>
+        <v>1.6297497027229012E-6</v>
       </c>
       <c r="D10">
-        <v>16.213864510904099</v>
+        <v>14.8517817074682</v>
       </c>
       <c r="E10">
-        <v>12.755756265898</v>
+        <v>12.7705763420811</v>
       </c>
       <c r="F10">
         <f>POWER(10, E10-10)/$N$3</f>
-        <v>2.7186401527429327E-6</v>
+        <v>2.8130134136489863E-6</v>
       </c>
       <c r="G10">
-        <v>16.1692897412597</v>
+        <v>14.8792749019605</v>
       </c>
       <c r="H10">
         <v>12.6260825737084</v>
@@ -858,7 +858,7 @@
         <v>2.0168705972401809E-6</v>
       </c>
       <c r="J10">
-        <v>16.1327359370515</v>
+        <v>14.905152791636199</v>
       </c>
       <c r="K10">
         <v>12.619607193385599</v>
@@ -870,27 +870,27 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16.308994323925599</v>
+        <v>14.7442636493978</v>
       </c>
       <c r="B11">
-        <v>12.830710967669599</v>
+        <v>12.6363854378368</v>
       </c>
       <c r="C11">
         <f>POWER(10, B11-10)/$N$3</f>
-        <v>3.2307728801741338E-6</v>
+        <v>2.0652893181024261E-6</v>
       </c>
       <c r="D11">
-        <v>16.180421932000499</v>
+        <v>14.875344188945601</v>
       </c>
       <c r="E11">
-        <v>12.842762125696099</v>
+        <v>12.856750915327</v>
       </c>
       <c r="F11">
         <f>POWER(10, E11-10)/$N$3</f>
-        <v>3.3216784327861453E-6</v>
+        <v>3.4304127379320456E-6</v>
       </c>
       <c r="G11">
-        <v>16.141492760958201</v>
+        <v>14.898944052505801</v>
       </c>
       <c r="H11">
         <v>12.7027318824865</v>
@@ -900,7 +900,7 @@
         <v>2.4061757384654503E-6</v>
       </c>
       <c r="J11">
-        <v>16.0971169540029</v>
+        <v>14.9304687896788</v>
       </c>
       <c r="K11">
         <v>12.7018387936014</v>
@@ -912,27 +912,27 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16.275355531079502</v>
+        <v>14.7580816553762</v>
       </c>
       <c r="B12">
-        <v>12.915730202065101</v>
+        <v>12.744235340094001</v>
       </c>
       <c r="C12">
         <f>POWER(10, B12-10)/$N$3</f>
-        <v>3.9293947725883628E-6</v>
+        <v>2.6474684974329554E-6</v>
       </c>
       <c r="D12">
-        <v>16.1470483314754</v>
+        <v>14.898944052505801</v>
       </c>
       <c r="E12">
-        <v>12.9284862261939</v>
+        <v>12.9438198665905</v>
       </c>
       <c r="F12">
         <f>POWER(10, E12-10)/$N$3</f>
-        <v>4.0465199621903405E-6</v>
+        <v>4.1919426031952488E-6</v>
       </c>
       <c r="G12">
-        <v>16.111475290782799</v>
+        <v>14.920251777260701</v>
       </c>
       <c r="H12">
         <v>12.7898134756384</v>
@@ -942,7 +942,7 @@
         <v>2.940417079037278E-6</v>
       </c>
       <c r="J12">
-        <v>16.063915177616199</v>
+        <v>14.9541561088999</v>
       </c>
       <c r="K12">
         <v>12.781368887970499</v>
@@ -954,27 +954,27 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16.241786121321201</v>
+        <v>14.781317963870899</v>
       </c>
       <c r="B13">
-        <v>13.0041415683284</v>
+        <v>12.830710967669599</v>
       </c>
       <c r="C13">
         <f>POWER(10, B13-10)/$N$3</f>
-        <v>4.8165606060603615E-6</v>
+        <v>3.2307728801741338E-6</v>
       </c>
       <c r="D13">
-        <v>16.113743567054598</v>
+        <v>14.922581357455799</v>
       </c>
       <c r="E13">
-        <v>13.0150971296755</v>
+        <v>13.028958686460401</v>
       </c>
       <c r="F13">
         <f>POWER(10, E13-10)/$N$3</f>
-        <v>4.9396091981688321E-6</v>
+        <v>5.0998117761230631E-6</v>
       </c>
       <c r="G13">
-        <v>16.080507496757299</v>
+        <v>14.9423077554946</v>
       </c>
       <c r="H13">
         <v>12.8818301312457</v>
@@ -984,7 +984,7 @@
         <v>3.6343403198349643E-6</v>
       </c>
       <c r="J13">
-        <v>16.028023861798498</v>
+        <v>14.979859781400499</v>
       </c>
       <c r="K13">
         <v>12.8681551788903</v>
@@ -996,27 +996,27 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16.208285951541601</v>
+        <v>14.804768654003199</v>
       </c>
       <c r="B14">
-        <v>13.0909428598091</v>
+        <v>12.915730202065101</v>
       </c>
       <c r="C14">
         <f>POWER(10, B14-10)/$N$3</f>
-        <v>5.8821801438855626E-6</v>
+        <v>3.9293947725883628E-6</v>
       </c>
       <c r="D14">
-        <v>16.072209196029402</v>
+        <v>14.948230758283399</v>
       </c>
       <c r="E14">
-        <v>13.105219666652699</v>
+        <v>13.1148897257097</v>
       </c>
       <c r="F14">
         <f>POWER(10, E14-10)/$N$3</f>
-        <v>6.0787618282786206E-6</v>
+        <v>6.215630465696085E-6</v>
       </c>
       <c r="G14">
-        <v>16.0445791090204</v>
+        <v>14.9679910626738</v>
       </c>
       <c r="H14">
         <v>12.964462600757299</v>
@@ -1026,7 +1026,7 @@
         <v>4.396003826143235E-6</v>
       </c>
       <c r="J14">
-        <v>15.992212737299999</v>
+        <v>15.005607634179499</v>
       </c>
       <c r="K14">
         <v>12.955396540196601</v>
@@ -1038,27 +1038,27 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16.172072070708801</v>
+        <v>14.8282565488605</v>
       </c>
       <c r="B15">
-        <v>13.179785664592799</v>
+        <v>13.0041415683284</v>
       </c>
       <c r="C15">
         <f>POWER(10, B15-10)/$N$3</f>
-        <v>7.2174058217717719E-6</v>
+        <v>4.8165606060603615E-6</v>
       </c>
       <c r="D15">
-        <v>16.034041974320498</v>
+        <v>14.9759024965064</v>
       </c>
       <c r="E15">
-        <v>13.193164267246299</v>
+        <v>13.206864925030199</v>
       </c>
       <c r="F15">
         <f>POWER(10, E15-10)/$N$3</f>
-        <v>7.4432006773949596E-6</v>
+        <v>7.6817538370536299E-6</v>
       </c>
       <c r="G15">
-        <v>16.005976768051699</v>
+        <v>14.9956993806084</v>
       </c>
       <c r="H15">
         <v>13.0478110982649</v>
@@ -1068,7 +1068,7 @@
         <v>5.3260661887594399E-6</v>
       </c>
       <c r="J15">
-        <v>15.9569040112028</v>
+        <v>15.0310942520496</v>
       </c>
       <c r="K15">
         <v>13.0390160925283</v>
@@ -1080,27 +1080,27 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16.133162988955899</v>
+        <v>14.8517817074682</v>
       </c>
       <c r="B16">
-        <v>13.2691914279293</v>
+        <v>13.0909428598091</v>
       </c>
       <c r="C16">
         <f>POWER(10, B16-10)/$N$3</f>
-        <v>8.8672078570124654E-6</v>
+        <v>5.8821801438855626E-6</v>
       </c>
       <c r="D16">
-        <v>16.000469734765801</v>
+        <v>15.003625459861601</v>
       </c>
       <c r="E16">
-        <v>13.2865286369675</v>
+        <v>13.299485149773499</v>
       </c>
       <c r="F16">
         <f>POWER(10, E16-10)/$N$3</f>
-        <v>9.2283508601763858E-6</v>
+        <v>9.507812547766368E-6</v>
       </c>
       <c r="G16">
-        <v>15.967467302110601</v>
+        <v>15.0234589913905</v>
       </c>
       <c r="H16">
         <v>13.1322396128592</v>
@@ -1110,7 +1110,7 @@
         <v>6.4689690579498688E-6</v>
       </c>
       <c r="J16">
-        <v>15.9231484179126</v>
+        <v>15.055553172245</v>
       </c>
       <c r="K16">
         <v>13.119049040793501</v>
@@ -1122,27 +1122,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16.094347520231501</v>
+        <v>14.877309415637001</v>
       </c>
       <c r="B17">
-        <v>13.3580965535137</v>
+        <v>13.179785664592799</v>
       </c>
       <c r="C17">
         <f>POWER(10, B17-10)/$N$3</f>
-        <v>1.0881581383602971E-5</v>
+        <v>7.2174058217717719E-6</v>
       </c>
       <c r="D17">
-        <v>15.9612411567709</v>
+        <v>15.031929275834701</v>
       </c>
       <c r="E17">
-        <v>13.3755699693266</v>
+        <v>13.3867086173784</v>
       </c>
       <c r="F17">
         <f>POWER(10, E17-10)/$N$3</f>
-        <v>1.1328317963825048E-5</v>
+        <v>1.1622621057981298E-5</v>
       </c>
       <c r="G17">
-        <v>15.929050487745201</v>
+        <v>15.0512699899719</v>
       </c>
       <c r="H17">
         <v>13.216392911383601</v>
@@ -1152,7 +1152,7 @@
         <v>7.8521461130833756E-6</v>
       </c>
       <c r="J17">
-        <v>15.874329604671599</v>
+        <v>15.091089318674801</v>
       </c>
       <c r="K17">
         <v>13.1972862360757</v>
@@ -1164,27 +1164,27 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16.055625439307899</v>
+        <v>14.904849866294301</v>
       </c>
       <c r="B18">
-        <v>13.4475973537778</v>
+        <v>13.2691914279293</v>
       </c>
       <c r="C18">
         <f>POWER(10, B18-10)/$N$3</f>
-        <v>1.3371890598295518E-5</v>
+        <v>8.8672078570124654E-6</v>
       </c>
       <c r="D18">
-        <v>15.9240680771355</v>
+        <v>15.0632047438906</v>
       </c>
       <c r="E18">
-        <v>13.455861730142599</v>
+        <v>13.469132668625999</v>
       </c>
       <c r="F18">
         <f>POWER(10, E18-10)/$N$3</f>
-        <v>1.3628786591943213E-5</v>
+        <v>1.4051676072272072E-5</v>
       </c>
       <c r="G18">
-        <v>15.890726102041</v>
+        <v>15.0791324714803</v>
       </c>
       <c r="H18">
         <v>13.301085476465801</v>
@@ -1194,7 +1194,7 @@
         <v>9.5429124056088258E-6</v>
       </c>
       <c r="J18">
-        <v>15.824152433184899</v>
+        <v>15.1278161353966</v>
       </c>
       <c r="K18">
         <v>13.285638974969601</v>
@@ -1206,27 +1206,27 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16.016996521499401</v>
+        <v>14.9324412990479</v>
       </c>
       <c r="B19">
-        <v>13.537697819811401</v>
+        <v>13.3580965535137</v>
       </c>
       <c r="C19">
         <f>POWER(10, B19-10)/$N$3</f>
-        <v>1.6454825490517985E-5</v>
+        <v>1.0881581383602971E-5</v>
       </c>
       <c r="D19">
-        <v>15.8770611788749</v>
+        <v>15.095077040938</v>
       </c>
       <c r="E19">
-        <v>13.547331484140599</v>
+        <v>13.554965265239501</v>
       </c>
       <c r="F19">
         <f>POWER(10, E19-10)/$N$3</f>
-        <v>1.6823910337712128E-5</v>
+        <v>1.7122245757253025E-5</v>
       </c>
       <c r="G19">
-        <v>15.852493922620001</v>
+        <v>15.1070465312194</v>
       </c>
       <c r="H19">
         <v>13.386320763804299</v>
@@ -1236,7 +1236,7 @@
         <v>1.1612245925461964E-5</v>
       </c>
       <c r="J19">
-        <v>15.7763052957889</v>
+        <v>15.163029767486901</v>
       </c>
       <c r="K19">
         <v>13.3697622487087</v>
@@ -1248,27 +1248,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15.978460542660899</v>
+        <v>14.960083808274501</v>
       </c>
       <c r="B20">
-        <v>13.627272533581101</v>
+        <v>13.4475973537778</v>
       </c>
       <c r="C20">
         <f>POWER(10, B20-10)/$N$3</f>
-        <v>2.0224043678917554E-5</v>
+        <v>1.3371890598295518E-5</v>
       </c>
       <c r="D20">
-        <v>15.826408550171299</v>
+        <v>15.1270167767102</v>
       </c>
       <c r="E20">
-        <v>13.631841841034699</v>
+        <v>13.6408502245799</v>
       </c>
       <c r="F20">
         <f>POWER(10, E20-10)/$N$3</f>
-        <v>2.0437948573083394E-5</v>
+        <v>2.0866311460010096E-5</v>
       </c>
       <c r="G20">
-        <v>15.8143537276391</v>
+        <v>15.135012264669299</v>
       </c>
       <c r="H20">
         <v>13.470985768511699</v>
@@ -1278,7 +1278,7 @@
         <v>1.4111761551172588E-5</v>
       </c>
       <c r="J20">
-        <v>15.728602832717099</v>
+        <v>15.1983253677791</v>
       </c>
       <c r="K20">
         <v>13.4544181822016</v>
@@ -1290,27 +1290,27 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>15.939285924913699</v>
+        <v>14.987777488525399</v>
       </c>
       <c r="B21">
-        <v>13.7129516753619</v>
+        <v>13.537697819811401</v>
       </c>
       <c r="C21">
         <f>POWER(10, B21-10)/$N$3</f>
-        <v>2.4634691974946078E-5</v>
+        <v>1.6454825490517985E-5</v>
       </c>
       <c r="D21">
-        <v>15.791436040145999</v>
+        <v>15.1585234591127</v>
       </c>
       <c r="E21">
-        <v>13.711801207241001</v>
+        <v>13.729020023658901</v>
       </c>
       <c r="F21">
         <f>POWER(10, E21-10)/$N$3</f>
-        <v>2.456951978614303E-5</v>
+        <v>2.5563215704251914E-5</v>
       </c>
       <c r="G21">
-        <v>15.7790200024659</v>
+        <v>15.1610267984023</v>
       </c>
       <c r="H21">
         <v>13.5539334823495</v>
@@ -1320,7 +1320,7 @@
         <v>1.7081615558449263E-5</v>
       </c>
       <c r="J21">
-        <v>15.681584232319601</v>
+        <v>15.2333006448621</v>
       </c>
       <c r="K21">
         <v>13.548645066438899</v>
@@ -1332,27 +1332,27 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15.896586097399901</v>
+        <v>15.0155224345269</v>
       </c>
       <c r="B22">
-        <v>13.7913458671008</v>
+        <v>13.627272533581101</v>
       </c>
       <c r="C22">
         <f>POWER(10, B22-10)/$N$3</f>
-        <v>2.9508105539002047E-5</v>
+        <v>2.0224043678917554E-5</v>
       </c>
       <c r="D22">
-        <v>15.750087198437701</v>
+        <v>15.1951132847135</v>
       </c>
       <c r="E22">
-        <v>13.800629038390699</v>
+        <v>13.830055250997599</v>
       </c>
       <c r="F22">
         <f>POWER(10, E22-10)/$N$3</f>
-        <v>3.0145639367925994E-5</v>
+        <v>3.2258985995799319E-5</v>
       </c>
       <c r="G22">
-        <v>15.725022642887099</v>
+        <v>15.2009820262756</v>
       </c>
       <c r="H22">
         <v>13.6364119880323</v>
@@ -1362,7 +1362,7 @@
         <v>2.0654155815333156E-5</v>
       </c>
       <c r="J22">
-        <v>15.627713467213599</v>
+        <v>15.2736015501022</v>
       </c>
       <c r="K22">
         <v>13.631548087440301</v>
@@ -1374,27 +1374,27 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>15.843534399772899</v>
+        <v>15.0438486937277</v>
       </c>
       <c r="B23">
-        <v>13.8981732143702</v>
+        <v>13.7129516753619</v>
       </c>
       <c r="C23">
         <f>POWER(10, B23-10)/$N$3</f>
-        <v>3.7737113266295914E-5</v>
+        <v>2.4634691974946078E-5</v>
       </c>
       <c r="D23">
-        <v>15.692380648834099</v>
+        <v>15.237325945543899</v>
       </c>
       <c r="E23">
-        <v>13.8928710403599</v>
+        <v>13.9191268854527</v>
       </c>
       <c r="F23">
         <f>POWER(10, E23-10)/$N$3</f>
-        <v>3.7279192909101291E-5</v>
+        <v>3.9602476637812306E-5</v>
       </c>
       <c r="G23">
-        <v>15.6725928929219</v>
+        <v>15.2400100702363</v>
       </c>
       <c r="H23">
         <v>13.7302609210961</v>
@@ -1404,7 +1404,7 @@
         <v>2.5636361211740782E-5</v>
       </c>
       <c r="J23">
-        <v>15.5713483250046</v>
+        <v>15.3160322546196</v>
       </c>
       <c r="K23">
         <v>13.718545357983899</v>
@@ -1416,27 +1416,27 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>15.793744702486901</v>
+        <v>15.0791324714803</v>
       </c>
       <c r="B24">
-        <v>13.9768015508332</v>
+        <v>13.7985361673336</v>
       </c>
       <c r="C24">
         <f>POWER(10, B24-10)/$N$3</f>
-        <v>4.5226919893145574E-5</v>
+        <v>3.0000716591770054E-5</v>
       </c>
       <c r="D24">
-        <v>15.638472794923301</v>
+        <v>15.2796558749132</v>
       </c>
       <c r="E24">
-        <v>13.9790967728539</v>
+        <v>14.0079594992993</v>
       </c>
       <c r="F24">
         <f>POWER(10, E24-10)/$N$3</f>
-        <v>4.546657435492247E-5</v>
+        <v>4.8590901919467273E-5</v>
       </c>
       <c r="G24">
-        <v>15.620544694864799</v>
+        <v>15.278983053661101</v>
       </c>
       <c r="H24">
         <v>13.8169428417792</v>
@@ -1446,7 +1446,7 @@
         <v>3.1299565071153124E-5</v>
       </c>
       <c r="J24">
-        <v>15.5151864773635</v>
+        <v>15.3585808334105</v>
       </c>
       <c r="K24">
         <v>13.804095628190201</v>
@@ -1458,27 +1458,27 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15.743765222797199</v>
+        <v>15.115031463768901</v>
       </c>
       <c r="B25">
-        <v>14.0753898023933</v>
+        <v>13.889221708320701</v>
       </c>
       <c r="C25">
         <f>POWER(10, B25-10)/$N$3</f>
-        <v>5.6752534763427918E-5</v>
+        <v>3.6967252109001644E-5</v>
       </c>
       <c r="D25">
-        <v>15.5820688465871</v>
+        <v>15.322103398598401</v>
       </c>
       <c r="E25">
-        <v>14.065047861272101</v>
+        <v>14.0944968844692</v>
       </c>
       <c r="F25">
         <f>POWER(10, E25-10)/$N$3</f>
-        <v>5.5417039648286439E-5</v>
+        <v>5.9305141364087674E-5</v>
       </c>
       <c r="G25">
-        <v>15.5686693472696</v>
+        <v>15.318055701943701</v>
       </c>
       <c r="H25">
         <v>13.9041720030003</v>
@@ -1488,7 +1488,7 @@
         <v>3.826198208191486E-5</v>
       </c>
       <c r="J25">
-        <v>15.461887336542301</v>
+        <v>15.399213177327301</v>
       </c>
       <c r="K25">
         <v>13.888158870177501</v>
@@ -1500,27 +1500,27 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>15.6984049555578</v>
+        <v>15.1510159210304</v>
       </c>
       <c r="B26">
-        <v>14.1693581360419</v>
+        <v>13.980052660725599</v>
       </c>
       <c r="C26">
         <f>POWER(10, B26-10)/$N$3</f>
-        <v>7.0461777880322047E-5</v>
+        <v>4.5566757094917849E-5</v>
       </c>
       <c r="D26">
-        <v>15.525868332782499</v>
+        <v>15.3626392385677</v>
       </c>
       <c r="E26">
-        <v>14.1556329514222</v>
+        <v>14.181974002371399</v>
       </c>
       <c r="F26">
         <f>POWER(10, E26-10)/$N$3</f>
-        <v>6.8269765707152624E-5</v>
+        <v>7.2538649097431921E-5</v>
       </c>
       <c r="G26">
-        <v>15.5169662761053</v>
+        <v>15.357228269955099</v>
       </c>
       <c r="H26">
         <v>13.991951859599901</v>
@@ -1530,7 +1530,7 @@
         <v>4.6832497713620888E-5</v>
       </c>
       <c r="J26">
-        <v>15.4061202865275</v>
+        <v>15.441992836203699</v>
       </c>
       <c r="K26">
         <v>13.975983018544101</v>
@@ -1542,27 +1542,27 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>15.6438552362922</v>
+        <v>15.1870860467318</v>
       </c>
       <c r="B27">
-        <v>14.2699682918619</v>
+        <v>14.0753898023933</v>
       </c>
       <c r="C27">
         <f>POWER(10, B27-10)/$N$3</f>
-        <v>8.8830836719025718E-5</v>
+        <v>5.6752534763427918E-5</v>
       </c>
       <c r="D27">
-        <v>15.469870519773499</v>
+        <v>15.405317293511199</v>
       </c>
       <c r="E27">
-        <v>14.243721140504</v>
+        <v>14.2655606790701</v>
       </c>
       <c r="F27">
         <f>POWER(10, E27-10)/$N$3</f>
-        <v>8.3621239649592113E-5</v>
+        <v>8.7933860490093852E-5</v>
       </c>
       <c r="G27">
-        <v>15.46454793977</v>
+        <v>15.3971790094601</v>
       </c>
       <c r="H27">
         <v>14.079947602579599</v>
@@ -1572,7 +1572,7 @@
         <v>5.7351273183520524E-5</v>
       </c>
       <c r="J27">
-        <v>15.3505543739159</v>
+        <v>15.484891338763401</v>
       </c>
       <c r="K27">
         <v>14.0639545790157</v>
@@ -1584,27 +1584,27 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>15.590114081170301</v>
+        <v>15.220767100567601</v>
       </c>
       <c r="B28">
-        <v>14.3593674882838</v>
+        <v>14.1693581360419</v>
       </c>
       <c r="C28">
         <f>POWER(10, B28-10)/$N$3</f>
-        <v>1.0913472269729516E-4</v>
+        <v>7.0461777880322047E-5</v>
       </c>
       <c r="D28">
-        <v>15.4114227569319</v>
+        <v>15.450154806908699</v>
       </c>
       <c r="E28">
-        <v>14.318424434315601</v>
+        <v>14.3373535873267</v>
       </c>
       <c r="F28">
         <f>POWER(10, E28-10)/$N$3</f>
-        <v>9.9316154474020729E-5</v>
+        <v>1.0374066995172044E-4</v>
       </c>
       <c r="G28">
-        <v>15.4061202865275</v>
+        <v>15.441992836203699</v>
       </c>
       <c r="H28">
         <v>14.164464294762301</v>
@@ -1614,7 +1614,7 @@
         <v>6.9672237143221868E-5</v>
       </c>
       <c r="J28">
-        <v>15.2951888732565</v>
+        <v>15.5279090151591</v>
       </c>
       <c r="K28">
         <v>14.153151652153401</v>
@@ -1626,27 +1626,27 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>15.536557542417601</v>
+        <v>15.2615000963245</v>
       </c>
       <c r="B29">
-        <v>14.449745894741101</v>
+        <v>14.2699682918619</v>
       </c>
       <c r="C29">
         <f>POWER(10, B29-10)/$N$3</f>
-        <v>1.3438207901154002E-4</v>
+        <v>8.8830836719025718E-5</v>
       </c>
       <c r="D29">
-        <v>15.3531958195314</v>
+        <v>15.495122820871099</v>
       </c>
       <c r="E29">
-        <v>14.387827291531</v>
+        <v>14.4068481960689</v>
       </c>
       <c r="F29">
         <f>POWER(10, E29-10)/$N$3</f>
-        <v>1.1652597689388489E-4</v>
+        <v>1.2174290401552009E-4</v>
       </c>
       <c r="G29">
-        <v>15.3479133827487</v>
+        <v>15.4869370945715</v>
       </c>
       <c r="H29">
         <v>14.230118589989299</v>
@@ -1656,7 +1656,7 @@
         <v>8.1042727903695246E-5</v>
       </c>
       <c r="J29">
-        <v>15.237401086943899</v>
+        <v>15.5731033344476</v>
       </c>
       <c r="K29">
         <v>14.2341347099907</v>
@@ -1668,27 +1668,27 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>15.4805211761793</v>
+        <v>15.3018756054503</v>
       </c>
       <c r="B30">
-        <v>14.543537265678101</v>
+        <v>14.3593674882838</v>
       </c>
       <c r="C30">
         <f>POWER(10, B30-10)/$N$3</f>
-        <v>1.6677568252572821E-4</v>
+        <v>1.0913472269729516E-4</v>
       </c>
       <c r="D30">
-        <v>15.2951888732565</v>
+        <v>15.540221715223</v>
       </c>
       <c r="E30">
-        <v>14.4579478023813</v>
+        <v>14.4774431722184</v>
       </c>
       <c r="F30">
         <f>POWER(10, E30-10)/$N$3</f>
-        <v>1.3694408019958261E-4</v>
+        <v>1.4323153070066073E-4</v>
       </c>
       <c r="G30">
-        <v>15.289926394405001</v>
+        <v>15.532012164187799</v>
       </c>
       <c r="H30">
         <v>14.295700219691501</v>
@@ -1698,7 +1698,7 @@
         <v>9.4253108149795441E-5</v>
       </c>
       <c r="J30">
-        <v>15.1798316325704</v>
+        <v>15.618429192792201</v>
       </c>
       <c r="K30">
         <v>14.3046377795037</v>
@@ -1710,27 +1710,27 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>15.4220331733733</v>
+        <v>15.342357931188401</v>
       </c>
       <c r="B31">
-        <v>14.6144166446126</v>
+        <v>14.449745894741101</v>
       </c>
       <c r="C31">
         <f>POWER(10, B31-10)/$N$3</f>
-        <v>1.963415004659225E-4</v>
+        <v>1.3438207901154002E-4</v>
       </c>
       <c r="D31">
-        <v>15.235653354378099</v>
+        <v>15.585795025532899</v>
       </c>
       <c r="E31">
-        <v>14.531032498505599</v>
+        <v>14.547937563950001</v>
       </c>
       <c r="F31">
         <f>POWER(10, E31-10)/$N$3</f>
-        <v>1.6204213606817029E-4</v>
+        <v>1.6847405341825276E-4</v>
       </c>
       <c r="G31">
-        <v>15.2321584906192</v>
+        <v>15.5772184257814</v>
       </c>
       <c r="H31">
         <v>14.361962811990701</v>
@@ -1740,7 +1740,7 @@
         <v>1.0978885934334265E-4</v>
       </c>
       <c r="J31">
-        <v>15.122479685241499</v>
+        <v>15.663886973040301</v>
       </c>
       <c r="K31">
         <v>14.3751109810988</v>
@@ -1752,27 +1752,27 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>15.3637661480417</v>
+        <v>15.384979643810899</v>
       </c>
       <c r="B32">
-        <v>14.6771242067115</v>
+        <v>14.543537265678101</v>
       </c>
       <c r="C32">
         <f>POWER(10, B32-10)/$N$3</f>
-        <v>2.2684001519324647E-4</v>
+        <v>1.6677568252572821E-4</v>
       </c>
       <c r="D32">
-        <v>15.1928964706155</v>
+        <v>15.608803605945401</v>
       </c>
       <c r="E32">
-        <v>14.6480200898425</v>
+        <v>14.6588509468884</v>
       </c>
       <c r="F32">
         <f>POWER(10, E32-10)/$N$3</f>
-        <v>2.1213657405130652E-4</v>
+        <v>2.1749356294912167E-4</v>
       </c>
       <c r="G32">
-        <v>15.1746088436531</v>
+        <v>15.6225562611895</v>
       </c>
       <c r="H32">
         <v>14.4285325407764</v>
@@ -1782,7 +1782,7 @@
         <v>1.279758438130177E-4</v>
       </c>
       <c r="J32">
-        <v>15.065344423179001</v>
+        <v>15.7094770591535</v>
       </c>
       <c r="K32">
         <v>14.4463123199512</v>
@@ -1794,27 +1794,27 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>15.3057192652946</v>
+        <v>15.429757964033501</v>
       </c>
       <c r="B33">
-        <v>14.7393234623399</v>
+        <v>14.6144166446126</v>
       </c>
       <c r="C33">
         <f>POWER(10, B33-10)/$N$3</f>
-        <v>2.6176942759085267E-4</v>
+        <v>1.963415004659225E-4</v>
       </c>
       <c r="D33">
-        <v>15.205972553185401</v>
+        <v>15.6175122145522</v>
       </c>
       <c r="E33">
-        <v>14.547271613229601</v>
+        <v>14.783185633839301</v>
       </c>
       <c r="F33">
         <f>POWER(10, E33-10)/$N$3</f>
-        <v>1.6821591189175643E-4</v>
+        <v>2.8958835560872917E-4</v>
       </c>
       <c r="G33">
-        <v>15.1172766288958</v>
+        <v>15.668026053360499</v>
       </c>
       <c r="H33">
         <v>14.495410829669799</v>
@@ -1824,7 +1824,7 @@
         <v>1.4928160325353274E-4</v>
       </c>
       <c r="J33">
-        <v>15.0084250277098</v>
+        <v>15.755199836210799</v>
       </c>
       <c r="K33">
         <v>14.517866326039499</v>
@@ -1836,27 +1836,27 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>15.247891693396401</v>
+        <v>15.474666612538</v>
       </c>
       <c r="B34">
-        <v>14.802566974810301</v>
+        <v>14.6771242067115</v>
       </c>
       <c r="C34">
         <f>POWER(10, B34-10)/$N$3</f>
-        <v>3.0280457728310413E-4</v>
+        <v>2.2684001519324647E-4</v>
       </c>
       <c r="D34">
-        <v>15.1809924964234</v>
+        <v>15.63494401084</v>
       </c>
       <c r="E34">
-        <v>14.783185633839301</v>
+        <v>14.9180955979009</v>
       </c>
       <c r="F34">
         <f>POWER(10, E34-10)/$N$3</f>
-        <v>2.8958835560872917E-4</v>
+        <v>3.9508547081907003E-4</v>
       </c>
       <c r="G34">
-        <v>15.060161024852</v>
+        <v>15.7136281863576</v>
       </c>
       <c r="H34">
         <v>14.562215098334301</v>
@@ -1866,7 +1866,7 @@
         <v>1.7410472572152997E-4</v>
       </c>
       <c r="J34">
-        <v>14.951720683253701</v>
+        <v>15.8010556904122</v>
       </c>
       <c r="K34">
         <v>14.5897747461592</v>
@@ -1878,27 +1878,27 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15.191328096529899</v>
+        <v>15.5197059686475</v>
       </c>
       <c r="B35">
-        <v>14.868117870608501</v>
+        <v>14.7393234623399</v>
       </c>
       <c r="C35">
         <f>POWER(10, B35-10)/$N$3</f>
-        <v>3.5213835539414602E-4</v>
+        <v>2.6176942759085267E-4</v>
       </c>
       <c r="D35">
-        <v>15.158951256177801</v>
+        <v>15.643207967205299</v>
       </c>
       <c r="E35">
-        <v>14.9180955979009</v>
+        <v>15.0572400734886</v>
       </c>
       <c r="F35">
         <f>POWER(10, E35-10)/$N$3</f>
-        <v>3.9508547081907003E-4</v>
+        <v>5.4429649098266001E-4</v>
       </c>
       <c r="G35">
-        <v>15.0032612131301</v>
+        <v>15.759363045361599</v>
       </c>
       <c r="H35">
         <v>14.629713024788</v>
@@ -1908,7 +1908,7 @@
         <v>2.0338011369399996E-4</v>
       </c>
       <c r="J35">
-        <v>14.895230577311899</v>
+        <v>15.847045009081601</v>
       </c>
       <c r="K35">
         <v>14.661266080433901</v>
@@ -1920,27 +1920,27 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>15.177220013453301</v>
+        <v>15.564876412789401</v>
       </c>
       <c r="B36">
-        <v>15.0081114038768</v>
+        <v>14.802566974810301</v>
       </c>
       <c r="C36">
         <f>POWER(10, B36-10)/$N$3</f>
-        <v>4.8607900688169556E-4</v>
+        <v>3.0280457728310413E-4</v>
       </c>
       <c r="D36">
-        <v>15.1485218410784</v>
+        <v>15.651476291541099</v>
       </c>
       <c r="E36">
-        <v>15.0572400734886</v>
+        <v>15.1954783459481</v>
       </c>
       <c r="F36">
         <f>POWER(10, E36-10)/$N$3</f>
-        <v>5.4429649098266001E-4</v>
+        <v>7.4829666029612016E-4</v>
       </c>
       <c r="G36">
-        <v>14.9465763784307</v>
+        <v>15.8052310166744</v>
       </c>
       <c r="H36">
         <v>14.6975238136769</v>
@@ -1950,7 +1950,7 @@
         <v>2.3774931518579195E-4</v>
       </c>
       <c r="J36">
-        <v>14.838953900455399</v>
+        <v>15.893168180670299</v>
       </c>
       <c r="K36">
         <v>14.733496246346</v>
@@ -1962,27 +1962,27 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>15.166577292416999</v>
+        <v>15.6093534796381</v>
       </c>
       <c r="B37">
-        <v>15.157055652880301</v>
+        <v>14.868117870608501</v>
       </c>
       <c r="C37">
         <f>POWER(10, B37-10)/$N$3</f>
-        <v>6.8493776747319962E-4</v>
+        <v>3.5213835539414602E-4</v>
       </c>
       <c r="D37">
-        <v>15.138099601455499</v>
+        <v>15.659748986156201</v>
       </c>
       <c r="E37">
-        <v>15.1954783459481</v>
+        <v>15.3349857633425</v>
       </c>
       <c r="F37">
         <f>POWER(10, E37-10)/$N$3</f>
-        <v>7.4829666029612016E-4</v>
+        <v>1.0317660284054682E-3</v>
       </c>
       <c r="G37">
-        <v>14.890105708534399</v>
+        <v>15.851232487722299</v>
       </c>
       <c r="H37">
         <v>14.7656489151624</v>
@@ -1992,7 +1992,7 @@
         <v>2.7812778439112364E-4</v>
       </c>
       <c r="J37">
-        <v>14.782889846313299</v>
+        <v>15.939425594759999</v>
       </c>
       <c r="K37">
         <v>14.7877431236732</v>
@@ -2004,27 +2004,27 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>15.155632027286901</v>
+        <v>15.620492590690001</v>
       </c>
       <c r="B38">
-        <v>15.300478548628501</v>
+        <v>15.0081114038768</v>
       </c>
       <c r="C38">
         <f>POWER(10, B38-10)/$N$3</f>
-        <v>9.5295854713663066E-4</v>
+        <v>4.8607900688169556E-4</v>
       </c>
       <c r="D38">
-        <v>15.127684532372401</v>
+        <v>15.670096003649499</v>
       </c>
       <c r="E38">
-        <v>15.3349857633425</v>
+        <v>15.483638635761899</v>
       </c>
       <c r="F38">
         <f>POWER(10, E38-10)/$N$3</f>
-        <v>1.0317660284054682E-3</v>
+        <v>1.4528945569562887E-3</v>
       </c>
       <c r="G38">
-        <v>14.833848394290801</v>
+        <v>15.8973678470593</v>
       </c>
       <c r="H38">
         <v>14.834480966111901</v>
@@ -2034,7 +2034,7 @@
         <v>3.2589404675998913E-4</v>
       </c>
       <c r="J38">
-        <v>14.727037611561499</v>
+        <v>15.985817642066699</v>
       </c>
       <c r="K38">
         <v>14.831234900160901</v>
@@ -2046,27 +2046,27 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>15.1459156086646</v>
+        <v>15.628907726764499</v>
       </c>
       <c r="B39">
-        <v>15.439455190953799</v>
+        <v>15.157055652880301</v>
       </c>
       <c r="C39">
         <f>POWER(10, B39-10)/$N$3</f>
-        <v>1.3123529503590943E-3</v>
+        <v>6.8493776747319962E-4</v>
       </c>
       <c r="D39">
-        <v>15.114675772074801</v>
+        <v>15.6783785398405</v>
       </c>
       <c r="E39">
-        <v>15.483638635761899</v>
+        <v>15.6280580600794</v>
       </c>
       <c r="F39">
         <f>POWER(10, E39-10)/$N$3</f>
-        <v>1.4528945569562887E-3</v>
+        <v>2.0260656850044872E-3</v>
       </c>
       <c r="G39">
-        <v>14.777803629606501</v>
+        <v>15.9436374843701</v>
       </c>
       <c r="H39">
         <v>14.9032408833683</v>
@@ -2076,7 +2076,7 @@
         <v>3.8180036949831092E-4</v>
       </c>
       <c r="J39">
-        <v>14.671396395910801</v>
+        <v>16.032344714443099</v>
       </c>
       <c r="K39">
         <v>14.8752468439405</v>
@@ -2088,27 +2088,27 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>15.135294839214099</v>
+        <v>15.6375729778436</v>
       </c>
       <c r="B40">
-        <v>15.592448258200999</v>
+        <v>15.300478548628501</v>
       </c>
       <c r="C40">
         <f>POWER(10, B40-10)/$N$3</f>
-        <v>1.8665675834324362E-3</v>
+        <v>9.5295854713663066E-4</v>
       </c>
       <c r="D40">
-        <v>15.104276818673799</v>
+        <v>15.686665453822499</v>
       </c>
       <c r="E40">
-        <v>15.6280580600794</v>
+        <v>15.770774470942101</v>
       </c>
       <c r="F40">
         <f>POWER(10, E40-10)/$N$3</f>
-        <v>2.0260656850044872E-3</v>
+        <v>2.8142970272283341E-3</v>
       </c>
       <c r="G40">
-        <v>14.721970611433701</v>
+        <v>15.9900417904737</v>
       </c>
       <c r="H40">
         <v>14.971924697828101</v>
@@ -2118,7 +2118,7 @@
         <v>4.4721891004391852E-4</v>
       </c>
       <c r="J40">
-        <v>14.6159654020956</v>
+        <v>16.079007204882799</v>
       </c>
       <c r="K40">
         <v>14.918995974928601</v>
@@ -2130,27 +2130,27 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>15.124214435278599</v>
+        <v>15.6452746387018</v>
       </c>
       <c r="B41">
-        <v>15.745553223326899</v>
+        <v>15.439455190953799</v>
       </c>
       <c r="C41">
         <f>POWER(10, B41-10)/$N$3</f>
-        <v>2.6555145437939898E-3</v>
+        <v>1.3123529503590943E-3</v>
       </c>
       <c r="D41">
-        <v>15.0938850197916</v>
+        <v>15.700348438994</v>
       </c>
       <c r="E41">
-        <v>15.770774470942101</v>
+        <v>15.901584187607201</v>
       </c>
       <c r="F41">
         <f>POWER(10, E41-10)/$N$3</f>
-        <v>2.8142970272283341E-3</v>
+        <v>3.8034669654698557E-3</v>
       </c>
       <c r="G41">
-        <v>14.666348539758401</v>
+        <v>16.036581157326601</v>
       </c>
       <c r="H41">
         <v>15.041321686219</v>
@@ -2160,7 +2160,7 @@
         <v>5.2470734934121916E-4</v>
       </c>
       <c r="J41">
-        <v>14.5607438358627</v>
+        <v>16.125805507522902</v>
       </c>
       <c r="K41">
         <v>14.963268351201799</v>
@@ -2172,27 +2172,27 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>15.1112086590239</v>
+        <v>15.6537031254633</v>
       </c>
       <c r="B42">
-        <v>15.8924225799748</v>
+        <v>15.592448258200999</v>
       </c>
       <c r="C42">
         <f>POWER(10, B42-10)/$N$3</f>
-        <v>3.7240717604682836E-3</v>
+        <v>1.8665675834324362E-3</v>
       </c>
       <c r="D42">
-        <v>15.0767541801111</v>
+        <v>15.7094770591535</v>
       </c>
       <c r="E42">
-        <v>15.901584187607201</v>
+        <v>16.422895846885002</v>
       </c>
       <c r="F42">
         <f>POWER(10, E42-10)/$N$3</f>
-        <v>3.8034669654698557E-3</v>
+        <v>1.2632558203024141E-2</v>
       </c>
       <c r="G42">
-        <v>14.6109366175896</v>
+        <v>16.083255978026099</v>
       </c>
       <c r="H42">
         <v>15.1038694372879</v>
@@ -2202,7 +2202,7 @@
         <v>6.0598921965031066E-4</v>
       </c>
       <c r="J42">
-        <v>14.5057309059596</v>
+        <v>16.172740017647801</v>
       </c>
       <c r="K42">
         <v>15.007672106510499</v>
@@ -2214,27 +2214,27 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>15.095871134309901</v>
+        <v>15.662507522600301</v>
       </c>
       <c r="B43">
-        <v>16.028037371805599</v>
+        <v>15.745553223326899</v>
       </c>
       <c r="C43">
         <f>POWER(10, B43-10)/$N$3</f>
-        <v>5.0890044753188418E-3</v>
+        <v>2.6555145437939898E-3</v>
       </c>
       <c r="D43">
-        <v>15.065344423179001</v>
+        <v>15.7136281863576</v>
       </c>
       <c r="E43">
-        <v>16.422895846885002</v>
+        <v>16.318440571332498</v>
       </c>
       <c r="F43">
         <f>POWER(10, E43-10)/$N$3</f>
-        <v>1.2632558203024141E-2</v>
+        <v>9.9319844818487896E-3</v>
       </c>
       <c r="G43">
-        <v>14.5557340509471</v>
+        <v>16.1300666468135</v>
       </c>
       <c r="H43">
         <v>15.147092629628199</v>
@@ -2244,7 +2244,7 @@
         <v>6.6940367242704899E-4</v>
       </c>
       <c r="J43">
-        <v>14.4509258241231</v>
+        <v>16.219811131692399</v>
       </c>
       <c r="K43">
         <v>15.0526045625497</v>
@@ -2256,37 +2256,37 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>15.084456552560599</v>
+        <v>15.672856362768</v>
       </c>
       <c r="B44">
-        <v>16.193293613335701</v>
+        <v>15.8924225799748</v>
       </c>
       <c r="C44">
         <f>POWER(10, B44-10)/$N$3</f>
-        <v>7.4454178188106367E-3</v>
+        <v>3.7240717604682836E-3</v>
       </c>
       <c r="D44">
-        <v>15.060161024852</v>
+        <v>15.7177804104701</v>
       </c>
       <c r="E44">
-        <v>16.318440571332498</v>
+        <v>16.214649667319001</v>
       </c>
       <c r="F44">
         <f>POWER(10, E44-10)/$N$3</f>
-        <v>9.9319844818487896E-3</v>
+        <v>7.8206910235430419E-3</v>
       </c>
       <c r="G44">
-        <v>14.500740048850799</v>
+        <v>16.177013559077601</v>
       </c>
       <c r="H44">
-        <v>15.1944457609208</v>
+        <v>15.1892378472988</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>7.4651961241852579E-4</v>
+        <v>7.3762106071058222E-4</v>
       </c>
       <c r="J44">
-        <v>14.3963278050686</v>
+        <v>16.2670192472455</v>
       </c>
       <c r="K44">
         <v>15.0972734245968</v>
@@ -2298,37 +2298,37 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>15.084538513842899</v>
+        <v>15.685080852282899</v>
       </c>
       <c r="B45">
-        <v>16.350592407533501</v>
+        <v>16.028037371805599</v>
       </c>
       <c r="C45">
         <f>POWER(10, B45-10)/$N$3</f>
-        <v>1.0695174345101881E-2</v>
+        <v>5.0890044753188418E-3</v>
       </c>
       <c r="D45">
-        <v>15.0549794099304</v>
+        <v>15.721933731780901</v>
       </c>
       <c r="E45">
-        <v>16.214649667319001</v>
+        <v>16.116193053934399</v>
       </c>
       <c r="F45">
         <f>POWER(10, E45-10)/$N$3</f>
-        <v>7.8206910235430419E-3</v>
+        <v>6.2343117402355232E-3</v>
       </c>
       <c r="G45">
-        <v>14.445953823308701</v>
+        <v>16.224097111358201</v>
       </c>
       <c r="H45">
-        <v>15.233107032568199</v>
+        <v>15.2315003296759</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>8.1602317631042484E-4</v>
+        <v>8.1300981884360973E-4</v>
       </c>
       <c r="J45">
-        <v>14.3419360664781</v>
+        <v>16.314364763052801</v>
       </c>
       <c r="K45">
         <v>15.1420748422576</v>
@@ -2340,27 +2340,27 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>15.080905324732401</v>
+        <v>15.6941928928879</v>
       </c>
       <c r="B46">
-        <v>16.489680931441001</v>
+        <v>16.193293613335701</v>
       </c>
       <c r="C46">
         <f>POWER(10, B46-10)/$N$3</f>
-        <v>1.4732498055012927E-2</v>
+        <v>7.4454178188106367E-3</v>
       </c>
       <c r="D46">
-        <v>15.049799577800799</v>
+        <v>15.7260881505798</v>
       </c>
       <c r="E46">
-        <v>16.116193053934399</v>
+        <v>16.013688513809299</v>
       </c>
       <c r="F46">
         <f>POWER(10, E46-10)/$N$3</f>
-        <v>6.2343117402355232E-3</v>
+        <v>4.9236137380389289E-3</v>
       </c>
       <c r="G46">
-        <v>14.3913745893064</v>
+        <v>16.271317701348899</v>
       </c>
       <c r="H46">
         <v>15.2730748800759</v>
@@ -2370,7 +2370,7 @@
         <v>8.9468538091711988E-4</v>
       </c>
       <c r="J46">
-        <v>14.287749828989501</v>
+        <v>16.361848079020898</v>
       </c>
       <c r="K46">
         <v>15.187009208893301</v>
@@ -2382,27 +2382,27 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15.080905324732401</v>
+        <v>15.6941274213301</v>
       </c>
       <c r="B47">
-        <v>16.6241547750191</v>
+        <v>16.350592407533501</v>
       </c>
       <c r="C47">
         <f>POWER(10, B47-10)/$N$3</f>
-        <v>2.0079377098077767E-2</v>
+        <v>1.0695174345101881E-2</v>
       </c>
       <c r="D47">
-        <v>15.0446215278496</v>
+        <v>15.7344002818023</v>
       </c>
       <c r="E47">
-        <v>16.013688513809299</v>
+        <v>15.819806217283199</v>
       </c>
       <c r="F47">
         <f>POWER(10, E47-10)/$N$3</f>
-        <v>4.9236137380389289E-3</v>
+        <v>3.1506610082628365E-3</v>
       </c>
       <c r="G47">
-        <v>14.337001564795001</v>
+        <v>16.318675727901098</v>
       </c>
       <c r="H47">
         <v>15.315570630320501</v>
@@ -2412,7 +2412,7 @@
         <v>9.8665674987890618E-4</v>
       </c>
       <c r="J47">
-        <v>14.2337683161852</v>
+        <v>16.409469596220099</v>
       </c>
       <c r="K47">
         <v>15.232076919032099</v>
@@ -2424,27 +2424,27 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>15.0579401144023</v>
+        <v>15.697030256093999</v>
       </c>
       <c r="B48">
-        <v>15.886091580888699</v>
+        <v>16.489680931441001</v>
       </c>
       <c r="C48">
         <f>POWER(10, B48-10)/$N$3</f>
-        <v>3.6701772754531552E-3</v>
+        <v>1.4732498055012927E-2</v>
       </c>
       <c r="D48">
-        <v>15.0342707720304</v>
+        <v>15.738557994805999</v>
       </c>
       <c r="E48">
-        <v>15.819806217283199</v>
+        <v>15.719186799549499</v>
       </c>
       <c r="F48">
         <f>POWER(10, E48-10)/$N$3</f>
-        <v>3.1506610082628365E-3</v>
+        <v>2.4990920936558162E-3</v>
       </c>
       <c r="G48">
-        <v>14.2828339706805</v>
+        <v>16.366171591026699</v>
       </c>
       <c r="H48">
         <v>15.357779630729301</v>
@@ -2454,7 +2454,7 @@
         <v>1.0873643536775141E-3</v>
       </c>
       <c r="J48">
-        <v>14.179990754581</v>
+        <v>16.457229716888101</v>
       </c>
       <c r="K48">
         <v>15.277278368373301</v>
@@ -2466,27 +2466,27 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>15.052389271054899</v>
+        <v>15.697030256093999</v>
       </c>
       <c r="B49">
-        <v>15.7476481575384</v>
+        <v>16.6241547750191</v>
       </c>
       <c r="C49">
         <f>POWER(10, B49-10)/$N$3</f>
-        <v>2.6683550649369797E-3</v>
+        <v>2.0079377098077767E-2</v>
       </c>
       <c r="D49">
-        <v>15.029098064936599</v>
+        <v>15.7535988947868</v>
       </c>
       <c r="E49">
-        <v>15.719186799549499</v>
+        <v>15.0388735727584</v>
       </c>
       <c r="F49">
         <f>POWER(10, E49-10)/$N$3</f>
-        <v>2.4990920936558162E-3</v>
+        <v>5.2175790030750777E-4</v>
       </c>
       <c r="G49">
-        <v>14.228871030812501</v>
+        <v>16.413805691902301</v>
       </c>
       <c r="H49">
         <v>15.4005110631765</v>
@@ -2496,7 +2496,7 @@
         <v>1.199793553574433E-3</v>
       </c>
       <c r="J49">
-        <v>14.1264163736151</v>
+        <v>16.505128844433401</v>
       </c>
       <c r="K49">
         <v>15.322613953790199</v>
@@ -2508,27 +2508,27 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>15.057569994503799</v>
+        <v>15.7154075766451</v>
       </c>
       <c r="B50">
-        <v>16.046201856716301</v>
+        <v>15.886091580888699</v>
       </c>
       <c r="C50">
         <f>POWER(10, B50-10)/$N$3</f>
-        <v>5.3063674186165193E-3</v>
+        <v>3.6701772754531552E-3</v>
       </c>
       <c r="D50">
-        <v>15.010411583447</v>
+        <v>15.7427168064584</v>
       </c>
       <c r="E50">
-        <v>15.0388735727584</v>
+        <v>15.6237386752176</v>
       </c>
       <c r="F50">
         <f>POWER(10, E50-10)/$N$3</f>
-        <v>5.2175790030750777E-4</v>
+        <v>2.006014815561051E-3</v>
       </c>
       <c r="G50">
-        <v>14.175111971972999</v>
+        <v>16.4615784328718</v>
       </c>
       <c r="H50">
         <v>15.442954155468099</v>
@@ -2538,7 +2538,7 @@
         <v>1.3229688434311286E-3</v>
       </c>
       <c r="J50">
-        <v>14.073044405637001</v>
+        <v>16.553167383438598</v>
       </c>
       <c r="K50">
         <v>15.3676788224258</v>
@@ -2550,27 +2550,27 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>15.0472103300912</v>
+        <v>15.719856933957599</v>
       </c>
       <c r="B51">
-        <v>15.6491898570051</v>
+        <v>15.7476481575384</v>
       </c>
       <c r="C51">
         <f>POWER(10, B51-10)/$N$3</f>
-        <v>2.1270873166332254E-3</v>
+        <v>2.6683550649369797E-3</v>
       </c>
       <c r="D51">
-        <v>15.023927137569901</v>
+        <v>15.7468767170497</v>
       </c>
       <c r="E51">
-        <v>15.6237386752176</v>
+        <v>15.524366314600099</v>
       </c>
       <c r="F51">
         <f>POWER(10, E51-10)/$N$3</f>
-        <v>2.006014815561051E-3</v>
+        <v>1.5957386921863226E-3</v>
       </c>
       <c r="G51">
-        <v>14.121556023865301</v>
+        <v>16.5094902174502</v>
       </c>
       <c r="H51">
         <v>15.4859225772156</v>
@@ -2580,7 +2580,7 @@
         <v>1.4605554116272899E-3</v>
       </c>
       <c r="J51">
-        <v>14.0198740858966</v>
+        <v>16.6013457396636</v>
       </c>
       <c r="K51">
         <v>15.412876229960601</v>
@@ -2592,27 +2592,27 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>15.0420331709994</v>
+        <v>15.715704161282201</v>
       </c>
       <c r="B52">
-        <v>15.5513471428023</v>
+        <v>16.046201856716301</v>
       </c>
       <c r="C52">
         <f>POWER(10, B52-10)/$N$3</f>
-        <v>1.6980192280036249E-3</v>
+        <v>5.3063674186165193E-3</v>
       </c>
       <c r="D52">
-        <v>15.0187579893179</v>
+        <v>15.7578017130276</v>
       </c>
       <c r="E52">
-        <v>15.524366314600099</v>
+        <v>14.911994971840301</v>
       </c>
       <c r="F52">
         <f>POWER(10, E52-10)/$N$3</f>
-        <v>1.5957386921863226E-3</v>
+        <v>3.8957442006258319E-4</v>
       </c>
       <c r="G52">
-        <v>14.068202419102899</v>
+        <v>16.557541450327101</v>
       </c>
       <c r="H52">
         <v>15.528601059667899</v>
@@ -2622,7 +2622,7 @@
         <v>1.611374626172732E-3</v>
       </c>
       <c r="J52">
-        <v>13.966904652533</v>
+        <v>16.649664320049698</v>
       </c>
       <c r="K52">
         <v>15.4586142043559</v>
@@ -2634,27 +2634,27 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>15.0368577931664</v>
+        <v>15.724010803976199</v>
       </c>
       <c r="B53">
-        <v>15.454676523047301</v>
+        <v>15.6491898570051</v>
       </c>
       <c r="C53">
         <f>POWER(10, B53-10)/$N$3</f>
-        <v>1.3591643790747197E-3</v>
+        <v>2.1270873166332254E-3</v>
       </c>
       <c r="D53">
-        <v>15.005197435361399</v>
+        <v>15.751037726870299</v>
       </c>
       <c r="E53">
-        <v>14.911994971840301</v>
+        <v>15.4301011553991</v>
       </c>
       <c r="F53">
         <f>POWER(10, E53-10)/$N$3</f>
-        <v>3.8957442006258319E-4</v>
+        <v>1.2843891151728931E-3</v>
       </c>
       <c r="G53">
-        <v>14.0150503931989</v>
+        <v>16.605732537369601</v>
       </c>
       <c r="H53">
         <v>15.5718077850628</v>
@@ -2664,7 +2664,7 @@
         <v>1.779931324111343E-3</v>
       </c>
       <c r="J53">
-        <v>13.9141353465638</v>
+        <v>16.698123532722299</v>
       </c>
       <c r="K53">
         <v>15.5044879069742</v>
@@ -2676,27 +2676,27 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>15.031684195979301</v>
+        <v>15.728165771627999</v>
       </c>
       <c r="B54">
-        <v>15.3586068292853</v>
+        <v>15.5513471428023</v>
       </c>
       <c r="C54">
         <f>POWER(10, B54-10)/$N$3</f>
-        <v>1.0894374248522046E-3</v>
+        <v>1.6980192280036249E-3</v>
       </c>
       <c r="D54">
-        <v>15.0135906195685</v>
+        <v>15.768654168935299</v>
       </c>
       <c r="E54">
-        <v>15.4301011553991</v>
+        <v>14.7801052199758</v>
       </c>
       <c r="F54">
         <f>POWER(10, E54-10)/$N$3</f>
-        <v>1.2843891151728931E-3</v>
+        <v>2.875415973273757E-4</v>
       </c>
       <c r="G54">
-        <v>13.9620991845545</v>
+        <v>16.654063885626499</v>
       </c>
       <c r="H54">
         <v>15.614722963153801</v>
@@ -2706,7 +2706,7 @@
         <v>1.9648003378760904E-3</v>
       </c>
       <c r="J54">
-        <v>13.8615654118741</v>
+        <v>16.746723786994799</v>
       </c>
       <c r="K54">
         <v>15.5509078124963</v>
@@ -2718,27 +2718,27 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>15.026512378825601</v>
+        <v>15.7177804104701</v>
       </c>
       <c r="B55">
-        <v>15.2625809140601</v>
+        <v>16.148935841278501</v>
       </c>
       <c r="C55">
         <f>POWER(10, B55-10)/$N$3</f>
-        <v>8.7332597026559627E-4</v>
+        <v>6.7225076060410749E-3</v>
       </c>
       <c r="D55">
-        <v>14.9917483358594</v>
+        <v>15.755199836210799</v>
       </c>
       <c r="E55">
-        <v>14.7801052199758</v>
+        <v>15.336408381573399</v>
       </c>
       <c r="F55">
         <f>POWER(10, E55-10)/$N$3</f>
-        <v>2.875415973273757E-4</v>
+        <v>1.0351513254822707E-3</v>
       </c>
       <c r="G55">
-        <v>13.909348034448501</v>
+        <v>16.7025359033311</v>
       </c>
       <c r="H55">
         <v>15.658169313832399</v>
@@ -2748,7 +2748,7 @@
         <v>2.1715247060779723E-3</v>
       </c>
       <c r="J55">
-        <v>13.809194095205999</v>
+        <v>16.7954654933718</v>
       </c>
       <c r="K55">
         <v>15.5970553979787</v>
@@ -2760,37 +2760,37 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>15.0135906195685</v>
+        <v>15.7323218372029</v>
       </c>
       <c r="B56">
-        <v>15.171475566623799</v>
+        <v>15.454676523047301</v>
       </c>
       <c r="C56">
         <f>POWER(10, B56-10)/$N$3</f>
-        <v>7.080615763510003E-4</v>
+        <v>1.3591643790747197E-3</v>
       </c>
       <c r="D56">
-        <v>15.0084250277098</v>
+        <v>15.769081478719601</v>
       </c>
       <c r="E56">
-        <v>15.336408381573399</v>
+        <v>14.702644813377001</v>
       </c>
       <c r="F56">
         <f>POWER(10, E56-10)/$N$3</f>
-        <v>1.0351513254822707E-3</v>
+        <v>2.4056933870013713E-4</v>
       </c>
       <c r="G56">
-        <v>13.8567961870262</v>
+        <v>16.7511489999048</v>
       </c>
       <c r="H56">
-        <v>15.702978762613601</v>
+        <v>15.7009084619937</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>2.4075439479932445E-3</v>
+        <v>2.3960943935805975E-3</v>
       </c>
       <c r="J56">
-        <v>13.7570206461472</v>
+        <v>16.844349063552698</v>
       </c>
       <c r="K56">
         <v>15.643339927212001</v>
@@ -2802,27 +2802,27 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>14.9568667586408</v>
+        <v>15.736479000991199</v>
       </c>
       <c r="B57">
-        <v>15.2036623114639</v>
+        <v>15.3586068292853</v>
       </c>
       <c r="C57">
         <f>POWER(10, B57-10)/$N$3</f>
-        <v>7.6253147095987699E-4</v>
+        <v>1.0894374248522046E-3</v>
       </c>
       <c r="D57">
-        <v>14.9912192206502</v>
+        <v>15.759363045361599</v>
       </c>
       <c r="E57">
-        <v>14.702644813377001</v>
+        <v>15.2388635406136</v>
       </c>
       <c r="F57">
         <f>POWER(10, E57-10)/$N$3</f>
-        <v>2.4056933870013713E-4</v>
+        <v>8.2691144254515303E-4</v>
       </c>
       <c r="G57">
-        <v>13.8044428892886</v>
+        <v>16.799903585960902</v>
       </c>
       <c r="H57">
         <v>15.7450098052089</v>
@@ -2832,7 +2832,7 @@
         <v>2.6521938654771753E-3</v>
       </c>
       <c r="J57">
-        <v>13.7050443171207</v>
+        <v>16.893374910435401</v>
       </c>
       <c r="K57">
         <v>15.689348073143799</v>
@@ -2844,27 +2844,27 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>14.9003572099639</v>
+        <v>15.740637263282901</v>
       </c>
       <c r="B58">
-        <v>15.245160877682</v>
+        <v>15.2625809140601</v>
       </c>
       <c r="C58">
         <f>POWER(10, B58-10)/$N$3</f>
-        <v>8.3898913880173025E-4</v>
+        <v>8.7332597026559627E-4</v>
       </c>
       <c r="D58">
-        <v>15.0032612131301</v>
+        <v>15.847045009081601</v>
       </c>
       <c r="E58">
-        <v>15.2388635406136</v>
+        <v>14.7112246582181</v>
       </c>
       <c r="F58">
         <f>POWER(10, E58-10)/$N$3</f>
-        <v>8.2691144254515303E-4</v>
+        <v>2.4536924082936459E-4</v>
       </c>
       <c r="G58">
-        <v>13.752287391081801</v>
+        <v>16.848800073307601</v>
       </c>
       <c r="H58">
         <v>15.7879859854621</v>
@@ -2874,7 +2874,7 @@
         <v>2.9280699424703324E-3</v>
       </c>
       <c r="J58">
-        <v>13.653264363374101</v>
+        <v>16.942543448119199</v>
       </c>
       <c r="K58">
         <v>15.7359064824726</v>
@@ -2886,27 +2886,27 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>14.8440611638303</v>
+        <v>15.751037726870299</v>
       </c>
       <c r="B59">
-        <v>15.287982098751201</v>
+        <v>15.171475566623799</v>
       </c>
       <c r="C59">
         <f>POWER(10, B59-10)/$N$3</f>
-        <v>9.2592873002832633E-4</v>
+        <v>7.080615763510003E-4</v>
       </c>
       <c r="D59">
-        <v>14.895230577311899</v>
+        <v>15.8826738678626</v>
       </c>
       <c r="E59">
-        <v>14.7112246582181</v>
+        <v>14.765681510414201</v>
       </c>
       <c r="F59">
         <f>POWER(10, E59-10)/$N$3</f>
-        <v>2.4536924082936459E-4</v>
+        <v>2.7814865959390595E-4</v>
       </c>
       <c r="G59">
-        <v>13.700328945086101</v>
+        <v>16.897838874951599</v>
       </c>
       <c r="H59">
         <v>15.8323319155277</v>
@@ -2916,7 +2916,7 @@
         <v>3.2428538524660608E-3</v>
       </c>
       <c r="J59">
-        <v>13.601680042968599</v>
+        <v>16.9918550919088</v>
       </c>
       <c r="K59">
         <v>15.784684127437901</v>
@@ -2928,27 +2928,27 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14.7879778135915</v>
+        <v>15.796881467161301</v>
       </c>
       <c r="B60">
-        <v>15.33011506645</v>
+        <v>15.2036623114639</v>
       </c>
       <c r="C60">
         <f>POWER(10, B60-10)/$N$3</f>
-        <v>1.0202592183400938E-3</v>
+        <v>7.6253147095987699E-4</v>
       </c>
       <c r="D60">
-        <v>14.8517253549853</v>
+        <v>15.949535999670299</v>
       </c>
       <c r="E60">
-        <v>14.765681510414201</v>
+        <v>14.753614960837099</v>
       </c>
       <c r="F60">
         <f>POWER(10, E60-10)/$N$3</f>
-        <v>2.7814865959390595E-4</v>
+        <v>2.7052687876677744E-4</v>
       </c>
       <c r="G60">
-        <v>13.648566806805</v>
+        <v>16.947020405101899</v>
       </c>
       <c r="H60">
         <v>15.8734533902955</v>
@@ -2958,7 +2958,7 @@
         <v>3.5649123081728856E-3</v>
       </c>
       <c r="J60">
-        <v>13.550290616768701</v>
+        <v>17.041310258317701</v>
       </c>
       <c r="K60">
         <v>15.8357007705992</v>
@@ -2970,27 +2970,27 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>14.732106355646801</v>
+        <v>15.8428586366625</v>
       </c>
       <c r="B61">
-        <v>15.3723641506484</v>
+        <v>15.245160877682</v>
       </c>
       <c r="C61">
         <f>POWER(10, B61-10)/$N$3</f>
-        <v>1.1245003932235326E-3</v>
+        <v>8.3898913880173025E-4</v>
       </c>
       <c r="D61">
-        <v>14.7706858660303</v>
+        <v>15.994267055084499</v>
       </c>
       <c r="E61">
-        <v>14.753614960837099</v>
+        <v>14.7871324668579</v>
       </c>
       <c r="F61">
         <f>POWER(10, E61-10)/$N$3</f>
-        <v>2.7052687876677744E-4</v>
+        <v>2.9223210598995999E-4</v>
       </c>
       <c r="G61">
-        <v>13.597000234555299</v>
+        <v>16.996345079172901</v>
       </c>
       <c r="H61">
         <v>15.909226894981099</v>
@@ -3000,7 +3000,7 @@
         <v>3.8709927325660874E-3</v>
       </c>
       <c r="J61">
-        <v>13.4990953484313</v>
+        <v>17.090909365071699</v>
       </c>
       <c r="K61">
         <v>15.885625540152599</v>
@@ -3012,27 +3012,27 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>14.6764459894317</v>
+        <v>15.8889696237226</v>
       </c>
       <c r="B62">
-        <v>15.4139167202051</v>
+        <v>15.287982098751201</v>
       </c>
       <c r="C62">
         <f>POWER(10, B62-10)/$N$3</f>
-        <v>1.237405896505595E-3</v>
+        <v>9.2592873002832633E-4</v>
       </c>
       <c r="D62">
-        <v>14.716905354663201</v>
+        <v>16.0408187196626</v>
       </c>
       <c r="E62">
-        <v>14.7871324668579</v>
+        <v>14.8224119696843</v>
       </c>
       <c r="F62">
         <f>POWER(10, E62-10)/$N$3</f>
-        <v>2.9223210598995999E-4</v>
+        <v>3.1696216940496586E-4</v>
       </c>
       <c r="G62">
-        <v>13.5456284894557</v>
+        <v>17.045813313788098</v>
       </c>
       <c r="H62">
         <v>15.943819656219301</v>
@@ -3042,7 +3042,7 @@
         <v>4.1919405726288574E-3</v>
       </c>
       <c r="J62">
-        <v>13.4480935043957</v>
+        <v>17.140652831112199</v>
       </c>
       <c r="K62">
         <v>15.9348672793249</v>
@@ -3054,27 +3054,27 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>14.6209959174061</v>
+        <v>15.9352148178204</v>
       </c>
       <c r="B63">
-        <v>15.4572119494725</v>
+        <v>15.33011506645</v>
       </c>
       <c r="C63">
         <f>POWER(10, B63-10)/$N$3</f>
-        <v>1.3671224355180185E-3</v>
+        <v>1.0202592183400938E-3</v>
       </c>
       <c r="D63">
-        <v>14.661302420376799</v>
+        <v>16.087505873880001</v>
       </c>
       <c r="E63">
-        <v>14.8224119696843</v>
+        <v>14.862477980242801</v>
       </c>
       <c r="F63">
         <f>POWER(10, E63-10)/$N$3</f>
-        <v>3.1696216940496586E-4</v>
+        <v>3.4759493640716975E-4</v>
       </c>
       <c r="G63">
-        <v>13.494450835416499</v>
+        <v>17.0954255267836</v>
       </c>
       <c r="H63">
         <v>15.9780662883558</v>
@@ -3084,7 +3084,7 @@
         <v>4.5358820145446413E-3</v>
       </c>
       <c r="J63">
-        <v>13.397284353872401</v>
+        <v>17.190541076600098</v>
       </c>
       <c r="K63">
         <v>15.985947764739601</v>
@@ -3096,27 +3096,27 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>14.565755345043501</v>
+        <v>15.981594609568599</v>
       </c>
       <c r="B64">
-        <v>15.499402582261601</v>
+        <v>15.3723641506484</v>
       </c>
       <c r="C64">
         <f>POWER(10, B64-10)/$N$3</f>
-        <v>1.5066002780657472E-3</v>
+        <v>1.1245003932235326E-3</v>
       </c>
       <c r="D64">
-        <v>14.605909563292499</v>
+        <v>16.134328912082399</v>
       </c>
       <c r="E64">
-        <v>14.862477980242801</v>
+        <v>14.9038312871063</v>
       </c>
       <c r="F64">
         <f>POWER(10, E64-10)/$N$3</f>
-        <v>3.4759493640716975E-4</v>
+        <v>3.8231976282671466E-4</v>
       </c>
       <c r="G64">
-        <v>13.4434665391293</v>
+        <v>17.145182137211702</v>
       </c>
       <c r="H64">
         <v>16.015342479089501</v>
@@ -3126,7 +3126,7 @@
         <v>4.9424005590306807E-3</v>
       </c>
       <c r="J64">
-        <v>13.3466671688329</v>
+        <v>17.2405745229192</v>
       </c>
       <c r="K64">
         <v>16.035500479441598</v>
@@ -3138,27 +3138,27 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>14.5107234808189</v>
+        <v>16.028109390716399</v>
       </c>
       <c r="B65">
-        <v>15.5429379276568</v>
+        <v>15.4139167202051</v>
       </c>
       <c r="C65">
         <f>POWER(10, B65-10)/$N$3</f>
-        <v>1.6654568635227928E-3</v>
+        <v>1.237405896505595E-3</v>
       </c>
       <c r="D65">
-        <v>14.5507259897034</v>
+        <v>16.181288229762998</v>
       </c>
       <c r="E65">
-        <v>14.9038312871063</v>
+        <v>14.944905553032999</v>
       </c>
       <c r="F65">
         <f>POWER(10, E65-10)/$N$3</f>
-        <v>3.8231976282671466E-4</v>
+        <v>4.2024350889244608E-4</v>
       </c>
       <c r="G65">
-        <v>13.392674870056</v>
+        <v>17.195083565344198</v>
       </c>
       <c r="H65">
         <v>16.056939289032901</v>
@@ -3168,7 +3168,7 @@
         <v>5.439196516481757E-3</v>
       </c>
       <c r="J65">
-        <v>13.2962412239995</v>
+        <v>17.2907535926797</v>
       </c>
       <c r="K65">
         <v>16.086479346667399</v>
@@ -3180,27 +3180,27 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>14.455899536198199</v>
+        <v>16.074759554153601</v>
       </c>
       <c r="B66">
-        <v>15.5853625504615</v>
+        <v>15.4572119494725</v>
       </c>
       <c r="C66">
         <f>POWER(10, B66-10)/$N$3</f>
-        <v>1.8363607913557145E-3</v>
+        <v>1.3671224355180185E-3</v>
       </c>
       <c r="D66">
-        <v>14.4957509089016</v>
+        <v>16.228384223566199</v>
       </c>
       <c r="E66">
-        <v>14.944905553032999</v>
+        <v>14.9837221063926</v>
       </c>
       <c r="F66">
         <f>POWER(10, E66-10)/$N$3</f>
-        <v>4.2024350889244608E-4</v>
+        <v>4.5953391312193178E-4</v>
       </c>
       <c r="G66">
-        <v>13.3420751004187</v>
+        <v>17.245130232676299</v>
       </c>
       <c r="H66">
         <v>16.1007668842987</v>
@@ -3210,7 +3210,7 @@
         <v>6.0167552458473914E-3</v>
       </c>
       <c r="J66">
-        <v>13.2460057968347</v>
+        <v>17.3410787097217</v>
       </c>
       <c r="K66">
         <v>16.137620282105999</v>
@@ -3222,27 +3222,27 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>14.4012827256261</v>
+        <v>16.121545493913199</v>
       </c>
       <c r="B67">
-        <v>15.629551489383701</v>
+        <v>15.499402582261601</v>
       </c>
       <c r="C67">
         <f>POWER(10, B67-10)/$N$3</f>
-        <v>2.0330448072793422E-3</v>
+        <v>1.5066002780657472E-3</v>
       </c>
       <c r="D67">
-        <v>14.4409835331662</v>
+        <v>16.275617291290899</v>
       </c>
       <c r="E67">
-        <v>14.9837221063926</v>
+        <v>15.022243336719299</v>
       </c>
       <c r="F67">
         <f>POWER(10, E67-10)/$N$3</f>
-        <v>4.5953391312193178E-4</v>
+        <v>5.0215616360133281E-4</v>
       </c>
       <c r="G67">
-        <v>13.2916665051892</v>
+        <v>17.295322561929801</v>
       </c>
       <c r="H67">
         <v>16.144288377110101</v>
@@ -3252,7 +3252,7 @@
         <v>6.6509523761772221E-3</v>
       </c>
       <c r="J67">
-        <v>13.195960167530901</v>
+        <v>17.391550299119199</v>
       </c>
       <c r="K67">
         <v>16.187643146284898</v>
@@ -3264,27 +3264,27 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>14.346872266515501</v>
+        <v>16.168467605175199</v>
       </c>
       <c r="B68">
-        <v>15.672625806438401</v>
+        <v>15.5429379276568</v>
       </c>
       <c r="C68">
         <f>POWER(10, B68-10)/$N$3</f>
-        <v>2.2450254439194055E-3</v>
+        <v>1.6654568635227928E-3</v>
       </c>
       <c r="D68">
-        <v>14.3864230777528</v>
+        <v>16.322987831893698</v>
       </c>
       <c r="E68">
-        <v>15.022243336719299</v>
+        <v>15.0604664505816</v>
       </c>
       <c r="F68">
         <f>POWER(10, E68-10)/$N$3</f>
-        <v>5.0215616360133281E-4</v>
+        <v>5.4835513102685759E-4</v>
       </c>
       <c r="G68">
-        <v>13.247715239237699</v>
+        <v>17.339360671573999</v>
       </c>
       <c r="H68">
         <v>16.183533039270401</v>
@@ -3294,7 +3294,7 @@
         <v>7.279951739129634E-3</v>
       </c>
       <c r="J68">
-        <v>13.146103618999801</v>
+        <v>17.442168787183</v>
       </c>
       <c r="K68">
         <v>16.2391056941307</v>
@@ -3306,27 +3306,27 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>14.2926673792361</v>
+        <v>16.215526284269799</v>
       </c>
       <c r="B69">
-        <v>15.7162332657861</v>
+        <v>15.5853625504615</v>
       </c>
       <c r="C69">
         <f>POWER(10, B69-10)/$N$3</f>
-        <v>2.4821540222590638E-3</v>
+        <v>1.8363607913557145E-3</v>
       </c>
       <c r="D69">
-        <v>14.3320687608817</v>
+        <v>16.3704962454925</v>
       </c>
       <c r="E69">
-        <v>15.0604664505816</v>
+        <v>15.0983886710174</v>
       </c>
       <c r="F69">
         <f>POWER(10, E69-10)/$N$3</f>
-        <v>5.4835513102685759E-4</v>
+        <v>5.9838973105477223E-4</v>
       </c>
       <c r="G69">
-        <v>13.153343756944301</v>
+        <v>17.434796952027501</v>
       </c>
       <c r="H69">
         <v>16.185472159524899</v>
@@ -3336,7 +3336,7 @@
         <v>7.3125293215731395E-3</v>
       </c>
       <c r="J69">
-        <v>13.0964354368627</v>
+        <v>17.492934601464999</v>
       </c>
       <c r="K69">
         <v>16.290302267068999</v>
@@ -3348,27 +3348,27 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>14.238667287103</v>
+        <v>16.262721928680499</v>
       </c>
       <c r="B70">
-        <v>15.759130900153201</v>
+        <v>15.629551489383701</v>
       </c>
       <c r="C70">
         <f>POWER(10, B70-10)/$N$3</f>
-        <v>2.7398473138639939E-3</v>
+        <v>2.0330448072793422E-3</v>
       </c>
       <c r="D70">
-        <v>14.277919803726901</v>
+        <v>16.418142933369701</v>
       </c>
       <c r="E70">
-        <v>15.0983886710174</v>
+        <v>15.1332135410116</v>
       </c>
       <c r="F70">
         <f>POWER(10, E70-10)/$N$3</f>
-        <v>5.9838973105477223E-4</v>
+        <v>6.4834923388527865E-4</v>
       </c>
       <c r="G70">
-        <v>13.105452036827099</v>
+        <v>17.483693475952201</v>
       </c>
       <c r="H70">
         <v>16.225108964281901</v>
@@ -3378,7 +3378,7 @@
         <v>8.0113263817750829E-3</v>
       </c>
       <c r="J70">
-        <v>13.0469549094397</v>
+        <v>17.5438481707614</v>
       </c>
       <c r="K70">
         <v>16.340367508800501</v>
@@ -3390,27 +3390,27 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>14.184871216365799</v>
+        <v>16.3100549370481</v>
       </c>
       <c r="B71">
-        <v>15.803812521806799</v>
+        <v>15.672625806438401</v>
       </c>
       <c r="C71">
         <f>POWER(10, B71-10)/$N$3</f>
-        <v>3.0367426065317652E-3</v>
+        <v>2.2450254439194055E-3</v>
       </c>
       <c r="D71">
-        <v>14.223975430405</v>
+        <v>16.465928297975399</v>
       </c>
       <c r="E71">
-        <v>15.134011687493</v>
+        <v>15.169318732541401</v>
       </c>
       <c r="F71">
         <f>POWER(10, E71-10)/$N$3</f>
-        <v>6.4954186580447044E-4</v>
+        <v>7.0455385179363738E-4</v>
       </c>
       <c r="G71">
-        <v>13.055937443178699</v>
+        <v>17.5345801487504</v>
       </c>
       <c r="H71">
         <v>16.268108559979801</v>
@@ -3420,7 +3420,7 @@
         <v>8.8451259408900296E-3</v>
       </c>
       <c r="J71">
-        <v>12.9976613277399</v>
+        <v>17.594909925116301</v>
       </c>
       <c r="K71">
         <v>16.381512517204001</v>
@@ -3432,27 +3432,27 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>14.131278396197599</v>
+        <v>16.357525709173199</v>
       </c>
       <c r="B72">
-        <v>15.8473670941629</v>
+        <v>15.7162332657861</v>
       </c>
       <c r="C72">
         <f>POWER(10, B72-10)/$N$3</f>
-        <v>3.3570866821204365E-3</v>
+        <v>2.4821540222590638E-3</v>
       </c>
       <c r="D72">
-        <v>14.170234867964099</v>
+        <v>16.513852742931501</v>
       </c>
       <c r="E72">
-        <v>15.169318732541401</v>
+        <v>15.2051091008322</v>
       </c>
       <c r="F72">
         <f>POWER(10, E72-10)/$N$3</f>
-        <v>7.0455385179363738E-4</v>
+        <v>7.6507597043345467E-4</v>
       </c>
       <c r="G72">
-        <v>13.006609923961401</v>
+        <v>17.585614928324301</v>
       </c>
       <c r="H72">
         <v>16.308641556098902</v>
@@ -3462,7 +3462,7 @@
         <v>9.7103976957479306E-3</v>
       </c>
       <c r="J72">
-        <v>12.948553985450999</v>
+        <v>17.6461202958257</v>
       </c>
       <c r="K72">
         <v>16.417565133879801</v>
@@ -3474,27 +3474,27 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>14.0778880586835</v>
+        <v>16.405134646020201</v>
       </c>
       <c r="B73">
-        <v>15.8914607530597</v>
+        <v>15.759130900153201</v>
       </c>
       <c r="C73">
         <f>POWER(10, B73-10)/$N$3</f>
-        <v>3.7158332285072639E-3</v>
+        <v>2.7398473138639939E-3</v>
       </c>
       <c r="D73">
-        <v>14.116697346372501</v>
+        <v>16.5619166730343</v>
       </c>
       <c r="E73">
-        <v>15.2051091008322</v>
+        <v>15.240582013307399</v>
       </c>
       <c r="F73">
         <f>POWER(10, E73-10)/$N$3</f>
-        <v>7.6507597043345467E-4</v>
+        <v>8.3018995505880499E-4</v>
       </c>
       <c r="G73">
-        <v>12.9574687723767</v>
+        <v>17.6367982457419</v>
       </c>
       <c r="H73">
         <v>16.345395830721898</v>
@@ -3504,7 +3504,7 @@
         <v>1.0567963185725783E-2</v>
       </c>
       <c r="J73">
-        <v>12.8996321789294</v>
+        <v>17.6974797154407</v>
       </c>
       <c r="K73">
         <v>16.454564886158099</v>
@@ -3516,27 +3516,27 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>14.0246994388103</v>
+        <v>16.4528821497208</v>
       </c>
       <c r="B74">
-        <v>15.935256879865101</v>
+        <v>15.803812521806799</v>
       </c>
       <c r="C74">
         <f>POWER(10, B74-10)/$N$3</f>
-        <v>4.1100995488809319E-3</v>
+        <v>3.0367426065317652E-3</v>
       </c>
       <c r="D74">
-        <v>14.063362098507801</v>
+        <v>16.6101204942584</v>
       </c>
       <c r="E74">
-        <v>15.240582013307399</v>
+        <v>15.2761376826711</v>
       </c>
       <c r="F74">
         <f>POWER(10, E74-10)/$N$3</f>
-        <v>8.3018995505880499E-4</v>
+        <v>9.010173288855806E-4</v>
       </c>
       <c r="G74">
-        <v>12.908513284296401</v>
+        <v>17.6881305333259</v>
       </c>
       <c r="H74">
         <v>16.380936990518698</v>
@@ -3546,7 +3546,7 @@
         <v>1.1469182186583734E-2</v>
       </c>
       <c r="J74">
-        <v>12.850895207189801</v>
+        <v>17.7489886177713</v>
       </c>
       <c r="K74">
         <v>16.490778277307701</v>
@@ -3558,27 +3558,27 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>13.971711774454899</v>
+        <v>16.500768623576601</v>
       </c>
       <c r="B75">
-        <v>15.9795950829949</v>
+        <v>15.8473670941629</v>
       </c>
       <c r="C75">
         <f>POWER(10, B75-10)/$N$3</f>
-        <v>4.5518772711153699E-3</v>
+        <v>3.3570866821204365E-3</v>
       </c>
       <c r="D75">
-        <v>14.010228360146</v>
+        <v>16.6584646137599</v>
       </c>
       <c r="E75">
-        <v>15.275332040664701</v>
+        <v>15.3117763019919</v>
       </c>
       <c r="F75">
         <f>POWER(10, E75-10)/$N$3</f>
-        <v>8.9934743768584752E-4</v>
+        <v>9.7807410970044231E-4</v>
       </c>
       <c r="G75">
-        <v>12.859742758252599</v>
+        <v>17.7396122246573</v>
       </c>
       <c r="H75">
         <v>16.4169883405688</v>
@@ -3588,7 +3588,7 @@
         <v>1.2461886789154731E-2</v>
       </c>
       <c r="J75">
-        <v>12.802342371895399</v>
+        <v>17.800647437890401</v>
       </c>
       <c r="K75">
         <v>16.527943027753999</v>
@@ -3600,27 +3600,27 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>13.918924306373601</v>
+        <v>16.548794472063499</v>
       </c>
       <c r="B76">
-        <v>16.022789039999001</v>
+        <v>15.8914607530597</v>
       </c>
       <c r="C76">
         <f>POWER(10, B76-10)/$N$3</f>
-        <v>5.0278753358433629E-3</v>
+        <v>3.7158332285072639E-3</v>
       </c>
       <c r="D76">
-        <v>13.957295369950399</v>
+        <v>16.706949439880098</v>
       </c>
       <c r="E76">
-        <v>15.3057209284349</v>
+        <v>15.3462839726176</v>
       </c>
       <c r="F76">
         <f>POWER(10, E76-10)/$N$3</f>
-        <v>9.6453144198088941E-4</v>
+        <v>1.0589597019291606E-3</v>
       </c>
       <c r="G76">
-        <v>12.8111564954279</v>
+        <v>17.791243754578801</v>
       </c>
       <c r="H76">
         <v>16.452685169941201</v>
@@ -3630,7 +3630,7 @@
         <v>1.3529465231820763E-2</v>
       </c>
       <c r="J76">
-        <v>12.753972977348001</v>
+        <v>17.852456612136901</v>
       </c>
       <c r="K76">
         <v>16.564317910341501</v>
@@ -3642,27 +3642,27 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>13.866336278191399</v>
+        <v>16.596960100834199</v>
       </c>
       <c r="B77">
-        <v>16.0652524497788</v>
+        <v>15.935256879865101</v>
       </c>
       <c r="C77">
         <f>POWER(10, B77-10)/$N$3</f>
-        <v>5.5443151792862345E-3</v>
+        <v>4.1100995488809319E-3</v>
       </c>
       <c r="D77">
-        <v>13.9045623694609</v>
+        <v>16.755575382148699</v>
       </c>
       <c r="E77">
-        <v>15.3446653324549</v>
+        <v>15.3731650677034</v>
       </c>
       <c r="F77">
         <f>POWER(10, E77-10)/$N$3</f>
-        <v>1.0550202449170136E-3</v>
+        <v>1.1265760873775839E-3</v>
       </c>
       <c r="G77">
-        <v>12.7627537996449</v>
+        <v>17.843025559198999</v>
       </c>
       <c r="H77">
         <v>16.4893292419343</v>
@@ -3672,7 +3672,7 @@
         <v>1.4720572580768728E-2</v>
       </c>
       <c r="J77">
-        <v>12.705786330477499</v>
+        <v>17.904416578119701</v>
       </c>
       <c r="K77">
         <v>16.6020861858599</v>
@@ -3684,27 +3684,27 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>13.813946936391</v>
+        <v>16.645265916722401</v>
       </c>
       <c r="B78">
-        <v>16.1086779446034</v>
+        <v>15.9795950829949</v>
       </c>
       <c r="C78">
         <f>POWER(10, B78-10)/$N$3</f>
-        <v>6.1273601194185316E-3</v>
+        <v>4.5518772711153699E-3</v>
       </c>
       <c r="D78">
-        <v>13.852028603082699</v>
+        <v>16.804342851287199</v>
       </c>
       <c r="E78">
-        <v>15.3731650677034</v>
+        <v>15.400093248668499</v>
       </c>
       <c r="F78">
         <f>POWER(10, E78-10)/$N$3</f>
-        <v>1.1265760873775839E-3</v>
+        <v>1.1986398430921842E-3</v>
       </c>
       <c r="G78">
-        <v>12.7145339773566</v>
+        <v>17.894958075895801</v>
       </c>
       <c r="H78">
         <v>16.5260549290558</v>
@@ -3714,7 +3714,7 @@
         <v>1.6019552868014743E-2</v>
       </c>
       <c r="J78">
-        <v>12.657781740832799</v>
+        <v>17.9565277747217</v>
       </c>
       <c r="K78">
         <v>16.6386242435422</v>
@@ -3726,27 +3726,27 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>13.7617555303018</v>
+        <v>16.6937123277458</v>
       </c>
       <c r="B79">
-        <v>16.150943070310401</v>
+        <v>16.022789039999001</v>
       </c>
       <c r="C79">
         <f>POWER(10, B79-10)/$N$3</f>
-        <v>6.7536497079732838E-3</v>
+        <v>5.0278753358433629E-3</v>
       </c>
       <c r="D79">
-        <v>13.7996933180761</v>
+        <v>16.853252259212798</v>
       </c>
       <c r="E79">
-        <v>15.400093248668499</v>
+        <v>15.4266617916811</v>
       </c>
       <c r="F79">
         <f>POWER(10, E79-10)/$N$3</f>
-        <v>1.1986398430921842E-3</v>
+        <v>1.2742576591488835E-3</v>
       </c>
       <c r="G79">
-        <v>12.6664963376362</v>
+        <v>17.947041743319801</v>
       </c>
       <c r="H79">
         <v>16.562862413082101</v>
@@ -3756,7 +3756,7 @@
         <v>1.7436442183327548E-2</v>
       </c>
       <c r="J79">
-        <v>12.609958520571</v>
+        <v>18.0087906421026</v>
       </c>
       <c r="K79">
         <v>16.675682446403801</v>
@@ -3768,27 +3768,27 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>13.7097613120897</v>
+        <v>16.742299743109601</v>
       </c>
       <c r="B80">
-        <v>16.1941731469987</v>
+        <v>16.0652524497788</v>
       </c>
       <c r="C80">
         <f>POWER(10, B80-10)/$N$3</f>
-        <v>7.4605115659540748E-3</v>
+        <v>5.5443151792862345E-3</v>
       </c>
       <c r="D80">
-        <v>13.747555764545201</v>
+        <v>16.902304019041502</v>
       </c>
       <c r="E80">
-        <v>15.4266617916811</v>
+        <v>15.4524611872242</v>
       </c>
       <c r="F80">
         <f>POWER(10, E80-10)/$N$3</f>
-        <v>1.2742576591488835E-3</v>
+        <v>1.3522489354384371E-3</v>
       </c>
       <c r="G80">
-        <v>12.6186401921676</v>
+        <v>17.9992770013986</v>
       </c>
       <c r="H80">
         <v>16.598438722173601</v>
@@ -3798,7 +3798,7 @@
         <v>1.8924925701998118E-2</v>
       </c>
       <c r="J80">
-        <v>12.562315984448199</v>
+        <v>18.061205621703799</v>
       </c>
       <c r="K80">
         <v>16.712382475562698</v>
@@ -3810,27 +3810,27 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>13.657963536745701</v>
+        <v>16.7910285732099</v>
       </c>
       <c r="B81">
-        <v>16.237090756952199</v>
+        <v>16.1086779446034</v>
       </c>
       <c r="C81">
         <f>POWER(10, B81-10)/$N$3</f>
-        <v>8.2354288213298075E-3</v>
+        <v>6.1273601194185316E-3</v>
       </c>
       <c r="D81">
-        <v>13.695615195427299</v>
+        <v>16.9514985450914</v>
       </c>
       <c r="E81">
-        <v>15.4524611872242</v>
+        <v>15.4791200764318</v>
       </c>
       <c r="F81">
         <f>POWER(10, E81-10)/$N$3</f>
-        <v>1.3522489354384371E-3</v>
+        <v>1.4378564747797114E-3</v>
       </c>
       <c r="G81">
-        <v>12.5709648552349</v>
+        <v>18.051664291340199</v>
       </c>
       <c r="H81">
         <v>16.634968752476802</v>
@@ -3840,7 +3840,7 @@
         <v>2.058563240970256E-2</v>
       </c>
       <c r="J81">
-        <v>12.5148534498096</v>
+        <v>18.113773156251199</v>
       </c>
       <c r="K81">
         <v>16.7500466484491</v>
@@ -3852,27 +3852,27 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>13.6063614620758</v>
+        <v>16.839899229637599</v>
       </c>
       <c r="B82">
-        <v>16.280122106658101</v>
+        <v>16.150943070310401</v>
       </c>
       <c r="C82">
         <f>POWER(10, B82-10)/$N$3</f>
-        <v>9.093217260876375E-3</v>
+        <v>6.7536497079732838E-3</v>
       </c>
       <c r="D82">
-        <v>13.643870866482301</v>
+        <v>17.000836252886899</v>
       </c>
       <c r="E82">
-        <v>15.4791200764318</v>
+        <v>15.507051672031899</v>
       </c>
       <c r="F82">
         <f>POWER(10, E82-10)/$N$3</f>
-        <v>1.4378564747797114E-3</v>
+        <v>1.5333706033353294E-3</v>
       </c>
       <c r="G82">
-        <v>12.5234696437133</v>
+        <v>18.104204055636501</v>
       </c>
       <c r="H82">
         <v>16.671579178480901</v>
@@ -3882,7 +3882,7 @@
         <v>2.2396215591628556E-2</v>
       </c>
       <c r="J82">
-        <v>12.4675702365793</v>
+        <v>18.1664936897592</v>
       </c>
       <c r="K82">
         <v>16.787353015703701</v>
@@ -3894,27 +3894,27 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>13.554954348690099</v>
+        <v>16.8889121251812</v>
       </c>
       <c r="B83">
-        <v>16.324128409110902</v>
+        <v>16.1941731469987</v>
       </c>
       <c r="C83">
         <f>POWER(10, B83-10)/$N$3</f>
-        <v>1.0062916525081563E-2</v>
+        <v>7.4605115659540748E-3</v>
       </c>
       <c r="D83">
-        <v>13.592322036281899</v>
+        <v>17.050317559161599</v>
       </c>
       <c r="E83">
-        <v>15.507051672031899</v>
+        <v>15.532575911510101</v>
       </c>
       <c r="F83">
         <f>POWER(10, E83-10)/$N$3</f>
-        <v>1.5333706033353294E-3</v>
+        <v>1.6261903234809892E-3</v>
       </c>
       <c r="G83">
-        <v>12.476153877058801</v>
+        <v>18.156896738067601</v>
       </c>
       <c r="H83">
         <v>16.70959202025</v>
@@ -3924,7 +3924,7 @@
         <v>2.4444855886267849E-2</v>
       </c>
       <c r="J83">
-        <v>12.420465667250999</v>
+        <v>18.219367667534598</v>
       </c>
       <c r="K83">
         <v>16.824742473176901</v>
@@ -3936,27 +3936,27 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>13.503741459992201</v>
+        <v>16.938067673830702</v>
       </c>
       <c r="B84">
-        <v>16.366527231853102</v>
+        <v>16.237090756952199</v>
       </c>
       <c r="C84">
         <f>POWER(10, B84-10)/$N$3</f>
-        <v>1.109488213297165E-2</v>
+        <v>8.2354288213298075E-3</v>
       </c>
       <c r="D84">
-        <v>13.540967966199201</v>
+        <v>17.099942881861899</v>
       </c>
       <c r="E84">
-        <v>15.532575911510101</v>
+        <v>15.5593730162119</v>
       </c>
       <c r="F84">
         <f>POWER(10, E84-10)/$N$3</f>
-        <v>1.6261903234809892E-3</v>
+        <v>1.7296908069130276E-3</v>
       </c>
       <c r="G84">
-        <v>12.429016877298499</v>
+        <v>18.209742783705</v>
       </c>
       <c r="H84">
         <v>16.745483498164798</v>
@@ -3966,7 +3966,7 @@
         <v>2.6550882401514167E-2</v>
       </c>
       <c r="J84">
-        <v>12.3735390668782</v>
+        <v>18.2723955361805</v>
       </c>
       <c r="K84">
         <v>16.8622152059305</v>
@@ -3978,27 +3978,27 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>13.452722062168601</v>
+        <v>16.987366290781299</v>
       </c>
       <c r="B85">
-        <v>16.410767093369401</v>
+        <v>16.280122106658101</v>
       </c>
       <c r="C85">
         <f>POWER(10, B85-10)/$N$3</f>
-        <v>1.2284643403099784E-2</v>
+        <v>9.093217260876375E-3</v>
       </c>
       <c r="D85">
-        <v>13.4898079203978</v>
+        <v>17.149712640150899</v>
       </c>
       <c r="E85">
-        <v>15.5593730162119</v>
+        <v>15.585805348825801</v>
       </c>
       <c r="F85">
         <f>POWER(10, E85-10)/$N$3</f>
-        <v>1.7296908069130276E-3</v>
+        <v>1.838234064582204E-3</v>
       </c>
       <c r="G85">
-        <v>12.3820579690213</v>
+        <v>18.262742638915601</v>
       </c>
       <c r="H85">
         <v>16.782337146262002</v>
@@ -4008,7 +4008,7 @@
         <v>2.8902313485870811E-2</v>
       </c>
       <c r="J85">
-        <v>12.3267897630642</v>
+        <v>18.325577743599499</v>
       </c>
       <c r="K85">
         <v>16.8930880188279</v>
@@ -4020,27 +4020,27 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>13.4018954241785</v>
+        <v>17.0368083924362</v>
       </c>
       <c r="B86">
-        <v>16.454258718088902</v>
+        <v>16.324128409110902</v>
       </c>
       <c r="C86">
         <f>POWER(10, B86-10)/$N$3</f>
-        <v>1.3578574489252839E-2</v>
+        <v>1.0062916525081563E-2</v>
       </c>
       <c r="D86">
-        <v>13.438841165821399</v>
+        <v>17.199627254411499</v>
       </c>
       <c r="E86">
-        <v>15.585805348825801</v>
+        <v>15.6135177209521</v>
       </c>
       <c r="F86">
         <f>POWER(10, E86-10)/$N$3</f>
-        <v>1.838234064582204E-3</v>
+        <v>1.9593552366071782E-3</v>
       </c>
       <c r="G86">
-        <v>12.3352764793677</v>
+        <v>18.315896751365699</v>
       </c>
       <c r="H86">
         <v>16.816610968418999</v>
@@ -4050,7 +4050,7 @@
         <v>3.1275656123678532E-2</v>
       </c>
       <c r="J86">
-        <v>12.280217085953</v>
+        <v>18.378914738997999</v>
       </c>
       <c r="K86">
         <v>16.923571076046201</v>
@@ -4062,27 +4062,27 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>13.3512608177428</v>
+        <v>17.086394396410899</v>
       </c>
       <c r="B87">
-        <v>16.498300658125199</v>
+        <v>16.366527231853102</v>
       </c>
       <c r="C87">
         <f>POWER(10, B87-10)/$N$3</f>
-        <v>1.5027824656824911E-2</v>
+        <v>1.109488213297165E-2</v>
       </c>
       <c r="D87">
-        <v>13.388066972183401</v>
+        <v>17.2496871462501</v>
       </c>
       <c r="E87">
-        <v>15.6135177209521</v>
+        <v>15.642104309687999</v>
       </c>
       <c r="F87">
         <f>POWER(10, E87-10)/$N$3</f>
-        <v>1.9593552366071782E-3</v>
+        <v>2.0926652887285546E-3</v>
       </c>
       <c r="G87">
-        <v>12.2886717380203</v>
+        <v>18.369205570024299</v>
       </c>
       <c r="H87">
         <v>16.850066090836901</v>
@@ -4092,7 +4092,7 @@
         <v>3.3780148297612514E-2</v>
       </c>
       <c r="J87">
-        <v>12.2338203682193</v>
+        <v>18.4324069728899</v>
       </c>
       <c r="K87">
         <v>16.953215003142802</v>
@@ -4104,27 +4104,27 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>13.300817517334201</v>
+        <v>17.136124721536198</v>
       </c>
       <c r="B88">
-        <v>16.540715675911599</v>
+        <v>16.410767093369401</v>
       </c>
       <c r="C88">
         <f>POWER(10, B88-10)/$N$3</f>
-        <v>1.6569566138689856E-2</v>
+        <v>1.2284643403099784E-2</v>
       </c>
       <c r="D88">
-        <v>13.3374846119564</v>
+        <v>17.299892738500301</v>
       </c>
       <c r="E88">
-        <v>15.642104309687999</v>
+        <v>15.670743237241499</v>
       </c>
       <c r="F88">
         <f>POWER(10, E88-10)/$N$3</f>
-        <v>2.0926652887285546E-3</v>
+        <v>2.2353148239092086E-3</v>
       </c>
       <c r="G88">
-        <v>12.2422430771945</v>
+        <v>18.422669545167199</v>
       </c>
       <c r="H88">
         <v>16.8813618155793</v>
@@ -4134,7 +4134,7 @@
         <v>3.6304233896528773E-2</v>
       </c>
       <c r="J88">
-        <v>12.187598945059101</v>
+        <v>18.4860548971001</v>
       </c>
       <c r="K88">
         <v>16.983358700718199</v>
@@ -4146,27 +4146,27 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>13.2505648001664</v>
+        <v>17.185999787861999</v>
       </c>
       <c r="B89">
-        <v>16.586301119090901</v>
+        <v>16.454258718088902</v>
       </c>
       <c r="C89">
         <f>POWER(10, B89-10)/$N$3</f>
-        <v>1.840333704798881E-2</v>
+        <v>1.3578574489252839E-2</v>
       </c>
       <c r="D89">
-        <v>13.287093360361499</v>
+        <v>17.350244455226498</v>
       </c>
       <c r="E89">
-        <v>15.670743237241499</v>
+        <v>15.6998485988595</v>
       </c>
       <c r="F89">
         <f>POWER(10, E89-10)/$N$3</f>
-        <v>2.2353148239092086E-3</v>
+        <v>2.3902540341704552E-3</v>
       </c>
       <c r="G89">
-        <v>12.1959898316286</v>
+        <v>18.476289128380699</v>
       </c>
       <c r="H89">
         <v>16.909148136977599</v>
@@ -4176,7 +4176,7 @@
         <v>3.8702908032766957E-2</v>
       </c>
       <c r="J89">
-        <v>12.141552154180101</v>
+        <v>18.539858964768701</v>
       </c>
       <c r="K89">
         <v>17.0135559953548</v>
@@ -4188,27 +4188,27 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>13.200501946184101</v>
+        <v>17.236020016660799</v>
       </c>
       <c r="B90">
-        <v>16.629819408066801</v>
+        <v>16.498735723914798</v>
       </c>
       <c r="C90">
         <f>POWER(10, B90-10)/$N$3</f>
-        <v>2.0342993908765709E-2</v>
+        <v>1.5042886714066523E-2</v>
       </c>
       <c r="D90">
-        <v>13.236892495358299</v>
+        <v>17.4007427217269</v>
       </c>
       <c r="E90">
-        <v>15.6998485988595</v>
+        <v>15.728178492282501</v>
       </c>
       <c r="F90">
         <f>POWER(10, E90-10)/$N$3</f>
-        <v>2.3902540341704552E-3</v>
+        <v>2.5513729882230313E-3</v>
       </c>
       <c r="G90">
-        <v>12.149911338574199</v>
+        <v>18.530064772565598</v>
       </c>
       <c r="H90">
         <v>16.936533571861901</v>
@@ -4218,7 +4218,7 @@
         <v>4.1221997522015642E-2</v>
       </c>
       <c r="J90">
-        <v>12.095679335792299</v>
+        <v>18.593819630354702</v>
       </c>
       <c r="K90">
         <v>17.044256433327799</v>
@@ -4230,27 +4230,27 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>13.150628238052199</v>
+        <v>17.286185830430998</v>
       </c>
       <c r="B91">
-        <v>16.668616112807801</v>
+        <v>16.5415880559902</v>
       </c>
       <c r="C91">
         <f>POWER(10, B91-10)/$N$3</f>
-        <v>2.2243932770098892E-2</v>
+        <v>1.6602883364189917E-2</v>
       </c>
       <c r="D91">
-        <v>13.186881297634301</v>
+        <v>17.4513879645381</v>
       </c>
       <c r="E91">
-        <v>15.728178492282501</v>
+        <v>15.756975011949599</v>
       </c>
       <c r="F91">
         <f>POWER(10, E91-10)/$N$3</f>
-        <v>2.5513729882230313E-3</v>
+        <v>2.7262800963485266E-3</v>
       </c>
       <c r="G91">
-        <v>12.104006937787201</v>
+        <v>18.5839969319407</v>
       </c>
       <c r="H91">
         <v>16.96396335919</v>
@@ -4260,7 +4260,7 @@
         <v>4.390953320141875E-2</v>
       </c>
       <c r="J91">
-        <v>12.049979832598501</v>
+        <v>18.6479373496398</v>
       </c>
       <c r="K91">
         <v>17.074562007298798</v>
@@ -4272,27 +4272,27 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>13.100942961146201</v>
+        <v>17.336497652900999</v>
       </c>
       <c r="B92">
-        <v>16.703538608669199</v>
+        <v>16.586301119090901</v>
       </c>
       <c r="C92">
         <f>POWER(10, B92-10)/$N$3</f>
-        <v>2.4106494977233862E-2</v>
+        <v>1.840333704798881E-2</v>
       </c>
       <c r="D92">
-        <v>13.1370590505949</v>
+        <v>17.502180611437701</v>
       </c>
       <c r="E92">
-        <v>15.756975011949599</v>
+        <v>15.784991732635</v>
       </c>
       <c r="F92">
         <f>POWER(10, E92-10)/$N$3</f>
-        <v>2.7262800963485266E-3</v>
+        <v>2.9079517324681909E-3</v>
       </c>
       <c r="G92">
-        <v>12.0582759715177</v>
+        <v>18.638086062046899</v>
       </c>
       <c r="H92">
         <v>16.9914375707936</v>
@@ -4302,7 +4302,7 @@
         <v>4.677707178704698E-2</v>
       </c>
       <c r="J92">
-        <v>12.0044529897849</v>
+        <v>18.702212579732201</v>
       </c>
       <c r="K92">
         <v>17.104921466155702</v>
@@ -4314,27 +4314,27 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>13.0514454035412</v>
+        <v>17.386955909032199</v>
       </c>
       <c r="B93">
-        <v>16.7380928816237</v>
+        <v>16.629819408066801</v>
       </c>
       <c r="C93">
         <f>POWER(10, B93-10)/$N$3</f>
-        <v>2.6102874937433844E-2</v>
+        <v>2.0342993908765709E-2</v>
       </c>
       <c r="D93">
-        <v>13.087425040352599</v>
+        <v>17.553121091448698</v>
       </c>
       <c r="E93">
-        <v>15.784991732635</v>
+        <v>15.8134752642215</v>
       </c>
       <c r="F93">
         <f>POWER(10, E93-10)/$N$3</f>
-        <v>2.9079517324681909E-3</v>
+        <v>3.105065209369132E-3</v>
       </c>
       <c r="G93">
-        <v>12.0127177845012</v>
+        <v>18.692332619750999</v>
       </c>
       <c r="H93">
         <v>17.018058722813699</v>
@@ -4344,7 +4344,7 @@
         <v>4.9734090901710132E-2</v>
       </c>
       <c r="J93">
-        <v>11.9590981550115</v>
+        <v>18.756645779070499</v>
       </c>
       <c r="K93">
         <v>17.135334905708699</v>
@@ -4356,37 +4356,37 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>13.0021348560023</v>
+        <v>17.437561025023101</v>
       </c>
       <c r="B94">
-        <v>16.772718636304699</v>
+        <v>16.668616112807801</v>
       </c>
       <c r="C94">
         <f>POWER(10, B94-10)/$N$3</f>
-        <v>2.8269237680855073E-2</v>
+        <v>2.2243932770098892E-2</v>
       </c>
       <c r="D94">
-        <v>13.0379785557174</v>
+        <v>17.604209834842401</v>
       </c>
       <c r="E94">
-        <v>15.8151433570485</v>
+        <v>15.842845722854801</v>
       </c>
       <c r="F94">
         <f>POWER(10, E94-10)/$N$3</f>
-        <v>3.1170144674769347E-3</v>
+        <v>3.3223178827858943E-3</v>
       </c>
       <c r="G94">
-        <v>11.9673317239486</v>
+        <v>18.746737063249402</v>
       </c>
       <c r="H94">
-        <v>17.0474186116057</v>
+        <v>17.043373229065999</v>
       </c>
       <c r="I94">
         <f t="shared" si="2"/>
-        <v>5.321255016364982E-2</v>
+        <v>5.2719185278398042E-2</v>
       </c>
       <c r="J94">
-        <v>11.9139146784032</v>
+        <v>18.8112374074278</v>
       </c>
       <c r="K94">
         <v>17.166255089976001</v>
@@ -4398,37 +4398,37 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>12.9530106119742</v>
+        <v>17.488313428312399</v>
       </c>
       <c r="B95">
-        <v>16.8083024668063</v>
+        <v>16.703538608669199</v>
       </c>
       <c r="C95">
         <f>POWER(10, B95-10)/$N$3</f>
-        <v>3.0683007611160142E-2</v>
+        <v>2.4106494977233862E-2</v>
       </c>
       <c r="D95">
-        <v>12.988718888186</v>
+        <v>17.655447273142698</v>
       </c>
       <c r="E95">
-        <v>15.842845722854801</v>
+        <v>15.8718521852793</v>
       </c>
       <c r="F95">
         <f>POWER(10, E95-10)/$N$3</f>
-        <v>3.3223178827858943E-3</v>
+        <v>3.5517929942102157E-3</v>
       </c>
       <c r="G95">
-        <v>11.922117139537299</v>
+        <v>18.801299852072201</v>
       </c>
       <c r="H95">
-        <v>17.075928544713001</v>
+        <v>17.0687253908605</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>5.6822979969355744E-2</v>
+        <v>5.5888293864650433E-2</v>
       </c>
       <c r="J95">
-        <v>11.868901912540201</v>
+        <v>18.865987925915</v>
       </c>
       <c r="K95">
         <v>17.196324110995398</v>
@@ -4440,27 +4440,27 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>12.9040719675708</v>
+        <v>17.539213547583099</v>
       </c>
       <c r="B96">
-        <v>16.844405970473002</v>
+        <v>16.7380928816237</v>
       </c>
       <c r="C96">
         <f>POWER(10, B96-10)/$N$3</f>
-        <v>3.334275117607232E-2</v>
+        <v>2.6102874937433844E-2</v>
       </c>
       <c r="D96">
-        <v>12.9396453319321</v>
+        <v>17.706833839129398</v>
       </c>
       <c r="E96">
-        <v>15.8718521852793</v>
+        <v>15.900073163550701</v>
       </c>
       <c r="F96">
         <f>POWER(10, E96-10)/$N$3</f>
-        <v>3.5517929942102157E-3</v>
+        <v>3.7902567037168943E-3</v>
       </c>
       <c r="G96">
-        <v>11.8770733834018</v>
+        <v>18.856021447086899</v>
       </c>
       <c r="H96">
         <v>17.09411526421</v>
@@ -4470,7 +4470,7 @@
         <v>5.9253052047421151E-2</v>
       </c>
       <c r="J96">
-        <v>11.824059212448599</v>
+        <v>18.9208977969855</v>
       </c>
       <c r="K96">
         <v>17.2273543484059</v>
@@ -4482,27 +4482,27 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>12.855318221565801</v>
+        <v>17.590261812765799</v>
       </c>
       <c r="B97">
-        <v>16.880141887824902</v>
+        <v>16.772718636304699</v>
       </c>
       <c r="C97">
         <f>POWER(10, B97-10)/$N$3</f>
-        <v>3.6202398852344039E-2</v>
+        <v>2.8269237680855073E-2</v>
       </c>
       <c r="D97">
-        <v>12.890757183796101</v>
+        <v>17.758369966842</v>
       </c>
       <c r="E97">
-        <v>15.900492453878201</v>
+        <v>15.926664287557299</v>
       </c>
       <c r="F97">
         <f>POWER(10, E97-10)/$N$3</f>
-        <v>3.7939177803466267E-3</v>
+        <v>4.0295796866212331E-3</v>
       </c>
       <c r="G97">
-        <v>11.8321998101241</v>
+        <v>18.9109023105025</v>
       </c>
       <c r="H97">
         <v>17.1195429052108</v>
@@ -4512,7 +4512,7 @@
         <v>6.2825849005588144E-2</v>
       </c>
       <c r="J97">
-        <v>11.779385935591501</v>
+        <v>18.975967484438399</v>
       </c>
       <c r="K97">
         <v>17.2552551383755</v>
@@ -4524,27 +4524,27 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>12.806748675382099</v>
+        <v>17.641458655042399</v>
       </c>
       <c r="B98">
-        <v>16.921753570352301</v>
+        <v>16.8083024668063</v>
       </c>
       <c r="C98">
         <f>POWER(10, B98-10)/$N$3</f>
-        <v>3.9842724768347222E-2</v>
+        <v>3.0683007611160142E-2</v>
       </c>
       <c r="D98">
-        <v>12.8420537432752</v>
+        <v>17.810056091583</v>
       </c>
       <c r="E98">
-        <v>15.930444610194099</v>
+        <v>15.9537205762292</v>
       </c>
       <c r="F98">
         <f>POWER(10, E98-10)/$N$3</f>
-        <v>4.0648083232898494E-3</v>
+        <v>4.2886048976280775E-3</v>
       </c>
       <c r="G98">
-        <v>11.787495776725001</v>
+        <v>18.965942905873099</v>
       </c>
       <c r="H98">
         <v>17.145008370042699</v>
@@ -4554,7 +4554,7 @@
         <v>6.66198776923521E-2</v>
       </c>
       <c r="J98">
-        <v>11.7348814418594</v>
+        <v>19.031197453422799</v>
       </c>
       <c r="K98">
         <v>17.282289623731501</v>
@@ -4566,27 +4566,27 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>12.758362633081701</v>
+        <v>17.692804506849701</v>
       </c>
       <c r="B99">
-        <v>16.954523659561001</v>
+        <v>16.844405970473002</v>
       </c>
       <c r="C99">
         <f>POWER(10, B99-10)/$N$3</f>
-        <v>4.2965425841130667E-2</v>
+        <v>3.334275117607232E-2</v>
       </c>
       <c r="D99">
-        <v>12.7935343125129</v>
+        <v>17.861892649922101</v>
       </c>
       <c r="E99">
-        <v>15.959190607019799</v>
+        <v>15.9812442479691</v>
       </c>
       <c r="F99">
         <f>POWER(10, E99-10)/$N$3</f>
-        <v>4.3429623861662046E-3</v>
+        <v>4.5691951691627201E-3</v>
       </c>
       <c r="G99">
-        <v>11.7429606426543</v>
+        <v>19.021143698102001</v>
       </c>
       <c r="H99">
         <v>17.170058934685201</v>
@@ -4596,7 +4596,7 @@
         <v>7.0575570208877184E-2</v>
       </c>
       <c r="J99">
-        <v>11.6905450935616</v>
+        <v>19.086588170441601</v>
       </c>
       <c r="K99">
         <v>17.308453593445002</v>
@@ -4608,27 +4608,27 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>12.7101594013564</v>
+        <v>17.7442998018834</v>
       </c>
       <c r="B100">
-        <v>16.986013393947101</v>
+        <v>16.880141887824902</v>
       </c>
       <c r="C100">
         <f>POWER(10, B100-10)/$N$3</f>
-        <v>4.6196476781790174E-2</v>
+        <v>3.6202398852344039E-2</v>
       </c>
       <c r="D100">
-        <v>12.7451981962896</v>
+        <v>17.913880079699599</v>
       </c>
       <c r="E100">
-        <v>15.9867237157641</v>
+        <v>16.0079711216889</v>
       </c>
       <c r="F100">
         <f>POWER(10, E100-10)/$N$3</f>
-        <v>4.6272096474262907E-3</v>
+        <v>4.859220230428318E-3</v>
       </c>
       <c r="G100">
-        <v>11.6985937697822</v>
+        <v>19.076505153445702</v>
       </c>
       <c r="H100">
         <v>17.1960529963361</v>
@@ -4638,7 +4638,7 @@
         <v>7.4928744788280127E-2</v>
       </c>
       <c r="J100">
-        <v>11.6463762554162</v>
+        <v>19.142140103355398</v>
       </c>
       <c r="K100">
         <v>17.3360285718123</v>
@@ -4650,27 +4650,27 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>12.6621382895172</v>
+        <v>17.795944975101101</v>
       </c>
       <c r="B101">
-        <v>17.0220497357361</v>
+        <v>16.914615452263899</v>
       </c>
       <c r="C101">
         <f>POWER(10, B101-10)/$N$3</f>
-        <v>5.019323609392564E-2</v>
+        <v>3.9193217107601271E-2</v>
       </c>
       <c r="D101">
-        <v>12.697044702012199</v>
+        <v>17.9660188200302</v>
       </c>
       <c r="E101">
-        <v>16.0100819111771</v>
+        <v>16.035165534774901</v>
       </c>
       <c r="F101">
         <f>POWER(10, E101-10)/$N$3</f>
-        <v>4.8828948503954282E-3</v>
+        <v>5.1732205699834373E-3</v>
       </c>
       <c r="G101">
-        <v>11.6543945223895</v>
+        <v>19.132027739517799</v>
       </c>
       <c r="H101">
         <v>17.220269921557598</v>
@@ -4680,7 +4680,7 @@
         <v>7.9225571838671974E-2</v>
       </c>
       <c r="J101">
-        <v>11.602374294542001</v>
+        <v>19.197853721386799</v>
       </c>
       <c r="K101">
         <v>17.3622738978877</v>
@@ -4692,27 +4692,27 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>12.6142986094845</v>
+        <v>17.847740462726598</v>
       </c>
       <c r="B102">
-        <v>17.058612359252798</v>
+        <v>16.950053342496201</v>
       </c>
       <c r="C102">
         <f>POWER(10, B102-10)/$N$3</f>
-        <v>5.4601908170891979E-2</v>
+        <v>4.2525438790066275E-2</v>
       </c>
       <c r="D102">
-        <v>12.6490731397045</v>
+        <v>18.0183093113064</v>
       </c>
       <c r="E102">
-        <v>16.035165534774901</v>
+        <v>16.062406145851799</v>
       </c>
       <c r="F102">
         <f>POWER(10, E102-10)/$N$3</f>
-        <v>5.1732205699834373E-3</v>
+        <v>5.5080973433774879E-3</v>
       </c>
       <c r="G102">
-        <v>11.6103622671592</v>
+        <v>19.1877119252927</v>
       </c>
       <c r="H102">
         <v>17.246339998526299</v>
@@ -4722,7 +4722,7 @@
         <v>8.4127011124218221E-2</v>
       </c>
       <c r="J102">
-        <v>11.5585385804486</v>
+        <v>19.2537294951237</v>
       </c>
       <c r="K102">
         <v>17.389017499438602</v>
@@ -4734,27 +4734,27 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>12.566639675778699</v>
+        <v>17.899686702253401</v>
       </c>
       <c r="B103">
-        <v>17.092999657808701</v>
+        <v>16.9855654788186</v>
       </c>
       <c r="C103">
         <f>POWER(10, B103-10)/$N$3</f>
-        <v>5.910103939824693E-2</v>
+        <v>4.614885602022685E-2</v>
       </c>
       <c r="D103">
-        <v>12.6012828219969</v>
+        <v>18.070751995202802</v>
       </c>
       <c r="E103">
-        <v>16.062406145851799</v>
+        <v>16.089693033400899</v>
       </c>
       <c r="F103">
         <f>POWER(10, E103-10)/$N$3</f>
-        <v>5.5080973433774879E-3</v>
+        <v>5.8652765541680734E-3</v>
       </c>
       <c r="G103">
-        <v>11.5664963731668</v>
+        <v>19.243558181109901</v>
       </c>
       <c r="H103">
         <v>17.270627742125299</v>
@@ -4764,7 +4764,7 @@
         <v>8.8965823504229755E-2</v>
       </c>
       <c r="J103">
-        <v>11.5148684850279</v>
+        <v>19.309767896523802</v>
       </c>
       <c r="K103">
         <v>17.417639410059198</v>
@@ -4776,27 +4776,27 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>12.519160805509699</v>
+        <v>17.951784132448001</v>
       </c>
       <c r="B104">
-        <v>17.129262974196301</v>
+        <v>17.0220497357361</v>
       </c>
       <c r="C104">
         <f>POWER(10, B104-10)/$N$3</f>
-        <v>6.4247825773706885E-2</v>
+        <v>5.019323609392564E-2</v>
       </c>
       <c r="D104">
-        <v>12.553673064117</v>
+        <v>18.1233473146793</v>
       </c>
       <c r="E104">
-        <v>16.089693033400899</v>
+        <v>16.116601275789399</v>
       </c>
       <c r="F104">
         <f>POWER(10, E104-10)/$N$3</f>
-        <v>5.8652765541680734E-3</v>
+        <v>6.240174533529136E-3</v>
       </c>
       <c r="G104">
-        <v>11.5227962118718</v>
+        <v>19.299566978677799</v>
       </c>
       <c r="H104">
         <v>17.296774056706099</v>
@@ -4806,7 +4806,7 @@
         <v>9.4486446846763023E-2</v>
       </c>
       <c r="J104">
-        <v>11.4713633825447</v>
+        <v>19.365969398918601</v>
       </c>
       <c r="K104">
         <v>17.4444682926745</v>
@@ -4818,27 +4818,27 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>12.4718613183679</v>
+        <v>18.0040331933542</v>
       </c>
       <c r="B105">
-        <v>17.164697934547199</v>
+        <v>17.058612359252798</v>
       </c>
       <c r="C105">
         <f>POWER(10, B105-10)/$N$3</f>
-        <v>6.9709729182843239E-2</v>
+        <v>5.4601908170891979E-2</v>
       </c>
       <c r="D105">
-        <v>12.5062431838795</v>
+        <v>18.176095713985099</v>
       </c>
       <c r="E105">
-        <v>16.116601275789399</v>
+        <v>16.1444059525078</v>
       </c>
       <c r="F105">
         <f>POWER(10, E105-10)/$N$3</f>
-        <v>6.240174533529136E-3</v>
+        <v>6.6527532146996322E-3</v>
       </c>
       <c r="G105">
-        <v>11.479261157108301</v>
+        <v>19.355738791077801</v>
       </c>
       <c r="H105">
         <v>17.321132825779099</v>
@@ -4848,7 +4848,7 @@
         <v>9.9937455283989965E-2</v>
       </c>
       <c r="J105">
-        <v>11.428022649628</v>
+        <v>19.422334477017099</v>
       </c>
       <c r="K105">
         <v>17.474563831622302</v>
@@ -4860,27 +4860,27 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>12.4247405366136</v>
+        <v>18.0564343262966</v>
       </c>
       <c r="B106">
-        <v>17.201566960199401</v>
+        <v>17.092999657808701</v>
       </c>
       <c r="C106">
         <f>POWER(10, B106-10)/$N$3</f>
-        <v>7.5886132745941567E-2</v>
+        <v>5.910103939824693E-2</v>
       </c>
       <c r="D106">
-        <v>12.458992501676599</v>
+        <v>18.228997638662399</v>
       </c>
       <c r="E106">
-        <v>16.1444059525078</v>
+        <v>16.171832141695901</v>
       </c>
       <c r="F106">
         <f>POWER(10, E106-10)/$N$3</f>
-        <v>6.6527532146996322E-3</v>
+        <v>7.0864316509780872E-3</v>
       </c>
       <c r="G106">
-        <v>11.4358905850761</v>
+        <v>19.412074092768101</v>
       </c>
       <c r="H106">
         <v>17.347355600916199</v>
@@ -4890,7 +4890,7 @@
         <v>0.10615759277052153</v>
       </c>
       <c r="J106">
-        <v>11.384845665262199</v>
+        <v>19.47886360691</v>
       </c>
       <c r="K106">
         <v>17.499172979179502</v>
@@ -4902,27 +4902,27 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>12.3777977850681</v>
+        <v>18.108987973884201</v>
       </c>
       <c r="B107">
-        <v>17.2385151789173</v>
+        <v>17.129262974196301</v>
       </c>
       <c r="C107">
         <f>POWER(10, B107-10)/$N$3</f>
-        <v>8.2624841599784907E-2</v>
+        <v>6.4247825773706885E-2</v>
       </c>
       <c r="D107">
-        <v>12.411920340468001</v>
+        <v>18.282053535550101</v>
       </c>
       <c r="E107">
-        <v>16.171832141695901</v>
+        <v>16.196314969815301</v>
       </c>
       <c r="F107">
         <f>POWER(10, E107-10)/$N$3</f>
-        <v>7.0864316509780872E-3</v>
+        <v>7.4973956657973474E-3</v>
       </c>
       <c r="G107">
-        <v>11.3926838743318</v>
+        <v>19.4685733595879</v>
       </c>
       <c r="H107">
         <v>17.371785603165399</v>
@@ -4932,7 +4932,7 @@
         <v>0.11230033819626797</v>
       </c>
       <c r="J107">
-        <v>11.3418318107777</v>
+        <v>19.5355572660735</v>
       </c>
       <c r="K107">
         <v>17.524278892402101</v>
@@ -4944,27 +4944,27 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>12.3310323911032</v>
+        <v>18.1616945800141</v>
       </c>
       <c r="B108">
-        <v>17.273720633219799</v>
+        <v>17.164697934547199</v>
       </c>
       <c r="C108">
         <f>POWER(10, B108-10)/$N$3</f>
-        <v>8.9601667951801592E-2</v>
+        <v>6.9709729182843239E-2</v>
       </c>
       <c r="D108">
-        <v>12.365026025771501</v>
+        <v>18.335263852787801</v>
       </c>
       <c r="E108">
-        <v>16.196314969815301</v>
+        <v>16.219979398923002</v>
       </c>
       <c r="F108">
         <f>POWER(10, E108-10)/$N$3</f>
-        <v>7.4973956657973474E-3</v>
+        <v>7.9172591370473347E-3</v>
       </c>
       <c r="G108">
-        <v>11.3496404057802</v>
+        <v>19.5252370687612</v>
       </c>
       <c r="H108">
         <v>17.397626281143399</v>
@@ -4974,7 +4974,7 @@
         <v>0.11918503878293335</v>
       </c>
       <c r="J108">
-        <v>11.298980469842601</v>
+        <v>19.592415933373701</v>
       </c>
       <c r="K108">
         <v>17.551734867830501</v>
@@ -4986,27 +4986,27 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>12.2844436846324</v>
+        <v>18.2145545898756</v>
       </c>
       <c r="B109">
-        <v>17.310367354629399</v>
+        <v>17.201566960199401</v>
       </c>
       <c r="C109">
         <f>POWER(10, B109-10)/$N$3</f>
-        <v>9.7490616248402995E-2</v>
+        <v>7.5886132745941567E-2</v>
       </c>
       <c r="D109">
-        <v>12.318308885653201</v>
+        <v>18.3886290398193</v>
       </c>
       <c r="E109">
-        <v>16.219979398923002</v>
+        <v>16.2441067554326</v>
       </c>
       <c r="F109">
         <f>POWER(10, E109-10)/$N$3</f>
-        <v>7.9172591370473347E-3</v>
+        <v>8.3695520856360544E-3</v>
       </c>
       <c r="G109">
-        <v>11.3067595626648</v>
+        <v>19.582065698901101</v>
       </c>
       <c r="H109">
         <v>17.4225865061901</v>
@@ -5016,7 +5016,7 @@
         <v>0.12623563446911712</v>
       </c>
       <c r="J109">
-        <v>11.256291028453401</v>
+        <v>19.649440089070499</v>
       </c>
       <c r="K109">
         <v>17.5773797003909</v>
@@ -5028,27 +5028,27 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>12.238030998100699</v>
+        <v>18.267568449953501</v>
       </c>
       <c r="B110">
-        <v>17.343432667793699</v>
+        <v>17.2385151789173</v>
       </c>
       <c r="C110">
         <f>POWER(10, B110-10)/$N$3</f>
-        <v>0.10520300104634855</v>
+        <v>8.2624841599784907E-2</v>
       </c>
       <c r="D110">
-        <v>12.2717682507179</v>
+        <v>18.442149547396401</v>
       </c>
       <c r="E110">
-        <v>16.2441067554326</v>
+        <v>16.268270001589102</v>
       </c>
       <c r="F110">
         <f>POWER(10, E110-10)/$N$3</f>
-        <v>8.3695520856360544E-3</v>
+        <v>8.8484145776810512E-3</v>
       </c>
       <c r="G110">
-        <v>11.264040730559399</v>
+        <v>19.639059730013798</v>
       </c>
       <c r="H110">
         <v>17.4485027509409</v>
@@ -5058,7 +5058,7 @@
         <v>0.13399796779509332</v>
       </c>
       <c r="J110">
-        <v>11.213762874926401</v>
+        <v>19.706630214821399</v>
       </c>
       <c r="K110">
         <v>17.6058473785566</v>
@@ -5070,27 +5070,27 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>12.1917936664753</v>
+        <v>18.320736608032298</v>
       </c>
       <c r="B111">
-        <v>17.370605304345201</v>
+        <v>17.273720633219799</v>
       </c>
       <c r="C111">
         <f>POWER(10, B111-10)/$N$3</f>
-        <v>0.11199554960255048</v>
+        <v>8.9601667951801592E-2</v>
       </c>
       <c r="D111">
-        <v>12.2254034540993</v>
+        <v>18.495825827583101</v>
       </c>
       <c r="E111">
-        <v>16.268270001589102</v>
+        <v>16.292469190778501</v>
       </c>
       <c r="F111">
         <f>POWER(10, E111-10)/$N$3</f>
-        <v>8.8484145776810512E-3</v>
+        <v>9.3554493480074736E-3</v>
       </c>
       <c r="G111">
-        <v>11.2214832973595</v>
+        <v>19.6962196435023</v>
       </c>
       <c r="H111">
         <v>17.473535968022102</v>
@@ -5100,7 +5100,7 @@
         <v>0.14194870310665331</v>
       </c>
       <c r="J111">
-        <v>11.171395399889199</v>
+        <v>19.763986793685898</v>
       </c>
       <c r="K111">
         <v>17.6329661632289</v>
@@ -5112,27 +5112,27 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>12.145731027236</v>
+        <v>18.3740595131997</v>
       </c>
       <c r="B112">
-        <v>17.3969029767592</v>
+        <v>17.310367354629399</v>
       </c>
       <c r="C112">
         <f>POWER(10, B112-10)/$N$3</f>
-        <v>0.11898670489457835</v>
+        <v>9.7490616248402995E-2</v>
       </c>
       <c r="D112">
-        <v>12.1792138314509</v>
+        <v>18.549658333758899</v>
       </c>
       <c r="E112">
-        <v>16.292469190778501</v>
+        <v>16.3162741107787</v>
       </c>
       <c r="F112">
         <f>POWER(10, E112-10)/$N$3</f>
-        <v>9.3554493480074736E-3</v>
+        <v>9.8825625489176623E-3</v>
       </c>
       <c r="G112">
-        <v>11.1790866532727</v>
+        <v>19.7535459221709</v>
       </c>
       <c r="H112">
         <v>17.500912442519599</v>
@@ -5142,7 +5142,7 @@
         <v>0.15118472124690049</v>
       </c>
       <c r="J112">
-        <v>11.129187996271501</v>
+        <v>19.821510310129401</v>
       </c>
       <c r="K112">
         <v>17.660126719732201</v>
@@ -5154,27 +5154,27 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>12.099842420365601</v>
+        <v>18.4275376158505</v>
       </c>
       <c r="B113">
-        <v>17.4236999184597</v>
+        <v>17.343432667793699</v>
       </c>
       <c r="C113">
         <f>POWER(10, B113-10)/$N$3</f>
-        <v>0.12655968331855597</v>
+        <v>0.10520300104634855</v>
       </c>
       <c r="D113">
-        <v>12.1331987209361</v>
+        <v>18.603647520622999</v>
       </c>
       <c r="E113">
-        <v>16.3162741107787</v>
+        <v>16.3409756121981</v>
       </c>
       <c r="F113">
         <f>POWER(10, E113-10)/$N$3</f>
-        <v>9.8825625489176623E-3</v>
+        <v>1.046094872041365E-2</v>
       </c>
       <c r="G113">
-        <v>11.136850190811</v>
+        <v>19.811039050229201</v>
       </c>
       <c r="H113">
         <v>17.524634423096799</v>
@@ -5184,7 +5184,7 @@
         <v>0.15967241138439525</v>
       </c>
       <c r="J113">
-        <v>11.087140059296599</v>
+        <v>19.879201250027499</v>
       </c>
       <c r="K113">
         <v>17.6887284119295</v>
@@ -5196,27 +5196,27 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>12.0541271883408</v>
+        <v>18.481171367690401</v>
       </c>
       <c r="B114">
-        <v>17.450538136247498</v>
+        <v>17.370605304345201</v>
       </c>
       <c r="C114">
         <f>POWER(10, B114-10)/$N$3</f>
-        <v>0.13462744299695942</v>
+        <v>0.11199554960255048</v>
       </c>
       <c r="D114">
-        <v>12.087357463218799</v>
+        <v>18.657793844198</v>
       </c>
       <c r="E114">
-        <v>16.3409756121981</v>
+        <v>16.364851404910599</v>
       </c>
       <c r="F114">
         <f>POWER(10, E114-10)/$N$3</f>
-        <v>1.046094872041365E-2</v>
+        <v>1.1052152426855194E-2</v>
       </c>
       <c r="G114">
-        <v>11.094773304781301</v>
+        <v>19.868699513296001</v>
       </c>
       <c r="H114">
         <v>17.5497768656343</v>
@@ -5226,7 +5226,7 @@
         <v>0.16918907912775349</v>
       </c>
       <c r="J114">
-        <v>11.0452509864728</v>
+        <v>19.937060100669701</v>
       </c>
       <c r="K114">
         <v>17.715974860601602</v>
@@ -5238,27 +5238,27 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>12.008584676122201</v>
+        <v>18.5349612217397</v>
       </c>
       <c r="B115">
-        <v>17.476956820416198</v>
+        <v>17.3969029767592</v>
       </c>
       <c r="C115">
         <f>POWER(10, B115-10)/$N$3</f>
-        <v>0.14307122030048897</v>
+        <v>0.11898670489457835</v>
       </c>
       <c r="D115">
-        <v>12.041689401453899</v>
+        <v>18.7120977618337</v>
       </c>
       <c r="E115">
-        <v>16.364851404910599</v>
+        <v>16.389194259754099</v>
       </c>
       <c r="F115">
         <f>POWER(10, E115-10)/$N$3</f>
-        <v>1.1052152426855194E-2</v>
+        <v>1.1689332729937928E-2</v>
       </c>
       <c r="G115">
-        <v>11.0528553922772</v>
+        <v>19.926527798403399</v>
       </c>
       <c r="H115">
         <v>17.574955379818199</v>
@@ -5268,7 +5268,7 @@
         <v>0.17928784239106191</v>
       </c>
       <c r="J115">
-        <v>11.022469145821701</v>
+        <v>19.968690420761199</v>
       </c>
       <c r="K115">
         <v>17.702992432412099</v>
@@ -5280,27 +5280,27 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>11.963214231145599</v>
+        <v>18.588907632337399</v>
       </c>
       <c r="B116">
-        <v>17.5038770713163</v>
+        <v>17.4236999184597</v>
       </c>
       <c r="C116">
         <f>POWER(10, B116-10)/$N$3</f>
-        <v>0.15222028555273115</v>
+        <v>0.12655968331855597</v>
       </c>
       <c r="D116">
-        <v>11.996193881278201</v>
+        <v>18.766559732211</v>
       </c>
       <c r="E116">
-        <v>16.389194259754099</v>
+        <v>16.414871853545598</v>
       </c>
       <c r="F116">
         <f>POWER(10, E116-10)/$N$3</f>
-        <v>1.1689332729937928E-2</v>
+        <v>1.2401302880843392E-2</v>
       </c>
       <c r="G116">
-        <v>11.018676743436099</v>
+        <v>19.973967017412001</v>
       </c>
       <c r="H116">
         <v>17.591124237289499</v>
@@ -5312,486 +5312,510 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>11.918015203312001</v>
+        <v>18.643011055144701</v>
       </c>
       <c r="B117">
-        <v>17.530376506260001</v>
+        <v>17.450538136247498</v>
       </c>
       <c r="C117">
         <f>POWER(10, B117-10)/$N$3</f>
-        <v>0.16179755975217205</v>
+        <v>0.13462744299695942</v>
       </c>
       <c r="D117">
-        <v>11.9508702508006</v>
+        <v>18.821180215346001</v>
       </c>
       <c r="E117">
-        <v>16.4114093384926</v>
+        <v>16.441890343523902</v>
       </c>
       <c r="F117">
         <f>POWER(10, E117-10)/$N$3</f>
-        <v>1.2302823668563386E-2</v>
+        <v>1.3197321738226667E-2</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>11.8729869449788</v>
+        <v>18.697271947149002</v>
       </c>
       <c r="B118">
-        <v>17.557842035059402</v>
+        <v>17.476956820416198</v>
       </c>
       <c r="C118">
         <f>POWER(10, B118-10)/$N$3</f>
-        <v>0.17236040109423761</v>
+        <v>0.14307122030048897</v>
       </c>
       <c r="D118">
-        <v>11.905717860593001</v>
+        <v>18.875959672593499</v>
       </c>
       <c r="E118">
-        <v>16.441890343523902</v>
+        <v>16.468519024858299</v>
       </c>
       <c r="F118">
         <f>POWER(10, E118-10)/$N$3</f>
-        <v>1.3197321738226667E-2</v>
+        <v>1.4031835538111742E-2</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>11.828128810950201</v>
+        <v>18.751690766667998</v>
       </c>
       <c r="B119">
-        <v>17.583959473553001</v>
+        <v>17.5038770713163</v>
       </c>
       <c r="C119">
         <f>POWER(10, B119-10)/$N$3</f>
-        <v>0.18304376263978656</v>
+        <v>0.15222028555273115</v>
       </c>
       <c r="D119">
-        <v>11.860736063681101</v>
+        <v>18.930898566651098</v>
       </c>
       <c r="E119">
-        <v>16.468519024858299</v>
+        <v>16.496060812062201</v>
       </c>
       <c r="F119">
         <f>POWER(10, E119-10)/$N$3</f>
-        <v>1.4031835538111742E-2</v>
+        <v>1.495051913111653E-2</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>11.7834401584681</v>
+        <v>18.806267973353101</v>
       </c>
       <c r="B120">
-        <v>17.611508952889899</v>
+        <v>17.530376506260001</v>
       </c>
       <c r="C120">
         <f>POWER(10, B120-10)/$N$3</f>
-        <v>0.19503134413510831</v>
+        <v>0.16179755975217205</v>
       </c>
       <c r="D120">
-        <v>11.8159242155347</v>
+        <v>18.985997361563101</v>
       </c>
       <c r="E120">
-        <v>16.497365866648799</v>
+        <v>16.522777225896601</v>
       </c>
       <c r="F120">
         <f>POWER(10, E120-10)/$N$3</f>
-        <v>1.4995512999104519E-2</v>
+        <v>1.5899105343784057E-2</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>11.738920347202701</v>
+        <v>18.861004028193602</v>
       </c>
       <c r="B121">
-        <v>17.637706221377599</v>
+        <v>17.557842035059402</v>
       </c>
       <c r="C121">
         <f>POWER(10, B121-10)/$N$3</f>
-        <v>0.2071579870655274</v>
+        <v>0.17236040109423761</v>
       </c>
       <c r="D121">
-        <v>11.771281674058899</v>
+        <v>19.041256522724499</v>
       </c>
       <c r="E121">
-        <v>16.531057704611801</v>
+        <v>16.550409753975501</v>
       </c>
       <c r="F121">
         <f>POWER(10, E121-10)/$N$3</f>
-        <v>1.6205154113775447E-2</v>
+        <v>1.6943581460136036E-2</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>11.694568739243699</v>
+        <v>18.915899393520601</v>
       </c>
       <c r="B122">
-        <v>17.6653399078535</v>
+        <v>17.583959473553001</v>
       </c>
       <c r="C122">
         <f>POWER(10, B122-10)/$N$3</f>
-        <v>0.22076761649940962</v>
+        <v>0.18304376263978656</v>
       </c>
       <c r="D122">
-        <v>11.7268077995849</v>
+        <v>19.096676516884902</v>
       </c>
       <c r="E122">
-        <v>16.555647792731602</v>
+        <v>16.577214189358799</v>
       </c>
       <c r="F122">
         <f>POWER(10, E122-10)/$N$3</f>
-        <v>1.7149175851465168E-2</v>
+        <v>1.80222765807036E-2</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>11.6503846990908</v>
+        <v>18.970954533010801</v>
       </c>
       <c r="B123">
-        <v>17.692083784295299</v>
+        <v>17.611508952889899</v>
       </c>
       <c r="C123">
         <f>POWER(10, B123-10)/$N$3</f>
-        <v>0.23478981049083331</v>
+        <v>0.19503134413510831</v>
       </c>
       <c r="D123">
-        <v>11.6825019548603</v>
+        <v>19.152257812152001</v>
       </c>
       <c r="E123">
-        <v>16.577214189358799</v>
+        <v>16.604062036220601</v>
       </c>
       <c r="F123">
         <f>POWER(10, E123-10)/$N$3</f>
-        <v>1.80222765807036E-2</v>
+        <v>1.9171561947773894E-2</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>11.6063675936448</v>
+        <v>19.0261699116902</v>
       </c>
       <c r="B124">
-        <v>17.719335401342398</v>
+        <v>17.637706221377599</v>
       </c>
       <c r="C124">
         <f>POWER(10, B124-10)/$N$3</f>
-        <v>0.24999473499943231</v>
+        <v>0.2071579870655274</v>
       </c>
       <c r="D124">
-        <v>11.6383635050406</v>
+        <v>19.208000877996401</v>
       </c>
       <c r="E124">
-        <v>16.604062036220601</v>
+        <v>16.623937915284699</v>
       </c>
       <c r="F124">
         <f>POWER(10, E124-10)/$N$3</f>
-        <v>1.9171561947773894E-2</v>
+        <v>2.0069353205106527E-2</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>11.5625167921983</v>
+        <v>19.081545995938701</v>
       </c>
       <c r="B125">
-        <v>17.7461610225348</v>
+        <v>17.6653399078535</v>
       </c>
       <c r="C125">
         <f>POWER(10, B125-10)/$N$3</f>
-        <v>0.2659233563142549</v>
+        <v>0.22076761649940962</v>
       </c>
       <c r="D125">
-        <v>11.594391817679901</v>
+        <v>19.2639061852549</v>
       </c>
       <c r="E125">
-        <v>16.623937915284699</v>
+        <v>16.6433986946797</v>
       </c>
       <c r="F125">
         <f>POWER(10, E125-10)/$N$3</f>
-        <v>2.0069353205106527E-2</v>
+        <v>2.098911638239867E-2</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>11.518831666426999</v>
+        <v>19.137083253493198</v>
       </c>
       <c r="B126">
-        <v>17.773964629403601</v>
+        <v>17.692083784295299</v>
       </c>
       <c r="C126">
         <f>POWER(10, B126-10)/$N$3</f>
-        <v>0.28350458725022554</v>
+        <v>0.23478981049083331</v>
       </c>
       <c r="D126">
-        <v>11.550586262721501</v>
+        <v>19.3199742061345</v>
       </c>
       <c r="E126">
-        <v>16.6433986946797</v>
+        <v>16.661564107730499</v>
       </c>
       <c r="F126">
         <f>POWER(10, E126-10)/$N$3</f>
-        <v>2.098911638239867E-2</v>
+        <v>2.1885656002367367E-2</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>11.4753115903804</v>
+        <v>19.192782153452299</v>
       </c>
       <c r="B127">
-        <v>17.8004035520839</v>
+        <v>17.719335401342398</v>
       </c>
       <c r="C127">
         <f>POWER(10, B127-10)/$N$3</f>
-        <v>0.30129991771978143</v>
+        <v>0.24999473499943231</v>
       </c>
       <c r="D127">
-        <v>11.5069462124896</v>
+        <v>19.376205414217001</v>
       </c>
       <c r="E127">
-        <v>16.661564107730499</v>
+        <v>16.6793095083402</v>
       </c>
       <c r="F127">
         <f>POWER(10, E127-10)/$N$3</f>
-        <v>2.1885656002367367E-2</v>
+        <v>2.2798431507960952E-2</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>11.431955940473101</v>
+        <v>19.248643166279599</v>
       </c>
       <c r="B128">
-        <v>17.828292142852298</v>
+        <v>17.7461610225348</v>
       </c>
       <c r="C128">
         <f>POWER(10, B128-10)/$N$3</f>
-        <v>0.32128289453919295</v>
+        <v>0.2659233563142549</v>
       </c>
       <c r="D128">
-        <v>11.4634710416794</v>
+        <v>19.4326002844622</v>
       </c>
       <c r="E128">
-        <v>16.6793095083402</v>
+        <v>16.6970738086907</v>
       </c>
       <c r="F128">
         <f>POWER(10, E128-10)/$N$3</f>
-        <v>2.2798431507960952E-2</v>
+        <v>2.3750309292977379E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>11.3887640954754</v>
+        <v>19.304666763808299</v>
       </c>
       <c r="B129">
-        <v>17.854811878168199</v>
+        <v>17.773964629403601</v>
       </c>
       <c r="C129">
         <f>POWER(10, B129-10)/$N$3</f>
-        <v>0.3415130778623866</v>
+        <v>0.28350458725022554</v>
       </c>
       <c r="D129">
-        <v>11.420160127349</v>
+        <v>19.489159293212499</v>
       </c>
       <c r="E129">
-        <v>16.6970738086907</v>
+        <v>16.7152978053659</v>
       </c>
       <c r="F129">
         <f>POWER(10, E129-10)/$N$3</f>
-        <v>2.3750309292977379E-2</v>
+        <v>2.4768132730329701E-2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>11.345735436505</v>
+        <v>19.360853419244599</v>
       </c>
       <c r="B130">
-        <v>17.8827857125961</v>
+        <v>17.8004035520839</v>
       </c>
       <c r="C130">
         <f>POWER(10, B130-10)/$N$3</f>
-        <v>0.36423457896525047</v>
+        <v>0.30129991771978143</v>
       </c>
       <c r="D130">
-        <v>11.3770128489097</v>
+        <v>19.545882918196501</v>
       </c>
       <c r="E130">
-        <v>16.7152978053659</v>
+        <v>16.734865535031901</v>
       </c>
       <c r="F130">
         <f>POWER(10, E130-10)/$N$3</f>
-        <v>2.4768132730329701E-2</v>
+        <v>2.5909617166923485E-2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11.302869347017801</v>
+        <v>19.417203607172201</v>
       </c>
       <c r="B131">
-        <v>17.909858784160399</v>
+        <v>17.828292142852298</v>
       </c>
       <c r="C131">
         <f>POWER(10, B131-10)/$N$3</f>
-        <v>0.38766290435324507</v>
+        <v>0.32128289453919295</v>
       </c>
       <c r="D131">
-        <v>11.3340285881178</v>
+        <v>19.602771638533401</v>
       </c>
       <c r="E131">
-        <v>16.734865535031901</v>
+        <v>16.761084705575101</v>
       </c>
       <c r="F131">
         <f>POWER(10, E131-10)/$N$3</f>
-        <v>2.5909617166923485E-2</v>
+        <v>2.7522011156600055E-2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>11.260165212799</v>
+        <v>19.473717803555999</v>
       </c>
       <c r="B132">
-        <v>17.937445846199299</v>
+        <v>17.854811878168199</v>
       </c>
       <c r="C132">
         <f>POWER(10, B132-10)/$N$3</f>
-        <v>0.41308679017760908</v>
+        <v>0.3415130778623866</v>
       </c>
       <c r="D132">
-        <v>11.2912067290653</v>
+        <v>19.659825934736901</v>
       </c>
       <c r="E132">
-        <v>16.761084705575101</v>
+        <v>16.788673053701402</v>
       </c>
       <c r="F132">
         <f>POWER(10, E132-10)/$N$3</f>
-        <v>2.7522011156600055E-2</v>
+        <v>2.932705912158317E-2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>11.2176224219545</v>
+        <v>19.530396485746099</v>
       </c>
       <c r="B133">
-        <v>17.964601668724899</v>
+        <v>17.8827857125961</v>
       </c>
       <c r="C133">
         <f>POWER(10, B133-10)/$N$3</f>
-        <v>0.43974117215563574</v>
+        <v>0.36423457896525047</v>
       </c>
       <c r="D133">
-        <v>11.2485466581713</v>
+        <v>19.717046288719001</v>
       </c>
       <c r="E133">
-        <v>16.788673053701402</v>
+        <v>16.8163068115946</v>
       </c>
       <c r="F133">
         <f>POWER(10, E133-10)/$N$3</f>
-        <v>2.932705912158317E-2</v>
+        <v>3.1253759981027626E-2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>11.175240364902001</v>
+        <v>19.587240132482201</v>
       </c>
       <c r="B134">
-        <v>17.992273052777101</v>
+        <v>17.909858784160399</v>
       </c>
       <c r="C134">
         <f>POWER(10, B134-10)/$N$3</f>
-        <v>0.46867146651563363</v>
+        <v>0.38766290435324507</v>
       </c>
       <c r="D134">
-        <v>11.206047764172901</v>
+        <v>19.774433183794802</v>
       </c>
       <c r="E134">
-        <v>16.8163068115946</v>
+        <v>16.843541884080398</v>
       </c>
       <c r="F134">
         <f>POWER(10, E134-10)/$N$3</f>
-        <v>3.1253759981027626E-2</v>
+        <v>3.3276477308652588E-2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>11.133018434362199</v>
+        <v>19.644249223897098</v>
       </c>
       <c r="B135">
-        <v>18.019987059844901</v>
+        <v>17.937445846199299</v>
       </c>
       <c r="C135">
         <f>POWER(10, B135-10)/$N$3</f>
-        <v>0.49955409208607204</v>
+        <v>0.41308679017760908</v>
       </c>
       <c r="D135">
-        <v>11.1637094381168</v>
+        <v>19.831987104685499</v>
       </c>
       <c r="E135">
-        <v>16.843541884080398</v>
+        <v>16.869486468038801</v>
       </c>
       <c r="F135">
         <f>POWER(10, E135-10)/$N$3</f>
-        <v>3.3276477308652588E-2</v>
+        <v>3.5324980357393149E-2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>11.090956025350399</v>
+        <v>19.701424241521199</v>
       </c>
       <c r="B136">
-        <v>18.042509407374801</v>
+        <v>17.964601668724899</v>
       </c>
       <c r="C136">
         <f>POWER(10, B136-10)/$N$3</f>
-        <v>0.52614429824056097</v>
+        <v>0.43974117215563574</v>
       </c>
       <c r="D136">
-        <v>11.1215310733504</v>
+        <v>19.8897085375236</v>
       </c>
       <c r="E136">
-        <v>16.869486468038801</v>
+        <v>16.8972532428965</v>
       </c>
       <c r="F136">
         <f>POWER(10, E136-10)/$N$3</f>
-        <v>3.5324980357393149E-2</v>
+        <v>3.765725887187199E-2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>11.0474870331544</v>
+        <v>19.758765668286401</v>
       </c>
       <c r="B137">
-        <v>18.036939552704599</v>
+        <v>17.992273052777101</v>
       </c>
       <c r="C137">
         <f>POWER(10, B137-10)/$N$3</f>
-        <v>0.51943955008080256</v>
+        <v>0.46867146651563363</v>
       </c>
       <c r="D137">
-        <v>11.079512065513301</v>
+        <v>19.942328339214001</v>
       </c>
       <c r="E137">
-        <v>16.8972532428965</v>
+        <v>16.917514761469299</v>
       </c>
       <c r="F137">
         <f>POWER(10, E137-10)/$N$3</f>
-        <v>3.765725887187199E-2</v>
+        <v>3.945574266997235E-2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>11.0075779265359</v>
+        <v>19.816273988530099</v>
       </c>
       <c r="B138">
-        <v>18.065999332538901</v>
+        <v>18.019987059844901</v>
       </c>
       <c r="C138">
         <f>POWER(10, B138-10)/$N$3</f>
-        <v>0.55538582804861703</v>
+        <v>0.49955409208607204</v>
       </c>
       <c r="D138">
-        <v>11.041450745742999</v>
+        <v>15.696703313287699</v>
       </c>
       <c r="E138">
-        <v>16.917514761469299</v>
+        <v>16.691477043366401</v>
       </c>
       <c r="F138">
         <f>POWER(10, E138-10)/$N$3</f>
-        <v>3.945574266997235E-2</v>
+        <v>2.3446202110167215E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>19.873949687999499</v>
+      </c>
+      <c r="B139">
+        <v>18.042509407374801</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>19.936708934254501</v>
+      </c>
+      <c r="B140">
+        <v>18.047377412783501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>19.990861498249298</v>
+      </c>
+      <c r="B141">
+        <v>18.068811226817498</v>
       </c>
     </row>
   </sheetData>

--- a/util/icecube_acceptance.xlsx
+++ b/util/icecube_acceptance.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="10200" windowWidth="24160" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="1180" windowWidth="24160" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="icecube_acceptance.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -531,7 +531,7 @@
         <v>11.979551673969199</v>
       </c>
       <c r="C3">
-        <f>POWER(10, B3-10)/$N$3</f>
+        <f t="shared" ref="C3:C34" si="0">POWER(10, B3-10)/$N$3</f>
         <v>4.5514223201753288E-7</v>
       </c>
       <c r="D3">
@@ -541,7 +541,7 @@
         <v>12.020664990976</v>
       </c>
       <c r="F3">
-        <f>POWER(10, E3-10)/$N$3</f>
+        <f t="shared" ref="F3:F34" si="1">POWER(10, E3-10)/$N$3</f>
         <v>5.0033450203391288E-7</v>
       </c>
       <c r="G3">
@@ -551,7 +551,7 @@
         <v>12.013846700824001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">POWER(10, H3-10)/$N$3</f>
+        <f t="shared" ref="I3:I66" si="2">POWER(10, H3-10)/$N$3</f>
         <v>4.9254074371361153E-7</v>
       </c>
       <c r="J3">
@@ -561,7 +561,7 @@
         <v>12.023877872285</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">POWER(10, K3-10)/$N$3</f>
+        <f t="shared" ref="L3:L66" si="3">POWER(10, K3-10)/$N$3</f>
         <v>5.0404966829199579E-7</v>
       </c>
       <c r="M3">
@@ -579,7 +579,7 @@
         <v>12.3116347673402</v>
       </c>
       <c r="C4">
-        <f>POWER(10, B4-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>9.777554116059838E-7</v>
       </c>
       <c r="D4">
@@ -589,7 +589,7 @@
         <v>12.3339875579512</v>
       </c>
       <c r="F4">
-        <f>POWER(10, E4-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.0293972860971493E-6</v>
       </c>
       <c r="G4">
@@ -599,7 +599,7 @@
         <v>12.104843423721601</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0734978867375655E-7</v>
       </c>
       <c r="J4">
@@ -609,7 +609,7 @@
         <v>12.112287538826299</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1784992716697401E-7</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -624,7 +624,7 @@
         <v>12.195446336726199</v>
       </c>
       <c r="C5">
-        <f>POWER(10, B5-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.4824150990353195E-7</v>
       </c>
       <c r="D5">
@@ -634,7 +634,7 @@
         <v>12.208767664360799</v>
       </c>
       <c r="F5">
-        <f>POWER(10, E5-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.7154831183309275E-7</v>
       </c>
       <c r="G5">
@@ -644,7 +644,7 @@
         <v>12.199177688552099</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5469791390990651E-7</v>
       </c>
       <c r="J5">
@@ -654,7 +654,7 @@
         <v>12.1934824667513</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4486561706870449E-7</v>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>12.118307815306601</v>
       </c>
       <c r="C6">
-        <f>POWER(10, B6-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>6.2647432418291061E-7</v>
       </c>
       <c r="D6">
@@ -676,7 +676,7 @@
         <v>12.4340361389494</v>
       </c>
       <c r="F6">
-        <f>POWER(10, E6-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.2960793760695447E-6</v>
       </c>
       <c r="G6">
@@ -686,7 +686,7 @@
         <v>12.2874786219946</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.2485592460533784E-7</v>
       </c>
       <c r="J6">
@@ -696,7 +696,7 @@
         <v>12.277680993867</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.042248847074522E-7</v>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>12.037161848442199</v>
       </c>
       <c r="C7">
-        <f>POWER(10, B7-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.1970549579163583E-7</v>
       </c>
       <c r="D7">
@@ -718,7 +718,7 @@
         <v>12.5122413616345</v>
       </c>
       <c r="F7">
-        <f>POWER(10, E7-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.551803841474921E-6</v>
       </c>
       <c r="G7">
@@ -728,7 +728,7 @@
         <v>12.369784378528101</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1178404979833432E-6</v>
       </c>
       <c r="J7">
@@ -738,7 +738,7 @@
         <v>12.3703933908424</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.119409148309624E-6</v>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>11.966119912668701</v>
       </c>
       <c r="C8">
-        <f>POWER(10, B8-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.4128114732730155E-7</v>
       </c>
       <c r="D8">
@@ -760,7 +760,7 @@
         <v>12.5950839083325</v>
       </c>
       <c r="F8">
-        <f>POWER(10, E8-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.8779298679201243E-6</v>
       </c>
       <c r="G8">
@@ -770,7 +770,7 @@
         <v>12.451919040955699</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3505619250189747E-6</v>
       </c>
       <c r="J8">
@@ -780,7 +780,7 @@
         <v>12.455969552247799</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3632170625017857E-6</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>12.436323171848599</v>
       </c>
       <c r="C9">
-        <f>POWER(10, B9-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3029226467563407E-6</v>
       </c>
       <c r="D9">
@@ -802,7 +802,7 @@
         <v>12.683446323462199</v>
       </c>
       <c r="F9">
-        <f>POWER(10, E9-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.3016632549748102E-6</v>
       </c>
       <c r="G9">
@@ -812,7 +812,7 @@
         <v>12.5345990728551</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6337836059043367E-6</v>
       </c>
       <c r="J9">
@@ -822,7 +822,7 @@
         <v>12.5365986066553</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6413230464861584E-6</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>12.5335254495035</v>
       </c>
       <c r="C10">
-        <f>POWER(10, B10-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6297497027229012E-6</v>
       </c>
       <c r="D10">
@@ -844,7 +844,7 @@
         <v>12.7705763420811</v>
       </c>
       <c r="F10">
-        <f>POWER(10, E10-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.8130134136489863E-6</v>
       </c>
       <c r="G10">
@@ -854,7 +854,7 @@
         <v>12.6260825737084</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0168705972401809E-6</v>
       </c>
       <c r="J10">
@@ -864,7 +864,7 @@
         <v>12.619607193385599</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9870219029967818E-6</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
         <v>12.6363854378368</v>
       </c>
       <c r="C11">
-        <f>POWER(10, B11-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.0652893181024261E-6</v>
       </c>
       <c r="D11">
@@ -886,7 +886,7 @@
         <v>12.856750915327</v>
       </c>
       <c r="F11">
-        <f>POWER(10, E11-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.4304127379320456E-6</v>
       </c>
       <c r="G11">
@@ -896,7 +896,7 @@
         <v>12.7027318824865</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4061757384654503E-6</v>
       </c>
       <c r="J11">
@@ -906,7 +906,7 @@
         <v>12.7018387936014</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4012327312016271E-6</v>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>12.744235340094001</v>
       </c>
       <c r="C12">
-        <f>POWER(10, B12-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.6474684974329554E-6</v>
       </c>
       <c r="D12">
@@ -928,7 +928,7 @@
         <v>12.9438198665905</v>
       </c>
       <c r="F12">
-        <f>POWER(10, E12-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>4.1919426031952488E-6</v>
       </c>
       <c r="G12">
@@ -938,7 +938,7 @@
         <v>12.7898134756384</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.940417079037278E-6</v>
       </c>
       <c r="J12">
@@ -948,7 +948,7 @@
         <v>12.781368887970499</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8837947639929699E-6</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>12.830710967669599</v>
       </c>
       <c r="C13">
-        <f>POWER(10, B13-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.2307728801741338E-6</v>
       </c>
       <c r="D13">
@@ -970,7 +970,7 @@
         <v>13.028958686460401</v>
       </c>
       <c r="F13">
-        <f>POWER(10, E13-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>5.0998117761230631E-6</v>
       </c>
       <c r="G13">
@@ -980,7 +980,7 @@
         <v>12.8818301312457</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6343403198349643E-6</v>
       </c>
       <c r="J13">
@@ -990,7 +990,7 @@
         <v>12.8681551788903</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5216860731273602E-6</v>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>12.915730202065101</v>
       </c>
       <c r="C14">
-        <f>POWER(10, B14-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.9293947725883628E-6</v>
       </c>
       <c r="D14">
@@ -1012,7 +1012,7 @@
         <v>13.1148897257097</v>
       </c>
       <c r="F14">
-        <f>POWER(10, E14-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>6.215630465696085E-6</v>
       </c>
       <c r="G14">
@@ -1022,7 +1022,7 @@
         <v>12.964462600757299</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.396003826143235E-6</v>
       </c>
       <c r="J14">
@@ -1032,7 +1032,7 @@
         <v>12.955396540196601</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3051868114834216E-6</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         <v>13.0041415683284</v>
       </c>
       <c r="C15">
-        <f>POWER(10, B15-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.8165606060603615E-6</v>
       </c>
       <c r="D15">
@@ -1054,7 +1054,7 @@
         <v>13.206864925030199</v>
       </c>
       <c r="F15">
-        <f>POWER(10, E15-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.6817538370536299E-6</v>
       </c>
       <c r="G15">
@@ -1064,7 +1064,7 @@
         <v>13.0478110982649</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3260661887594399E-6</v>
       </c>
       <c r="J15">
@@ -1074,7 +1074,7 @@
         <v>13.0390160925283</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2192915051122168E-6</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>13.0909428598091</v>
       </c>
       <c r="C16">
-        <f>POWER(10, B16-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.8821801438855626E-6</v>
       </c>
       <c r="D16">
@@ -1096,7 +1096,7 @@
         <v>13.299485149773499</v>
       </c>
       <c r="F16">
-        <f>POWER(10, E16-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>9.507812547766368E-6</v>
       </c>
       <c r="G16">
@@ -1106,7 +1106,7 @@
         <v>13.1322396128592</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4689690579498688E-6</v>
       </c>
       <c r="J16">
@@ -1116,7 +1116,7 @@
         <v>13.119049040793501</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2754446264764857E-6</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>13.179785664592799</v>
       </c>
       <c r="C17">
-        <f>POWER(10, B17-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.2174058217717719E-6</v>
       </c>
       <c r="D17">
@@ -1138,7 +1138,7 @@
         <v>13.3867086173784</v>
       </c>
       <c r="F17">
-        <f>POWER(10, E17-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.1622621057981298E-5</v>
       </c>
       <c r="G17">
@@ -1148,7 +1148,7 @@
         <v>13.216392911383601</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8521461130833756E-6</v>
       </c>
       <c r="J17">
@@ -1158,7 +1158,7 @@
         <v>13.1972862360757</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5141817789278837E-6</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
         <v>13.2691914279293</v>
       </c>
       <c r="C18">
-        <f>POWER(10, B18-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>8.8672078570124654E-6</v>
       </c>
       <c r="D18">
@@ -1180,7 +1180,7 @@
         <v>13.469132668625999</v>
       </c>
       <c r="F18">
-        <f>POWER(10, E18-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.4051676072272072E-5</v>
       </c>
       <c r="G18">
@@ -1190,7 +1190,7 @@
         <v>13.301085476465801</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5429124056088258E-6</v>
       </c>
       <c r="J18">
@@ -1200,7 +1200,7 @@
         <v>13.285638974969601</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.2094657261391616E-6</v>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>13.3580965535137</v>
       </c>
       <c r="C19">
-        <f>POWER(10, B19-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.0881581383602971E-5</v>
       </c>
       <c r="D19">
@@ -1222,7 +1222,7 @@
         <v>13.554965265239501</v>
       </c>
       <c r="F19">
-        <f>POWER(10, E19-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.7122245757253025E-5</v>
       </c>
       <c r="G19">
@@ -1232,7 +1232,7 @@
         <v>13.386320763804299</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1612245925461964E-5</v>
       </c>
       <c r="J19">
@@ -1242,7 +1242,7 @@
         <v>13.3697622487087</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1177835389863527E-5</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
         <v>13.4475973537778</v>
       </c>
       <c r="C20">
-        <f>POWER(10, B20-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3371890598295518E-5</v>
       </c>
       <c r="D20">
@@ -1264,7 +1264,7 @@
         <v>13.6408502245799</v>
       </c>
       <c r="F20">
-        <f>POWER(10, E20-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.0866311460010096E-5</v>
       </c>
       <c r="G20">
@@ -1274,7 +1274,7 @@
         <v>13.470985768511699</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4111761551172588E-5</v>
       </c>
       <c r="J20">
@@ -1284,7 +1284,7 @@
         <v>13.4544181822016</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3583561181457722E-5</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>13.537697819811401</v>
       </c>
       <c r="C21">
-        <f>POWER(10, B21-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6454825490517985E-5</v>
       </c>
       <c r="D21">
@@ -1306,7 +1306,7 @@
         <v>13.729020023658901</v>
       </c>
       <c r="F21">
-        <f>POWER(10, E21-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.5563215704251914E-5</v>
       </c>
       <c r="G21">
@@ -1316,7 +1316,7 @@
         <v>13.5539334823495</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7081615558449263E-5</v>
       </c>
       <c r="J21">
@@ -1326,7 +1326,7 @@
         <v>13.548645066438899</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6874873559787811E-5</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>13.627272533581101</v>
       </c>
       <c r="C22">
-        <f>POWER(10, B22-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.0224043678917554E-5</v>
       </c>
       <c r="D22">
@@ -1348,7 +1348,7 @@
         <v>13.830055250997599</v>
       </c>
       <c r="F22">
-        <f>POWER(10, E22-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.2258985995799319E-5</v>
       </c>
       <c r="G22">
@@ -1358,7 +1358,7 @@
         <v>13.6364119880323</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0654155815333156E-5</v>
       </c>
       <c r="J22">
@@ -1368,7 +1368,7 @@
         <v>13.631548087440301</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0424129169137591E-5</v>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>13.7129516753619</v>
       </c>
       <c r="C23">
-        <f>POWER(10, B23-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.4634691974946078E-5</v>
       </c>
       <c r="D23">
@@ -1390,7 +1390,7 @@
         <v>13.9191268854527</v>
       </c>
       <c r="F23">
-        <f>POWER(10, E23-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.9602476637812306E-5</v>
       </c>
       <c r="G23">
@@ -1400,7 +1400,7 @@
         <v>13.7302609210961</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5636361211740782E-5</v>
       </c>
       <c r="J23">
@@ -1410,7 +1410,7 @@
         <v>13.718545357983899</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4954037246249327E-5</v>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>13.7985361673336</v>
       </c>
       <c r="C24">
-        <f>POWER(10, B24-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.0000716591770054E-5</v>
       </c>
       <c r="D24">
@@ -1432,7 +1432,7 @@
         <v>14.0079594992993</v>
       </c>
       <c r="F24">
-        <f>POWER(10, E24-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>4.8590901919467273E-5</v>
       </c>
       <c r="G24">
@@ -1442,7 +1442,7 @@
         <v>13.8169428417792</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1299565071153124E-5</v>
       </c>
       <c r="J24">
@@ -1452,7 +1452,7 @@
         <v>13.804095628190201</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.038722833150881E-5</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>13.889221708320701</v>
       </c>
       <c r="C25">
-        <f>POWER(10, B25-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.6967252109001644E-5</v>
       </c>
       <c r="D25">
@@ -1474,7 +1474,7 @@
         <v>14.0944968844692</v>
       </c>
       <c r="F25">
-        <f>POWER(10, E25-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>5.9305141364087674E-5</v>
       </c>
       <c r="G25">
@@ -1484,7 +1484,7 @@
         <v>13.9041720030003</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.826198208191486E-5</v>
       </c>
       <c r="J25">
@@ -1494,7 +1494,7 @@
         <v>13.888158870177501</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6876893678381349E-5</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>13.980052660725599</v>
       </c>
       <c r="C26">
-        <f>POWER(10, B26-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.5566757094917849E-5</v>
       </c>
       <c r="D26">
@@ -1516,7 +1516,7 @@
         <v>14.181974002371399</v>
       </c>
       <c r="F26">
-        <f>POWER(10, E26-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.2538649097431921E-5</v>
       </c>
       <c r="G26">
@@ -1526,7 +1526,7 @@
         <v>13.991951859599901</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6832497713620888E-5</v>
       </c>
       <c r="J26">
@@ -1536,7 +1536,7 @@
         <v>13.975983018544101</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5141759175100172E-5</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>14.0753898023933</v>
       </c>
       <c r="C27">
-        <f>POWER(10, B27-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.6752534763427918E-5</v>
       </c>
       <c r="D27">
@@ -1558,7 +1558,7 @@
         <v>14.2655606790701</v>
       </c>
       <c r="F27">
-        <f>POWER(10, E27-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>8.7933860490093852E-5</v>
       </c>
       <c r="G27">
@@ -1568,7 +1568,7 @@
         <v>14.079947602579599</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7351273183520524E-5</v>
       </c>
       <c r="J27">
@@ -1578,7 +1578,7 @@
         <v>14.0639545790157</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5277709601091373E-5</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>14.1693581360419</v>
       </c>
       <c r="C28">
-        <f>POWER(10, B28-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.0461777880322047E-5</v>
       </c>
       <c r="D28">
@@ -1600,7 +1600,7 @@
         <v>14.3373535873267</v>
       </c>
       <c r="F28">
-        <f>POWER(10, E28-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.0374066995172044E-4</v>
       </c>
       <c r="G28">
@@ -1610,7 +1610,7 @@
         <v>14.164464294762301</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9672237143221868E-5</v>
       </c>
       <c r="J28">
@@ -1620,7 +1620,7 @@
         <v>14.153151652153401</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7880825187836594E-5</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>14.2699682918619</v>
       </c>
       <c r="C29">
-        <f>POWER(10, B29-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>8.8830836719025718E-5</v>
       </c>
       <c r="D29">
@@ -1642,7 +1642,7 @@
         <v>14.4068481960689</v>
       </c>
       <c r="F29">
-        <f>POWER(10, E29-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.2174290401552009E-4</v>
       </c>
       <c r="G29">
@@ -1652,7 +1652,7 @@
         <v>14.230118589989299</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1042727903695246E-5</v>
       </c>
       <c r="J29">
@@ -1662,7 +1662,7 @@
         <v>14.2341347099907</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1795643040075301E-5</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>14.3593674882838</v>
       </c>
       <c r="C30">
-        <f>POWER(10, B30-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.0913472269729516E-4</v>
       </c>
       <c r="D30">
@@ -1684,7 +1684,7 @@
         <v>14.4774431722184</v>
       </c>
       <c r="F30">
-        <f>POWER(10, E30-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.4323153070066073E-4</v>
       </c>
       <c r="G30">
@@ -1694,7 +1694,7 @@
         <v>14.295700219691501</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4253108149795441E-5</v>
       </c>
       <c r="J30">
@@ -1704,7 +1704,7 @@
         <v>14.3046377795037</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6212885681270382E-5</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>14.449745894741101</v>
       </c>
       <c r="C31">
-        <f>POWER(10, B31-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3438207901154002E-4</v>
       </c>
       <c r="D31">
@@ -1726,7 +1726,7 @@
         <v>14.547937563950001</v>
       </c>
       <c r="F31">
-        <f>POWER(10, E31-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.6847405341825276E-4</v>
       </c>
       <c r="G31">
@@ -1736,7 +1736,7 @@
         <v>14.361962811990701</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0978885934334265E-4</v>
       </c>
       <c r="J31">
@@ -1746,7 +1746,7 @@
         <v>14.3751109810988</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1316351848283813E-4</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>14.543537265678101</v>
       </c>
       <c r="C32">
-        <f>POWER(10, B32-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6677568252572821E-4</v>
       </c>
       <c r="D32">
@@ -1768,7 +1768,7 @@
         <v>14.6588509468884</v>
       </c>
       <c r="F32">
-        <f>POWER(10, E32-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.1749356294912167E-4</v>
       </c>
       <c r="G32">
@@ -1778,7 +1778,7 @@
         <v>14.4285325407764</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.279758438130177E-4</v>
       </c>
       <c r="J32">
@@ -1788,7 +1788,7 @@
         <v>14.4463123199512</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3332382993118492E-4</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>14.6144166446126</v>
       </c>
       <c r="C33">
-        <f>POWER(10, B33-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.963415004659225E-4</v>
       </c>
       <c r="D33">
@@ -1810,7 +1810,7 @@
         <v>14.783185633839301</v>
       </c>
       <c r="F33">
-        <f>POWER(10, E33-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.8958835560872917E-4</v>
       </c>
       <c r="G33">
@@ -1820,7 +1820,7 @@
         <v>14.495410829669799</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4928160325353274E-4</v>
       </c>
       <c r="J33">
@@ -1830,7 +1830,7 @@
         <v>14.517866326039499</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5720334653301351E-4</v>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>14.6771242067115</v>
       </c>
       <c r="C34">
-        <f>POWER(10, B34-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.2684001519324647E-4</v>
       </c>
       <c r="D34">
@@ -1852,7 +1852,7 @@
         <v>14.9180955979009</v>
       </c>
       <c r="F34">
-        <f>POWER(10, E34-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.9508547081907003E-4</v>
       </c>
       <c r="G34">
@@ -1862,7 +1862,7 @@
         <v>14.562215098334301</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7410472572152997E-4</v>
       </c>
       <c r="J34">
@@ -1872,7 +1872,7 @@
         <v>14.5897747461592</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8551123094169336E-4</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
         <v>14.7393234623399</v>
       </c>
       <c r="C35">
-        <f>POWER(10, B35-10)/$N$3</f>
+        <f t="shared" ref="C35:C66" si="4">POWER(10, B35-10)/$N$3</f>
         <v>2.6176942759085267E-4</v>
       </c>
       <c r="D35">
@@ -1894,7 +1894,7 @@
         <v>15.0572400734886</v>
       </c>
       <c r="F35">
-        <f>POWER(10, E35-10)/$N$3</f>
+        <f t="shared" ref="F35:F66" si="5">POWER(10, E35-10)/$N$3</f>
         <v>5.4429649098266001E-4</v>
       </c>
       <c r="G35">
@@ -1904,7 +1904,7 @@
         <v>14.629713024788</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0338011369399996E-4</v>
       </c>
       <c r="J35">
@@ -1914,7 +1914,7 @@
         <v>14.661266080433901</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1870642490360497E-4</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         <v>14.802566974810301</v>
       </c>
       <c r="C36">
-        <f>POWER(10, B36-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.0280457728310413E-4</v>
       </c>
       <c r="D36">
@@ -1936,7 +1936,7 @@
         <v>15.1954783459481</v>
       </c>
       <c r="F36">
-        <f>POWER(10, E36-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>7.4829666029612016E-4</v>
       </c>
       <c r="G36">
@@ -1946,7 +1946,7 @@
         <v>14.6975238136769</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3774931518579195E-4</v>
       </c>
       <c r="J36">
@@ -1956,7 +1956,7 @@
         <v>14.733496246346</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5828055284620377E-4</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>14.868117870608501</v>
       </c>
       <c r="C37">
-        <f>POWER(10, B37-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.5213835539414602E-4</v>
       </c>
       <c r="D37">
@@ -1978,7 +1978,7 @@
         <v>15.3349857633425</v>
       </c>
       <c r="F37">
-        <f>POWER(10, E37-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.0317660284054682E-3</v>
       </c>
       <c r="G37">
@@ -1988,7 +1988,7 @@
         <v>14.7656489151624</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7812778439112364E-4</v>
       </c>
       <c r="J37">
@@ -1998,7 +1998,7 @@
         <v>14.7877431236732</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9264329944102421E-4</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
         <v>15.0081114038768</v>
       </c>
       <c r="C38">
-        <f>POWER(10, B38-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>4.8607900688169556E-4</v>
       </c>
       <c r="D38">
@@ -2020,7 +2020,7 @@
         <v>15.483638635761899</v>
       </c>
       <c r="F38">
-        <f>POWER(10, E38-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.4528945569562887E-3</v>
       </c>
       <c r="G38">
@@ -2030,7 +2030,7 @@
         <v>14.834480966111901</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2589404675998913E-4</v>
       </c>
       <c r="J38">
@@ -2040,7 +2040,7 @@
         <v>14.831234900160901</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2346728337892549E-4</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
         <v>15.157055652880301</v>
       </c>
       <c r="C39">
-        <f>POWER(10, B39-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>6.8493776747319962E-4</v>
       </c>
       <c r="D39">
@@ -2062,7 +2062,7 @@
         <v>15.6280580600794</v>
       </c>
       <c r="F39">
-        <f>POWER(10, E39-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.0260656850044872E-3</v>
       </c>
       <c r="G39">
@@ -2072,7 +2072,7 @@
         <v>14.9032408833683</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8180036949831092E-4</v>
       </c>
       <c r="J39">
@@ -2082,7 +2082,7 @@
         <v>14.8752468439405</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5796643362891612E-4</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>15.300478548628501</v>
       </c>
       <c r="C40">
-        <f>POWER(10, B40-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>9.5295854713663066E-4</v>
       </c>
       <c r="D40">
@@ -2104,7 +2104,7 @@
         <v>15.770774470942101</v>
       </c>
       <c r="F40">
-        <f>POWER(10, E40-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.8142970272283341E-3</v>
       </c>
       <c r="G40">
@@ -2114,7 +2114,7 @@
         <v>14.971924697828101</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4721891004391852E-4</v>
       </c>
       <c r="J40">
@@ -2124,7 +2124,7 @@
         <v>14.918995974928601</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9590540958461058E-4</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>15.439455190953799</v>
       </c>
       <c r="C41">
-        <f>POWER(10, B41-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3123529503590943E-3</v>
       </c>
       <c r="D41">
@@ -2146,7 +2146,7 @@
         <v>15.901584187607201</v>
       </c>
       <c r="F41">
-        <f>POWER(10, E41-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8034669654698557E-3</v>
       </c>
       <c r="G41">
@@ -2156,7 +2156,7 @@
         <v>15.041321686219</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2470734934121916E-4</v>
       </c>
       <c r="J41">
@@ -2166,7 +2166,7 @@
         <v>14.963268351201799</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3839320311694354E-4</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>15.592448258200999</v>
       </c>
       <c r="C42">
-        <f>POWER(10, B42-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.8665675834324362E-3</v>
       </c>
       <c r="D42">
@@ -2188,7 +2188,7 @@
         <v>16.422895846885002</v>
       </c>
       <c r="F42">
-        <f>POWER(10, E42-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.2632558203024141E-2</v>
       </c>
       <c r="G42">
@@ -2198,7 +2198,7 @@
         <v>15.1038694372879</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0598921965031066E-4</v>
       </c>
       <c r="J42">
@@ -2208,7 +2208,7 @@
         <v>15.007672106510499</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8558757704246042E-4</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>15.745553223326899</v>
       </c>
       <c r="C43">
-        <f>POWER(10, B43-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.6555145437939898E-3</v>
       </c>
       <c r="D43">
@@ -2230,7 +2230,7 @@
         <v>16.318440571332498</v>
       </c>
       <c r="F43">
-        <f>POWER(10, E43-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>9.9319844818487896E-3</v>
       </c>
       <c r="G43">
@@ -2240,7 +2240,7 @@
         <v>15.147092629628199</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6940367242704899E-4</v>
       </c>
       <c r="J43">
@@ -2250,7 +2250,7 @@
         <v>15.0526045625497</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3851775118703919E-4</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>15.8924225799748</v>
       </c>
       <c r="C44">
-        <f>POWER(10, B44-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.7240717604682836E-3</v>
       </c>
       <c r="D44">
@@ -2272,7 +2272,7 @@
         <v>16.214649667319001</v>
       </c>
       <c r="F44">
-        <f>POWER(10, E44-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>7.8206910235430419E-3</v>
       </c>
       <c r="G44">
@@ -2282,7 +2282,7 @@
         <v>15.1892378472988</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3762106071058222E-4</v>
       </c>
       <c r="J44">
@@ -2292,7 +2292,7 @@
         <v>15.0972734245968</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.968550675874121E-4</v>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
         <v>16.028037371805599</v>
       </c>
       <c r="C45">
-        <f>POWER(10, B45-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>5.0890044753188418E-3</v>
       </c>
       <c r="D45">
@@ -2314,7 +2314,7 @@
         <v>16.116193053934399</v>
       </c>
       <c r="F45">
-        <f>POWER(10, E45-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>6.2343117402355232E-3</v>
       </c>
       <c r="G45">
@@ -2324,7 +2324,7 @@
         <v>15.2315003296759</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1300981884360973E-4</v>
       </c>
       <c r="J45">
@@ -2334,7 +2334,7 @@
         <v>15.1420748422576</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6171396962183245E-4</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>16.193293613335701</v>
       </c>
       <c r="C46">
-        <f>POWER(10, B46-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.4454178188106367E-3</v>
       </c>
       <c r="D46">
@@ -2356,7 +2356,7 @@
         <v>16.013688513809299</v>
       </c>
       <c r="F46">
-        <f>POWER(10, E46-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.9236137380389289E-3</v>
       </c>
       <c r="G46">
@@ -2366,7 +2366,7 @@
         <v>15.2730748800759</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9468538091711988E-4</v>
       </c>
       <c r="J46">
@@ -2376,7 +2376,7 @@
         <v>15.187009208893301</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3384555818926196E-4</v>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>16.350592407533501</v>
       </c>
       <c r="C47">
-        <f>POWER(10, B47-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0695174345101881E-2</v>
       </c>
       <c r="D47">
@@ -2398,7 +2398,7 @@
         <v>15.819806217283199</v>
       </c>
       <c r="F47">
-        <f>POWER(10, E47-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.1506610082628365E-3</v>
       </c>
       <c r="G47">
@@ -2408,7 +2408,7 @@
         <v>15.315570630320501</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8665674987890618E-4</v>
       </c>
       <c r="J47">
@@ -2418,7 +2418,7 @@
         <v>15.232076919032099</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1408992496404616E-4</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>16.489680931441001</v>
       </c>
       <c r="C48">
-        <f>POWER(10, B48-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.4732498055012927E-2</v>
       </c>
       <c r="D48">
@@ -2440,7 +2440,7 @@
         <v>15.719186799549499</v>
       </c>
       <c r="F48">
-        <f>POWER(10, E48-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4990920936558162E-3</v>
       </c>
       <c r="G48">
@@ -2450,7 +2450,7 @@
         <v>15.357779630729301</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0873643536775141E-3</v>
       </c>
       <c r="J48">
@@ -2460,7 +2460,7 @@
         <v>15.277278368373301</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0338698484964265E-4</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>16.6241547750191</v>
       </c>
       <c r="C49">
-        <f>POWER(10, B49-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.0079377098077767E-2</v>
       </c>
       <c r="D49">
@@ -2482,7 +2482,7 @@
         <v>15.0388735727584</v>
       </c>
       <c r="F49">
-        <f>POWER(10, E49-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>5.2175790030750777E-4</v>
       </c>
       <c r="G49">
@@ -2492,7 +2492,7 @@
         <v>15.4005110631765</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.199793553574433E-3</v>
       </c>
       <c r="J49">
@@ -2502,7 +2502,7 @@
         <v>15.322613953790199</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0027886615483082E-3</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>15.886091580888699</v>
       </c>
       <c r="C50">
-        <f>POWER(10, B50-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.6701772754531552E-3</v>
       </c>
       <c r="D50">
@@ -2524,7 +2524,7 @@
         <v>15.6237386752176</v>
       </c>
       <c r="F50">
-        <f>POWER(10, E50-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.006014815561051E-3</v>
       </c>
       <c r="G50">
@@ -2534,7 +2534,7 @@
         <v>15.442954155468099</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3229688434311286E-3</v>
       </c>
       <c r="J50">
@@ -2544,7 +2544,7 @@
         <v>15.3676788224258</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1124340753426673E-3</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
         <v>15.7476481575384</v>
       </c>
       <c r="C51">
-        <f>POWER(10, B51-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.6683550649369797E-3</v>
       </c>
       <c r="D51">
@@ -2566,7 +2566,7 @@
         <v>15.524366314600099</v>
       </c>
       <c r="F51">
-        <f>POWER(10, E51-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.5957386921863226E-3</v>
       </c>
       <c r="G51">
@@ -2576,7 +2576,7 @@
         <v>15.4859225772156</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4605554116272899E-3</v>
       </c>
       <c r="J51">
@@ -2586,7 +2586,7 @@
         <v>15.412876229960601</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2344448465027751E-3</v>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
         <v>16.046201856716301</v>
       </c>
       <c r="C52">
-        <f>POWER(10, B52-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>5.3063674186165193E-3</v>
       </c>
       <c r="D52">
@@ -2608,7 +2608,7 @@
         <v>14.911994971840301</v>
       </c>
       <c r="F52">
-        <f>POWER(10, E52-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8957442006258319E-4</v>
       </c>
       <c r="G52">
@@ -2618,7 +2618,7 @@
         <v>15.528601059667899</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.611374626172732E-3</v>
       </c>
       <c r="J52">
@@ -2628,7 +2628,7 @@
         <v>15.4586142043559</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3715437496906581E-3</v>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
         <v>15.6491898570051</v>
       </c>
       <c r="C53">
-        <f>POWER(10, B53-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.1270873166332254E-3</v>
       </c>
       <c r="D53">
@@ -2650,7 +2650,7 @@
         <v>15.4301011553991</v>
       </c>
       <c r="F53">
-        <f>POWER(10, E53-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.2843891151728931E-3</v>
       </c>
       <c r="G53">
@@ -2660,7 +2660,7 @@
         <v>15.5718077850628</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.779931324111343E-3</v>
       </c>
       <c r="J53">
@@ -2670,7 +2670,7 @@
         <v>15.5044879069742</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5243453418392751E-3</v>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
         <v>15.5513471428023</v>
       </c>
       <c r="C54">
-        <f>POWER(10, B54-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.6980192280036249E-3</v>
       </c>
       <c r="D54">
@@ -2692,7 +2692,7 @@
         <v>14.7801052199758</v>
       </c>
       <c r="F54">
-        <f>POWER(10, E54-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.875415973273757E-4</v>
       </c>
       <c r="G54">
@@ -2702,7 +2702,7 @@
         <v>15.614722963153801</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9648003378760904E-3</v>
       </c>
       <c r="J54">
@@ -2712,7 +2712,7 @@
         <v>15.5509078124963</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6963023880606641E-3</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>16.148935841278501</v>
       </c>
       <c r="C55">
-        <f>POWER(10, B55-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>6.7225076060410749E-3</v>
       </c>
       <c r="D55">
@@ -2734,7 +2734,7 @@
         <v>15.336408381573399</v>
       </c>
       <c r="F55">
-        <f>POWER(10, E55-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.0351513254822707E-3</v>
       </c>
       <c r="G55">
@@ -2744,7 +2744,7 @@
         <v>15.658169313832399</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1715247060779723E-3</v>
       </c>
       <c r="J55">
@@ -2754,7 +2754,7 @@
         <v>15.5970553979787</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8864741519414967E-3</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
         <v>15.454676523047301</v>
       </c>
       <c r="C56">
-        <f>POWER(10, B56-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3591643790747197E-3</v>
       </c>
       <c r="D56">
@@ -2776,7 +2776,7 @@
         <v>14.702644813377001</v>
       </c>
       <c r="F56">
-        <f>POWER(10, E56-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4056933870013713E-4</v>
       </c>
       <c r="G56">
@@ -2786,7 +2786,7 @@
         <v>15.7009084619937</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3960943935805975E-3</v>
       </c>
       <c r="J56">
@@ -2796,7 +2796,7 @@
         <v>15.643339927212001</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0986276388295783E-3</v>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         <v>15.3586068292853</v>
       </c>
       <c r="C57">
-        <f>POWER(10, B57-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0894374248522046E-3</v>
       </c>
       <c r="D57">
@@ -2818,7 +2818,7 @@
         <v>15.2388635406136</v>
       </c>
       <c r="F57">
-        <f>POWER(10, E57-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>8.2691144254515303E-4</v>
       </c>
       <c r="G57">
@@ -2828,7 +2828,7 @@
         <v>15.7450098052089</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6521938654771753E-3</v>
       </c>
       <c r="J57">
@@ -2838,7 +2838,7 @@
         <v>15.689348073143799</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3331546917117162E-3</v>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
         <v>15.2625809140601</v>
       </c>
       <c r="C58">
-        <f>POWER(10, B58-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>8.7332597026559627E-4</v>
       </c>
       <c r="D58">
@@ -2860,7 +2860,7 @@
         <v>14.7112246582181</v>
       </c>
       <c r="F58">
-        <f>POWER(10, E58-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4536924082936459E-4</v>
       </c>
       <c r="G58">
@@ -2870,7 +2870,7 @@
         <v>15.7879859854621</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9280699424703324E-3</v>
       </c>
       <c r="J58">
@@ -2880,7 +2880,7 @@
         <v>15.7359064824726</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5971793637258305E-3</v>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
         <v>15.171475566623799</v>
       </c>
       <c r="C59">
-        <f>POWER(10, B59-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.080615763510003E-4</v>
       </c>
       <c r="D59">
@@ -2902,7 +2902,7 @@
         <v>14.765681510414201</v>
       </c>
       <c r="F59">
-        <f>POWER(10, E59-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.7814865959390595E-4</v>
       </c>
       <c r="G59">
@@ -2912,7 +2912,7 @@
         <v>15.8323319155277</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2428538524660608E-3</v>
       </c>
       <c r="J59">
@@ -2922,7 +2922,7 @@
         <v>15.784684127437901</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9058927968932369E-3</v>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
         <v>15.2036623114639</v>
       </c>
       <c r="C60">
-        <f>POWER(10, B60-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.6253147095987699E-4</v>
       </c>
       <c r="D60">
@@ -2944,7 +2944,7 @@
         <v>14.753614960837099</v>
       </c>
       <c r="F60">
-        <f>POWER(10, E60-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.7052687876677744E-4</v>
       </c>
       <c r="G60">
@@ -2954,7 +2954,7 @@
         <v>15.8734533902955</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5649123081728856E-3</v>
       </c>
       <c r="J60">
@@ -2964,7 +2964,7 @@
         <v>15.8357007705992</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2681067321516954E-3</v>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
         <v>15.245160877682</v>
       </c>
       <c r="C61">
-        <f>POWER(10, B61-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>8.3898913880173025E-4</v>
       </c>
       <c r="D61">
@@ -2986,7 +2986,7 @@
         <v>14.7871324668579</v>
       </c>
       <c r="F61">
-        <f>POWER(10, E61-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.9223210598995999E-4</v>
       </c>
       <c r="G61">
@@ -2996,7 +2996,7 @@
         <v>15.909226894981099</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8709927325660874E-3</v>
       </c>
       <c r="J61">
@@ -3006,7 +3006,7 @@
         <v>15.885625540152599</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6662409263243227E-3</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>15.287982098751201</v>
       </c>
       <c r="C62">
-        <f>POWER(10, B62-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>9.2592873002832633E-4</v>
       </c>
       <c r="D62">
@@ -3028,7 +3028,7 @@
         <v>14.8224119696843</v>
       </c>
       <c r="F62">
-        <f>POWER(10, E62-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.1696216940496586E-4</v>
       </c>
       <c r="G62">
@@ -3038,7 +3038,7 @@
         <v>15.943819656219301</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1919405726288574E-3</v>
       </c>
       <c r="J62">
@@ -3048,7 +3048,7 @@
         <v>15.9348672793249</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1064140796118727E-3</v>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
         <v>15.33011506645</v>
       </c>
       <c r="C63">
-        <f>POWER(10, B63-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0202592183400938E-3</v>
       </c>
       <c r="D63">
@@ -3070,7 +3070,7 @@
         <v>14.862477980242801</v>
       </c>
       <c r="F63">
-        <f>POWER(10, E63-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.4759493640716975E-4</v>
       </c>
       <c r="G63">
@@ -3080,7 +3080,7 @@
         <v>15.9780662883558</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5358820145446413E-3</v>
       </c>
       <c r="J63">
@@ -3090,7 +3090,7 @@
         <v>15.985947764739601</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6189496243889154E-3</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>15.3723641506484</v>
       </c>
       <c r="C64">
-        <f>POWER(10, B64-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.1245003932235326E-3</v>
       </c>
       <c r="D64">
@@ -3112,7 +3112,7 @@
         <v>14.9038312871063</v>
       </c>
       <c r="F64">
-        <f>POWER(10, E64-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8231976282671466E-4</v>
       </c>
       <c r="G64">
@@ -3122,7 +3122,7 @@
         <v>16.015342479089501</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9424005590306807E-3</v>
       </c>
       <c r="J64">
@@ -3132,7 +3132,7 @@
         <v>16.035500479441598</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1772118962899053E-3</v>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
         <v>15.4139167202051</v>
       </c>
       <c r="C65">
-        <f>POWER(10, B65-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.237405896505595E-3</v>
       </c>
       <c r="D65">
@@ -3154,7 +3154,7 @@
         <v>14.944905553032999</v>
       </c>
       <c r="F65">
-        <f>POWER(10, E65-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.2024350889244608E-4</v>
       </c>
       <c r="G65">
@@ -3164,7 +3164,7 @@
         <v>16.056939289032901</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.439196516481757E-3</v>
       </c>
       <c r="J65">
@@ -3174,7 +3174,7 @@
         <v>16.086479346667399</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8220349426721194E-3</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
         <v>15.4572119494725</v>
       </c>
       <c r="C66">
-        <f>POWER(10, B66-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3671224355180185E-3</v>
       </c>
       <c r="D66">
@@ -3196,7 +3196,7 @@
         <v>14.9837221063926</v>
       </c>
       <c r="F66">
-        <f>POWER(10, E66-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.5953391312193178E-4</v>
       </c>
       <c r="G66">
@@ -3206,7 +3206,7 @@
         <v>16.1007668842987</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0167552458473914E-3</v>
       </c>
       <c r="J66">
@@ -3216,7 +3216,7 @@
         <v>16.137620282105999</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.549614563975791E-3</v>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
         <v>15.499402582261601</v>
       </c>
       <c r="C67">
-        <f>POWER(10, B67-10)/$N$3</f>
+        <f t="shared" ref="C67:C98" si="6">POWER(10, B67-10)/$N$3</f>
         <v>1.5066002780657472E-3</v>
       </c>
       <c r="D67">
@@ -3238,7 +3238,7 @@
         <v>15.022243336719299</v>
       </c>
       <c r="F67">
-        <f>POWER(10, E67-10)/$N$3</f>
+        <f t="shared" ref="F67:F98" si="7">POWER(10, E67-10)/$N$3</f>
         <v>5.0215616360133281E-4</v>
       </c>
       <c r="G67">
@@ -3248,7 +3248,7 @@
         <v>16.144288377110101</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I116" si="2">POWER(10, H67-10)/$N$3</f>
+        <f t="shared" ref="I67:I116" si="8">POWER(10, H67-10)/$N$3</f>
         <v>6.6509523761772221E-3</v>
       </c>
       <c r="J67">
@@ -3258,7 +3258,7 @@
         <v>16.187643146284898</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L115" si="3">POWER(10, K67-10)/$N$3</f>
+        <f t="shared" ref="L67:L115" si="9">POWER(10, K67-10)/$N$3</f>
         <v>7.3491753091174897E-3</v>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>15.5429379276568</v>
       </c>
       <c r="C68">
-        <f>POWER(10, B68-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.6654568635227928E-3</v>
       </c>
       <c r="D68">
@@ -3280,7 +3280,7 @@
         <v>15.0604664505816</v>
       </c>
       <c r="F68">
-        <f>POWER(10, E68-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>5.4835513102685759E-4</v>
       </c>
       <c r="G68">
@@ -3290,7 +3290,7 @@
         <v>16.183533039270401</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.279951739129634E-3</v>
       </c>
       <c r="J68">
@@ -3300,7 +3300,7 @@
         <v>16.2391056941307</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.2737263963041912E-3</v>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>15.5853625504615</v>
       </c>
       <c r="C69">
-        <f>POWER(10, B69-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.8363607913557145E-3</v>
       </c>
       <c r="D69">
@@ -3322,7 +3322,7 @@
         <v>15.0983886710174</v>
       </c>
       <c r="F69">
-        <f>POWER(10, E69-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>5.9838973105477223E-4</v>
       </c>
       <c r="G69">
@@ -3332,7 +3332,7 @@
         <v>16.185472159524899</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.3125293215731395E-3</v>
       </c>
       <c r="J69">
@@ -3342,7 +3342,7 @@
         <v>16.290302267068999</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.3088863483356925E-3</v>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
         <v>15.629551489383701</v>
       </c>
       <c r="C70">
-        <f>POWER(10, B70-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.0330448072793422E-3</v>
       </c>
       <c r="D70">
@@ -3364,7 +3364,7 @@
         <v>15.1332135410116</v>
       </c>
       <c r="F70">
-        <f>POWER(10, E70-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>6.4834923388527865E-4</v>
       </c>
       <c r="G70">
@@ -3374,7 +3374,7 @@
         <v>16.225108964281901</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.0113263817750829E-3</v>
       </c>
       <c r="J70">
@@ -3384,7 +3384,7 @@
         <v>16.340367508800501</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0446311447324682E-2</v>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>15.672625806438401</v>
       </c>
       <c r="C71">
-        <f>POWER(10, B71-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.2450254439194055E-3</v>
       </c>
       <c r="D71">
@@ -3406,7 +3406,7 @@
         <v>15.169318732541401</v>
       </c>
       <c r="F71">
-        <f>POWER(10, E71-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>7.0455385179363738E-4</v>
       </c>
       <c r="G71">
@@ -3416,7 +3416,7 @@
         <v>16.268108559979801</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.8451259408900296E-3</v>
       </c>
       <c r="J71">
@@ -3426,7 +3426,7 @@
         <v>16.381512517204001</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.1484391212522852E-2</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>15.7162332657861</v>
       </c>
       <c r="C72">
-        <f>POWER(10, B72-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.4821540222590638E-3</v>
       </c>
       <c r="D72">
@@ -3448,7 +3448,7 @@
         <v>15.2051091008322</v>
       </c>
       <c r="F72">
-        <f>POWER(10, E72-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>7.6507597043345467E-4</v>
       </c>
       <c r="G72">
@@ -3458,7 +3458,7 @@
         <v>16.308641556098902</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.7103976957479306E-3</v>
       </c>
       <c r="J72">
@@ -3468,7 +3468,7 @@
         <v>16.417565133879801</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.2478448611971298E-2</v>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
         <v>15.759130900153201</v>
       </c>
       <c r="C73">
-        <f>POWER(10, B73-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.7398473138639939E-3</v>
       </c>
       <c r="D73">
@@ -3490,7 +3490,7 @@
         <v>15.240582013307399</v>
       </c>
       <c r="F73">
-        <f>POWER(10, E73-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>8.3018995505880499E-4</v>
       </c>
       <c r="G73">
@@ -3500,7 +3500,7 @@
         <v>16.345395830721898</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0567963185725783E-2</v>
       </c>
       <c r="J73">
@@ -3510,7 +3510,7 @@
         <v>16.454564886158099</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.3588150461003069E-2</v>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
         <v>15.803812521806799</v>
       </c>
       <c r="C74">
-        <f>POWER(10, B74-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.0367426065317652E-3</v>
       </c>
       <c r="D74">
@@ -3532,7 +3532,7 @@
         <v>15.2761376826711</v>
       </c>
       <c r="F74">
-        <f>POWER(10, E74-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>9.010173288855806E-4</v>
       </c>
       <c r="G74">
@@ -3542,7 +3542,7 @@
         <v>16.380936990518698</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.1469182186583734E-2</v>
       </c>
       <c r="J74">
@@ -3552,7 +3552,7 @@
         <v>16.490778277307701</v>
       </c>
       <c r="L74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.4769770201280319E-2</v>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
         <v>15.8473670941629</v>
       </c>
       <c r="C75">
-        <f>POWER(10, B75-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.3570866821204365E-3</v>
       </c>
       <c r="D75">
@@ -3574,7 +3574,7 @@
         <v>15.3117763019919</v>
       </c>
       <c r="F75">
-        <f>POWER(10, E75-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>9.7807410970044231E-4</v>
       </c>
       <c r="G75">
@@ -3584,7 +3584,7 @@
         <v>16.4169883405688</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.2461886789154731E-2</v>
       </c>
       <c r="J75">
@@ -3594,7 +3594,7 @@
         <v>16.527943027753999</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.6089349611942163E-2</v>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <v>15.8914607530597</v>
       </c>
       <c r="C76">
-        <f>POWER(10, B76-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.7158332285072639E-3</v>
       </c>
       <c r="D76">
@@ -3616,7 +3616,7 @@
         <v>15.3462839726176</v>
       </c>
       <c r="F76">
-        <f>POWER(10, E76-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.0589597019291606E-3</v>
       </c>
       <c r="G76">
@@ -3626,7 +3626,7 @@
         <v>16.452685169941201</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3529465231820763E-2</v>
       </c>
       <c r="J76">
@@ -3636,7 +3636,7 @@
         <v>16.564317910341501</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.7494976817259793E-2</v>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         <v>15.935256879865101</v>
       </c>
       <c r="C77">
-        <f>POWER(10, B77-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>4.1100995488809319E-3</v>
       </c>
       <c r="D77">
@@ -3658,7 +3658,7 @@
         <v>15.3731650677034</v>
       </c>
       <c r="F77">
-        <f>POWER(10, E77-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.1265760873775839E-3</v>
       </c>
       <c r="G77">
@@ -3668,7 +3668,7 @@
         <v>16.4893292419343</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4720572580768728E-2</v>
       </c>
       <c r="J77">
@@ -3678,7 +3678,7 @@
         <v>16.6020861858599</v>
       </c>
       <c r="L77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.9084537818649685E-2</v>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>15.9795950829949</v>
       </c>
       <c r="C78">
-        <f>POWER(10, B78-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>4.5518772711153699E-3</v>
       </c>
       <c r="D78">
@@ -3700,7 +3700,7 @@
         <v>15.400093248668499</v>
       </c>
       <c r="F78">
-        <f>POWER(10, E78-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.1986398430921842E-3</v>
       </c>
       <c r="G78">
@@ -3710,7 +3710,7 @@
         <v>16.5260549290558</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.6019552868014743E-2</v>
       </c>
       <c r="J78">
@@ -3720,7 +3720,7 @@
         <v>16.6386242435422</v>
       </c>
       <c r="L78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.075963457650885E-2</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>16.022789039999001</v>
       </c>
       <c r="C79">
-        <f>POWER(10, B79-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>5.0278753358433629E-3</v>
       </c>
       <c r="D79">
@@ -3742,7 +3742,7 @@
         <v>15.4266617916811</v>
       </c>
       <c r="F79">
-        <f>POWER(10, E79-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.2742576591488835E-3</v>
       </c>
       <c r="G79">
@@ -3752,7 +3752,7 @@
         <v>16.562862413082101</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.7436442183327548E-2</v>
       </c>
       <c r="J79">
@@ -3762,7 +3762,7 @@
         <v>16.675682446403801</v>
       </c>
       <c r="L79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.2608820581187156E-2</v>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
         <v>16.0652524497788</v>
       </c>
       <c r="C80">
-        <f>POWER(10, B80-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>5.5443151792862345E-3</v>
       </c>
       <c r="D80">
@@ -3784,7 +3784,7 @@
         <v>15.4524611872242</v>
       </c>
       <c r="F80">
-        <f>POWER(10, E80-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.3522489354384371E-3</v>
       </c>
       <c r="G80">
@@ -3794,7 +3794,7 @@
         <v>16.598438722173601</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.8924925701998118E-2</v>
       </c>
       <c r="J80">
@@ -3804,7 +3804,7 @@
         <v>16.712382475562698</v>
       </c>
       <c r="L80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.4602426133568108E-2</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>16.1086779446034</v>
       </c>
       <c r="C81">
-        <f>POWER(10, B81-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>6.1273601194185316E-3</v>
       </c>
       <c r="D81">
@@ -3826,7 +3826,7 @@
         <v>15.4791200764318</v>
       </c>
       <c r="F81">
-        <f>POWER(10, E81-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.4378564747797114E-3</v>
       </c>
       <c r="G81">
@@ -3836,7 +3836,7 @@
         <v>16.634968752476802</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.058563240970256E-2</v>
       </c>
       <c r="J81">
@@ -3846,7 +3846,7 @@
         <v>16.7500466484491</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.6831324360996105E-2</v>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
         <v>16.150943070310401</v>
       </c>
       <c r="C82">
-        <f>POWER(10, B82-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>6.7536497079732838E-3</v>
       </c>
       <c r="D82">
@@ -3868,7 +3868,7 @@
         <v>15.507051672031899</v>
       </c>
       <c r="F82">
-        <f>POWER(10, E82-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.5333706033353294E-3</v>
       </c>
       <c r="G82">
@@ -3878,7 +3878,7 @@
         <v>16.671579178480901</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.2396215591628556E-2</v>
       </c>
       <c r="J82">
@@ -3888,7 +3888,7 @@
         <v>16.787353015703701</v>
       </c>
       <c r="L82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.9238054863523891E-2</v>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
         <v>16.1941731469987</v>
       </c>
       <c r="C83">
-        <f>POWER(10, B83-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>7.4605115659540748E-3</v>
       </c>
       <c r="D83">
@@ -3910,7 +3910,7 @@
         <v>15.532575911510101</v>
       </c>
       <c r="F83">
-        <f>POWER(10, E83-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.6261903234809892E-3</v>
       </c>
       <c r="G83">
@@ -3920,7 +3920,7 @@
         <v>16.70959202025</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.4444855886267849E-2</v>
       </c>
       <c r="J83">
@@ -3930,7 +3930,7 @@
         <v>16.824742473176901</v>
       </c>
       <c r="L83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.1866761806564718E-2</v>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
         <v>16.237090756952199</v>
       </c>
       <c r="C84">
-        <f>POWER(10, B84-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>8.2354288213298075E-3</v>
       </c>
       <c r="D84">
@@ -3952,7 +3952,7 @@
         <v>15.5593730162119</v>
       </c>
       <c r="F84">
-        <f>POWER(10, E84-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.7296908069130276E-3</v>
       </c>
       <c r="G84">
@@ -3962,7 +3962,7 @@
         <v>16.745483498164798</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6550882401514167E-2</v>
       </c>
       <c r="J84">
@@ -3972,7 +3972,7 @@
         <v>16.8622152059305</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.4738468415449961E-2</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
         <v>16.280122106658101</v>
       </c>
       <c r="C85">
-        <f>POWER(10, B85-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>9.093217260876375E-3</v>
       </c>
       <c r="D85">
@@ -3994,7 +3994,7 @@
         <v>15.585805348825801</v>
       </c>
       <c r="F85">
-        <f>POWER(10, E85-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.838234064582204E-3</v>
       </c>
       <c r="G85">
@@ -4004,7 +4004,7 @@
         <v>16.782337146262002</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8902313485870811E-2</v>
       </c>
       <c r="J85">
@@ -4014,7 +4014,7 @@
         <v>16.8930880188279</v>
       </c>
       <c r="L85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.7297822671769808E-2</v>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
         <v>16.324128409110902</v>
       </c>
       <c r="C86">
-        <f>POWER(10, B86-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.0062916525081563E-2</v>
       </c>
       <c r="D86">
@@ -4036,7 +4036,7 @@
         <v>15.6135177209521</v>
       </c>
       <c r="F86">
-        <f>POWER(10, E86-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.9593552366071782E-3</v>
       </c>
       <c r="G86">
@@ -4046,7 +4046,7 @@
         <v>16.816610968418999</v>
       </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.1275656123678532E-2</v>
       </c>
       <c r="J86">
@@ -4056,7 +4056,7 @@
         <v>16.923571076046201</v>
       </c>
       <c r="L86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.000981442627162E-2</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
         <v>16.366527231853102</v>
       </c>
       <c r="C87">
-        <f>POWER(10, B87-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.109488213297165E-2</v>
       </c>
       <c r="D87">
@@ -4078,7 +4078,7 @@
         <v>15.642104309687999</v>
       </c>
       <c r="F87">
-        <f>POWER(10, E87-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.0926652887285546E-3</v>
       </c>
       <c r="G87">
@@ -4088,7 +4088,7 @@
         <v>16.850066090836901</v>
       </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.3780148297612514E-2</v>
       </c>
       <c r="J87">
@@ -4098,7 +4098,7 @@
         <v>16.953215003142802</v>
       </c>
       <c r="L87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.2836153300317398E-2</v>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
         <v>16.410767093369401</v>
       </c>
       <c r="C88">
-        <f>POWER(10, B88-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.2284643403099784E-2</v>
       </c>
       <c r="D88">
@@ -4120,7 +4120,7 @@
         <v>15.670743237241499</v>
       </c>
       <c r="F88">
-        <f>POWER(10, E88-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.2353148239092086E-3</v>
       </c>
       <c r="G88">
@@ -4130,7 +4130,7 @@
         <v>16.8813618155793</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6304233896528773E-2</v>
       </c>
       <c r="J88">
@@ -4140,7 +4140,7 @@
         <v>16.983358700718199</v>
       </c>
       <c r="L88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.5914954862110786E-2</v>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>16.454258718088902</v>
       </c>
       <c r="C89">
-        <f>POWER(10, B89-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.3578574489252839E-2</v>
       </c>
       <c r="D89">
@@ -4162,7 +4162,7 @@
         <v>15.6998485988595</v>
       </c>
       <c r="F89">
-        <f>POWER(10, E89-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.3902540341704552E-3</v>
       </c>
       <c r="G89">
@@ -4172,7 +4172,7 @@
         <v>16.909148136977599</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8702908032766957E-2</v>
       </c>
       <c r="J89">
@@ -4182,7 +4182,7 @@
         <v>17.0135559953548</v>
       </c>
       <c r="L89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.9221116002620247E-2</v>
       </c>
     </row>
@@ -4194,7 +4194,7 @@
         <v>16.498735723914798</v>
       </c>
       <c r="C90">
-        <f>POWER(10, B90-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.5042886714066523E-2</v>
       </c>
       <c r="D90">
@@ -4204,7 +4204,7 @@
         <v>15.728178492282501</v>
       </c>
       <c r="F90">
-        <f>POWER(10, E90-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.5513729882230313E-3</v>
       </c>
       <c r="G90">
@@ -4214,7 +4214,7 @@
         <v>16.936533571861901</v>
       </c>
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.1221997522015642E-2</v>
       </c>
       <c r="J90">
@@ -4224,7 +4224,7 @@
         <v>17.044256433327799</v>
       </c>
       <c r="L90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.2826506896448265E-2</v>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
         <v>16.5415880559902</v>
       </c>
       <c r="C91">
-        <f>POWER(10, B91-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.6602883364189917E-2</v>
       </c>
       <c r="D91">
@@ -4246,7 +4246,7 @@
         <v>15.756975011949599</v>
       </c>
       <c r="F91">
-        <f>POWER(10, E91-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.7262800963485266E-3</v>
       </c>
       <c r="G91">
@@ -4256,7 +4256,7 @@
         <v>16.96396335919</v>
       </c>
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.390953320141875E-2</v>
       </c>
       <c r="J91">
@@ -4266,7 +4266,7 @@
         <v>17.074562007298798</v>
       </c>
       <c r="L91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.6644463564691862E-2</v>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
         <v>16.586301119090901</v>
       </c>
       <c r="C92">
-        <f>POWER(10, B92-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.840333704798881E-2</v>
       </c>
       <c r="D92">
@@ -4288,7 +4288,7 @@
         <v>15.784991732635</v>
       </c>
       <c r="F92">
-        <f>POWER(10, E92-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.9079517324681909E-3</v>
       </c>
       <c r="G92">
@@ -4298,7 +4298,7 @@
         <v>16.9914375707936</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.677707178704698E-2</v>
       </c>
       <c r="J92">
@@ -4308,7 +4308,7 @@
         <v>17.104921466155702</v>
       </c>
       <c r="L92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.0745893884001201E-2</v>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
         <v>16.629819408066801</v>
       </c>
       <c r="C93">
-        <f>POWER(10, B93-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.0342993908765709E-2</v>
       </c>
       <c r="D93">
@@ -4330,7 +4330,7 @@
         <v>15.8134752642215</v>
       </c>
       <c r="F93">
-        <f>POWER(10, E93-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.105065209369132E-3</v>
       </c>
       <c r="G93">
@@ -4340,7 +4340,7 @@
         <v>17.018058722813699</v>
       </c>
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.9734090901710132E-2</v>
       </c>
       <c r="J93">
@@ -4350,7 +4350,7 @@
         <v>17.135334905708699</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.5152392255502165E-2</v>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>16.668616112807801</v>
       </c>
       <c r="C94">
-        <f>POWER(10, B94-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.2243932770098892E-2</v>
       </c>
       <c r="D94">
@@ -4372,7 +4372,7 @@
         <v>15.842845722854801</v>
       </c>
       <c r="F94">
-        <f>POWER(10, E94-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.3223178827858943E-3</v>
       </c>
       <c r="G94">
@@ -4382,7 +4382,7 @@
         <v>17.043373229065999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.2719185278398042E-2</v>
       </c>
       <c r="J94">
@@ -4392,7 +4392,7 @@
         <v>17.166255089976001</v>
       </c>
       <c r="L94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.9960120842504941E-2</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
         <v>16.703538608669199</v>
       </c>
       <c r="C95">
-        <f>POWER(10, B95-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.4106494977233862E-2</v>
       </c>
       <c r="D95">
@@ -4414,7 +4414,7 @@
         <v>15.8718521852793</v>
       </c>
       <c r="F95">
-        <f>POWER(10, E95-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.5517929942102157E-3</v>
       </c>
       <c r="G95">
@@ -4424,7 +4424,7 @@
         <v>17.0687253908605</v>
       </c>
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.5888293864650433E-2</v>
       </c>
       <c r="J95">
@@ -4434,7 +4434,7 @@
         <v>17.196324110995398</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.4975534752289075E-2</v>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
         <v>16.7380928816237</v>
       </c>
       <c r="C96">
-        <f>POWER(10, B96-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.6102874937433844E-2</v>
       </c>
       <c r="D96">
@@ -4456,7 +4456,7 @@
         <v>15.900073163550701</v>
       </c>
       <c r="F96">
-        <f>POWER(10, E96-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.7902567037168943E-3</v>
       </c>
       <c r="G96">
@@ -4466,7 +4466,7 @@
         <v>17.09411526421</v>
       </c>
       <c r="I96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.9253052047421151E-2</v>
       </c>
       <c r="J96">
@@ -4476,7 +4476,7 @@
         <v>17.2273543484059</v>
       </c>
       <c r="L96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.052853704923231E-2</v>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
         <v>16.772718636304699</v>
       </c>
       <c r="C97">
-        <f>POWER(10, B97-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.8269237680855073E-2</v>
       </c>
       <c r="D97">
@@ -4498,7 +4498,7 @@
         <v>15.926664287557299</v>
       </c>
       <c r="F97">
-        <f>POWER(10, E97-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>4.0295796866212331E-3</v>
       </c>
       <c r="G97">
@@ -4508,7 +4508,7 @@
         <v>17.1195429052108</v>
       </c>
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.2825849005588144E-2</v>
       </c>
       <c r="J97">
@@ -4518,7 +4518,7 @@
         <v>17.2552551383755</v>
       </c>
       <c r="L97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5871806508567336E-2</v>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
         <v>16.8083024668063</v>
       </c>
       <c r="C98">
-        <f>POWER(10, B98-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.0683007611160142E-2</v>
       </c>
       <c r="D98">
@@ -4540,7 +4540,7 @@
         <v>15.9537205762292</v>
       </c>
       <c r="F98">
-        <f>POWER(10, E98-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>4.2886048976280775E-3</v>
       </c>
       <c r="G98">
@@ -4550,7 +4550,7 @@
         <v>17.145008370042699</v>
       </c>
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.66198776923521E-2</v>
       </c>
       <c r="J98">
@@ -4560,7 +4560,7 @@
         <v>17.282289623731501</v>
       </c>
       <c r="L98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.1387139708775364E-2</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>16.844405970473002</v>
       </c>
       <c r="C99">
-        <f>POWER(10, B99-10)/$N$3</f>
+        <f t="shared" ref="C99:C130" si="10">POWER(10, B99-10)/$N$3</f>
         <v>3.334275117607232E-2</v>
       </c>
       <c r="D99">
@@ -4582,7 +4582,7 @@
         <v>15.9812442479691</v>
       </c>
       <c r="F99">
-        <f>POWER(10, E99-10)/$N$3</f>
+        <f t="shared" ref="F99:F130" si="11">POWER(10, E99-10)/$N$3</f>
         <v>4.5691951691627201E-3</v>
       </c>
       <c r="G99">
@@ -4592,7 +4592,7 @@
         <v>17.170058934685201</v>
       </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.0575570208877184E-2</v>
       </c>
       <c r="J99">
@@ -4602,7 +4602,7 @@
         <v>17.308453593445002</v>
       </c>
       <c r="L99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.7061959449020047E-2</v>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
         <v>16.880141887824902</v>
       </c>
       <c r="C100">
-        <f>POWER(10, B100-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>3.6202398852344039E-2</v>
       </c>
       <c r="D100">
@@ -4624,7 +4624,7 @@
         <v>16.0079711216889</v>
       </c>
       <c r="F100">
-        <f>POWER(10, E100-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>4.859220230428318E-3</v>
       </c>
       <c r="G100">
@@ -4634,7 +4634,7 @@
         <v>17.1960529963361</v>
       </c>
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.4928744788280127E-2</v>
       </c>
       <c r="J100">
@@ -4644,7 +4644,7 @@
         <v>17.3360285718123</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10342464355379004</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>16.914615452263899</v>
       </c>
       <c r="C101">
-        <f>POWER(10, B101-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>3.9193217107601271E-2</v>
       </c>
       <c r="D101">
@@ -4666,7 +4666,7 @@
         <v>16.035165534774901</v>
       </c>
       <c r="F101">
-        <f>POWER(10, E101-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.1732205699834373E-3</v>
       </c>
       <c r="G101">
@@ -4676,7 +4676,7 @@
         <v>17.220269921557598</v>
       </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.9225571838671974E-2</v>
       </c>
       <c r="J101">
@@ -4686,7 +4686,7 @@
         <v>17.3622738978877</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10986752946772925</v>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
         <v>16.950053342496201</v>
       </c>
       <c r="C102">
-        <f>POWER(10, B102-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>4.2525438790066275E-2</v>
       </c>
       <c r="D102">
@@ -4708,7 +4708,7 @@
         <v>16.062406145851799</v>
       </c>
       <c r="F102">
-        <f>POWER(10, E102-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.5080973433774879E-3</v>
       </c>
       <c r="G102">
@@ -4718,7 +4718,7 @@
         <v>17.246339998526299</v>
       </c>
       <c r="I102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.4127011124218221E-2</v>
       </c>
       <c r="J102">
@@ -4728,7 +4728,7 @@
         <v>17.389017499438602</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.11684576073326353</v>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
         <v>16.9855654788186</v>
       </c>
       <c r="C103">
-        <f>POWER(10, B103-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>4.614885602022685E-2</v>
       </c>
       <c r="D103">
@@ -4750,7 +4750,7 @@
         <v>16.089693033400899</v>
       </c>
       <c r="F103">
-        <f>POWER(10, E103-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.8652765541680734E-3</v>
       </c>
       <c r="G103">
@@ -4760,7 +4760,7 @@
         <v>17.270627742125299</v>
       </c>
       <c r="I103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.8965823504229755E-2</v>
       </c>
       <c r="J103">
@@ -4770,7 +4770,7 @@
         <v>17.417639410059198</v>
       </c>
       <c r="L103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.12480582948899949</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
         <v>17.0220497357361</v>
       </c>
       <c r="C104">
-        <f>POWER(10, B104-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.019323609392564E-2</v>
       </c>
       <c r="D104">
@@ -4792,7 +4792,7 @@
         <v>16.116601275789399</v>
       </c>
       <c r="F104">
-        <f>POWER(10, E104-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>6.240174533529136E-3</v>
       </c>
       <c r="G104">
@@ -4802,7 +4802,7 @@
         <v>17.296774056706099</v>
       </c>
       <c r="I104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.4486446846763023E-2</v>
       </c>
       <c r="J104">
@@ -4812,7 +4812,7 @@
         <v>17.4444682926745</v>
       </c>
       <c r="L104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.13275893312014883</v>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
         <v>17.058612359252798</v>
       </c>
       <c r="C105">
-        <f>POWER(10, B105-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.4601908170891979E-2</v>
       </c>
       <c r="D105">
@@ -4834,7 +4834,7 @@
         <v>16.1444059525078</v>
       </c>
       <c r="F105">
-        <f>POWER(10, E105-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>6.6527532146996322E-3</v>
       </c>
       <c r="G105">
@@ -4844,7 +4844,7 @@
         <v>17.321132825779099</v>
       </c>
       <c r="I105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.9937455283989965E-2</v>
       </c>
       <c r="J105">
@@ -4854,7 +4854,7 @@
         <v>17.474563831622302</v>
       </c>
       <c r="L105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14228505713819584</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
         <v>17.092999657808701</v>
       </c>
       <c r="C106">
-        <f>POWER(10, B106-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.910103939824693E-2</v>
       </c>
       <c r="D106">
@@ -4876,7 +4876,7 @@
         <v>16.171832141695901</v>
       </c>
       <c r="F106">
-        <f>POWER(10, E106-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.0864316509780872E-3</v>
       </c>
       <c r="G106">
@@ -4886,7 +4886,7 @@
         <v>17.347355600916199</v>
       </c>
       <c r="I106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.10615759277052153</v>
       </c>
       <c r="J106">
@@ -4896,7 +4896,7 @@
         <v>17.499172979179502</v>
       </c>
       <c r="L106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15058039781880431</v>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
         <v>17.129262974196301</v>
       </c>
       <c r="C107">
-        <f>POWER(10, B107-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>6.4247825773706885E-2</v>
       </c>
       <c r="D107">
@@ -4918,7 +4918,7 @@
         <v>16.196314969815301</v>
       </c>
       <c r="F107">
-        <f>POWER(10, E107-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.4973956657973474E-3</v>
       </c>
       <c r="G107">
@@ -4928,7 +4928,7 @@
         <v>17.371785603165399</v>
       </c>
       <c r="I107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11230033819626797</v>
       </c>
       <c r="J107">
@@ -4938,7 +4938,7 @@
         <v>17.524278892402101</v>
       </c>
       <c r="L107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15954175070230611</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>17.164697934547199</v>
       </c>
       <c r="C108">
-        <f>POWER(10, B108-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>6.9709729182843239E-2</v>
       </c>
       <c r="D108">
@@ -4960,7 +4960,7 @@
         <v>16.219979398923002</v>
       </c>
       <c r="F108">
-        <f>POWER(10, E108-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.9172591370473347E-3</v>
       </c>
       <c r="G108">
@@ -4970,7 +4970,7 @@
         <v>17.397626281143399</v>
       </c>
       <c r="I108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11918503878293335</v>
       </c>
       <c r="J108">
@@ -4980,7 +4980,7 @@
         <v>17.551734867830501</v>
       </c>
       <c r="L108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16995358453036502</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>17.201566960199401</v>
       </c>
       <c r="C109">
-        <f>POWER(10, B109-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>7.5886132745941567E-2</v>
       </c>
       <c r="D109">
@@ -5002,7 +5002,7 @@
         <v>16.2441067554326</v>
       </c>
       <c r="F109">
-        <f>POWER(10, E109-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>8.3695520856360544E-3</v>
       </c>
       <c r="G109">
@@ -5012,7 +5012,7 @@
         <v>17.4225865061901</v>
       </c>
       <c r="I109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.12623563446911712</v>
       </c>
       <c r="J109">
@@ -5022,7 +5022,7 @@
         <v>17.5773797003909</v>
       </c>
       <c r="L109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.18029146237555993</v>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
         <v>17.2385151789173</v>
       </c>
       <c r="C110">
-        <f>POWER(10, B110-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>8.2624841599784907E-2</v>
       </c>
       <c r="D110">
@@ -5044,7 +5044,7 @@
         <v>16.268270001589102</v>
       </c>
       <c r="F110">
-        <f>POWER(10, E110-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>8.8484145776810512E-3</v>
       </c>
       <c r="G110">
@@ -5054,7 +5054,7 @@
         <v>17.4485027509409</v>
       </c>
       <c r="I110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.13399796779509332</v>
       </c>
       <c r="J110">
@@ -5064,7 +5064,7 @@
         <v>17.6058473785566</v>
       </c>
       <c r="L110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1925053658987923</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
         <v>17.273720633219799</v>
       </c>
       <c r="C111">
-        <f>POWER(10, B111-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>8.9601667951801592E-2</v>
       </c>
       <c r="D111">
@@ -5086,7 +5086,7 @@
         <v>16.292469190778501</v>
       </c>
       <c r="F111">
-        <f>POWER(10, E111-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>9.3554493480074736E-3</v>
       </c>
       <c r="G111">
@@ -5096,7 +5096,7 @@
         <v>17.473535968022102</v>
       </c>
       <c r="I111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14194870310665331</v>
       </c>
       <c r="J111">
@@ -5106,7 +5106,7 @@
         <v>17.6329661632289</v>
       </c>
       <c r="L111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.20490927853694554</v>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v>17.310367354629399</v>
       </c>
       <c r="C112">
-        <f>POWER(10, B112-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>9.7490616248402995E-2</v>
       </c>
       <c r="D112">
@@ -5128,7 +5128,7 @@
         <v>16.3162741107787</v>
       </c>
       <c r="F112">
-        <f>POWER(10, E112-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>9.8825625489176623E-3</v>
       </c>
       <c r="G112">
@@ -5138,7 +5138,7 @@
         <v>17.500912442519599</v>
       </c>
       <c r="I112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15118472124690049</v>
       </c>
       <c r="J112">
@@ -5148,7 +5148,7 @@
         <v>17.660126719732201</v>
       </c>
       <c r="L112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.21813340605165038</v>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>17.343432667793699</v>
       </c>
       <c r="C113">
-        <f>POWER(10, B113-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.10520300104634855</v>
       </c>
       <c r="D113">
@@ -5170,7 +5170,7 @@
         <v>16.3409756121981</v>
       </c>
       <c r="F113">
-        <f>POWER(10, E113-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.046094872041365E-2</v>
       </c>
       <c r="G113">
@@ -5180,7 +5180,7 @@
         <v>17.524634423096799</v>
       </c>
       <c r="I113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15967241138439525</v>
       </c>
       <c r="J113">
@@ -5190,7 +5190,7 @@
         <v>17.6887284119295</v>
       </c>
       <c r="L113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.23298280675096639</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
         <v>17.370605304345201</v>
       </c>
       <c r="C114">
-        <f>POWER(10, B114-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.11199554960255048</v>
       </c>
       <c r="D114">
@@ -5212,7 +5212,7 @@
         <v>16.364851404910599</v>
       </c>
       <c r="F114">
-        <f>POWER(10, E114-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.1052152426855194E-2</v>
       </c>
       <c r="G114">
@@ -5222,7 +5222,7 @@
         <v>17.5497768656343</v>
       </c>
       <c r="I114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.16918907912775349</v>
       </c>
       <c r="J114">
@@ -5232,7 +5232,7 @@
         <v>17.715974860601602</v>
       </c>
       <c r="L114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.24806775800851075</v>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
         <v>17.3969029767592</v>
       </c>
       <c r="C115">
-        <f>POWER(10, B115-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.11898670489457835</v>
       </c>
       <c r="D115">
@@ -5254,7 +5254,7 @@
         <v>16.389194259754099</v>
       </c>
       <c r="F115">
-        <f>POWER(10, E115-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.1689332729937928E-2</v>
       </c>
       <c r="G115">
@@ -5264,7 +5264,7 @@
         <v>17.574955379818199</v>
       </c>
       <c r="I115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.17928784239106191</v>
       </c>
       <c r="J115">
@@ -5274,7 +5274,7 @@
         <v>17.702992432412099</v>
       </c>
       <c r="L115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.24076197287364265</v>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
         <v>17.4236999184597</v>
       </c>
       <c r="C116">
-        <f>POWER(10, B116-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.12655968331855597</v>
       </c>
       <c r="D116">
@@ -5296,7 +5296,7 @@
         <v>16.414871853545598</v>
       </c>
       <c r="F116">
-        <f>POWER(10, E116-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.2401302880843392E-2</v>
       </c>
       <c r="G116">
@@ -5306,7 +5306,7 @@
         <v>17.591124237289499</v>
       </c>
       <c r="I116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18608856988178557</v>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
         <v>17.450538136247498</v>
       </c>
       <c r="C117">
-        <f>POWER(10, B117-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.13462744299695942</v>
       </c>
       <c r="D117">
@@ -5328,7 +5328,7 @@
         <v>16.441890343523902</v>
       </c>
       <c r="F117">
-        <f>POWER(10, E117-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.3197321738226667E-2</v>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
         <v>17.476956820416198</v>
       </c>
       <c r="C118">
-        <f>POWER(10, B118-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.14307122030048897</v>
       </c>
       <c r="D118">
@@ -5350,7 +5350,7 @@
         <v>16.468519024858299</v>
       </c>
       <c r="F118">
-        <f>POWER(10, E118-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.4031835538111742E-2</v>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
         <v>17.5038770713163</v>
       </c>
       <c r="C119">
-        <f>POWER(10, B119-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.15222028555273115</v>
       </c>
       <c r="D119">
@@ -5372,7 +5372,7 @@
         <v>16.496060812062201</v>
       </c>
       <c r="F119">
-        <f>POWER(10, E119-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.495051913111653E-2</v>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
         <v>17.530376506260001</v>
       </c>
       <c r="C120">
-        <f>POWER(10, B120-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.16179755975217205</v>
       </c>
       <c r="D120">
@@ -5394,7 +5394,7 @@
         <v>16.522777225896601</v>
       </c>
       <c r="F120">
-        <f>POWER(10, E120-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.5899105343784057E-2</v>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
         <v>17.557842035059402</v>
       </c>
       <c r="C121">
-        <f>POWER(10, B121-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.17236040109423761</v>
       </c>
       <c r="D121">
@@ -5416,7 +5416,7 @@
         <v>16.550409753975501</v>
       </c>
       <c r="F121">
-        <f>POWER(10, E121-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.6943581460136036E-2</v>
       </c>
     </row>
@@ -5428,7 +5428,7 @@
         <v>17.583959473553001</v>
       </c>
       <c r="C122">
-        <f>POWER(10, B122-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.18304376263978656</v>
       </c>
       <c r="D122">
@@ -5438,7 +5438,7 @@
         <v>16.577214189358799</v>
       </c>
       <c r="F122">
-        <f>POWER(10, E122-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.80222765807036E-2</v>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
         <v>17.611508952889899</v>
       </c>
       <c r="C123">
-        <f>POWER(10, B123-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.19503134413510831</v>
       </c>
       <c r="D123">
@@ -5460,7 +5460,7 @@
         <v>16.604062036220601</v>
       </c>
       <c r="F123">
-        <f>POWER(10, E123-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.9171561947773894E-2</v>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
         <v>17.637706221377599</v>
       </c>
       <c r="C124">
-        <f>POWER(10, B124-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.2071579870655274</v>
       </c>
       <c r="D124">
@@ -5482,7 +5482,7 @@
         <v>16.623937915284699</v>
       </c>
       <c r="F124">
-        <f>POWER(10, E124-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.0069353205106527E-2</v>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
         <v>17.6653399078535</v>
       </c>
       <c r="C125">
-        <f>POWER(10, B125-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.22076761649940962</v>
       </c>
       <c r="D125">
@@ -5504,7 +5504,7 @@
         <v>16.6433986946797</v>
       </c>
       <c r="F125">
-        <f>POWER(10, E125-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.098911638239867E-2</v>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
         <v>17.692083784295299</v>
       </c>
       <c r="C126">
-        <f>POWER(10, B126-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.23478981049083331</v>
       </c>
       <c r="D126">
@@ -5526,7 +5526,7 @@
         <v>16.661564107730499</v>
       </c>
       <c r="F126">
-        <f>POWER(10, E126-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.1885656002367367E-2</v>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>17.719335401342398</v>
       </c>
       <c r="C127">
-        <f>POWER(10, B127-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.24999473499943231</v>
       </c>
       <c r="D127">
@@ -5548,7 +5548,7 @@
         <v>16.6793095083402</v>
       </c>
       <c r="F127">
-        <f>POWER(10, E127-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.2798431507960952E-2</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
         <v>17.7461610225348</v>
       </c>
       <c r="C128">
-        <f>POWER(10, B128-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.2659233563142549</v>
       </c>
       <c r="D128">
@@ -5570,7 +5570,7 @@
         <v>16.6970738086907</v>
       </c>
       <c r="F128">
-        <f>POWER(10, E128-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.3750309292977379E-2</v>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
         <v>17.773964629403601</v>
       </c>
       <c r="C129">
-        <f>POWER(10, B129-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.28350458725022554</v>
       </c>
       <c r="D129">
@@ -5592,7 +5592,7 @@
         <v>16.7152978053659</v>
       </c>
       <c r="F129">
-        <f>POWER(10, E129-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.4768132730329701E-2</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>17.8004035520839</v>
       </c>
       <c r="C130">
-        <f>POWER(10, B130-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.30129991771978143</v>
       </c>
       <c r="D130">
@@ -5614,7 +5614,7 @@
         <v>16.734865535031901</v>
       </c>
       <c r="F130">
-        <f>POWER(10, E130-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.5909617166923485E-2</v>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
         <v>17.828292142852298</v>
       </c>
       <c r="C131">
-        <f>POWER(10, B131-10)/$N$3</f>
+        <f t="shared" ref="C131:C162" si="12">POWER(10, B131-10)/$N$3</f>
         <v>0.32128289453919295</v>
       </c>
       <c r="D131">
@@ -5636,7 +5636,7 @@
         <v>16.761084705575101</v>
       </c>
       <c r="F131">
-        <f>POWER(10, E131-10)/$N$3</f>
+        <f t="shared" ref="F131:F162" si="13">POWER(10, E131-10)/$N$3</f>
         <v>2.7522011156600055E-2</v>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
         <v>17.854811878168199</v>
       </c>
       <c r="C132">
-        <f>POWER(10, B132-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.3415130778623866</v>
       </c>
       <c r="D132">
@@ -5658,7 +5658,7 @@
         <v>16.788673053701402</v>
       </c>
       <c r="F132">
-        <f>POWER(10, E132-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>2.932705912158317E-2</v>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
         <v>17.8827857125961</v>
       </c>
       <c r="C133">
-        <f>POWER(10, B133-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.36423457896525047</v>
       </c>
       <c r="D133">
@@ -5680,7 +5680,7 @@
         <v>16.8163068115946</v>
       </c>
       <c r="F133">
-        <f>POWER(10, E133-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.1253759981027626E-2</v>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
         <v>17.909858784160399</v>
       </c>
       <c r="C134">
-        <f>POWER(10, B134-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.38766290435324507</v>
       </c>
       <c r="D134">
@@ -5702,7 +5702,7 @@
         <v>16.843541884080398</v>
       </c>
       <c r="F134">
-        <f>POWER(10, E134-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.3276477308652588E-2</v>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
         <v>17.937445846199299</v>
       </c>
       <c r="C135">
-        <f>POWER(10, B135-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.41308679017760908</v>
       </c>
       <c r="D135">
@@ -5724,7 +5724,7 @@
         <v>16.869486468038801</v>
       </c>
       <c r="F135">
-        <f>POWER(10, E135-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.5324980357393149E-2</v>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
         <v>17.964601668724899</v>
       </c>
       <c r="C136">
-        <f>POWER(10, B136-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.43974117215563574</v>
       </c>
       <c r="D136">
@@ -5746,7 +5746,7 @@
         <v>16.8972532428965</v>
       </c>
       <c r="F136">
-        <f>POWER(10, E136-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.765725887187199E-2</v>
       </c>
     </row>
@@ -5758,7 +5758,7 @@
         <v>17.992273052777101</v>
       </c>
       <c r="C137">
-        <f>POWER(10, B137-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.46867146651563363</v>
       </c>
       <c r="D137">
@@ -5768,7 +5768,7 @@
         <v>16.917514761469299</v>
       </c>
       <c r="F137">
-        <f>POWER(10, E137-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.945574266997235E-2</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>18.019987059844901</v>
       </c>
       <c r="C138">
-        <f>POWER(10, B138-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.49955409208607204</v>
       </c>
       <c r="D138">
@@ -5790,7 +5790,7 @@
         <v>16.691477043366401</v>
       </c>
       <c r="F138">
-        <f>POWER(10, E138-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>2.3446202110167215E-2</v>
       </c>
     </row>

--- a/util/icecube_acceptance.xlsx
+++ b/util/icecube_acceptance.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wissels/nutau_acceptance/util/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wissels/Library/Caches/com.binarynights.ForkLift2/#25/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="10200" windowWidth="24160" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="5300" windowWidth="34960" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="icecube_acceptance.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -460,12 +460,23 @@
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -531,7 +542,7 @@
         <v>11.979551673969199</v>
       </c>
       <c r="C3">
-        <f>POWER(10, B3-10)/$N$3</f>
+        <f t="shared" ref="C3:C34" si="0">POWER(10, B3-10)/$N$3</f>
         <v>4.5514223201753288E-7</v>
       </c>
       <c r="D3">
@@ -541,7 +552,7 @@
         <v>12.020664990976</v>
       </c>
       <c r="F3">
-        <f>POWER(10, E3-10)/$N$3</f>
+        <f t="shared" ref="F3:F34" si="1">POWER(10, E3-10)/$N$3</f>
         <v>5.0033450203391288E-7</v>
       </c>
       <c r="G3">
@@ -551,7 +562,7 @@
         <v>12.013846700824001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">POWER(10, H3-10)/$N$3</f>
+        <f t="shared" ref="I3:I66" si="2">POWER(10, H3-10)/$N$3</f>
         <v>4.9254074371361153E-7</v>
       </c>
       <c r="J3">
@@ -561,7 +572,7 @@
         <v>12.023877872285</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">POWER(10, K3-10)/$N$3</f>
+        <f t="shared" ref="L3:L66" si="3">POWER(10, K3-10)/$N$3</f>
         <v>5.0404966829199579E-7</v>
       </c>
       <c r="M3">
@@ -579,7 +590,7 @@
         <v>12.3116347673402</v>
       </c>
       <c r="C4">
-        <f>POWER(10, B4-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>9.777554116059838E-7</v>
       </c>
       <c r="D4">
@@ -589,7 +600,7 @@
         <v>12.3339875579512</v>
       </c>
       <c r="F4">
-        <f>POWER(10, E4-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.0293972860971493E-6</v>
       </c>
       <c r="G4">
@@ -599,7 +610,7 @@
         <v>12.104843423721601</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0734978867375655E-7</v>
       </c>
       <c r="J4">
@@ -609,7 +620,7 @@
         <v>12.112287538826299</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1784992716697401E-7</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -624,7 +635,7 @@
         <v>12.195446336726199</v>
       </c>
       <c r="C5">
-        <f>POWER(10, B5-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.4824150990353195E-7</v>
       </c>
       <c r="D5">
@@ -634,7 +645,7 @@
         <v>12.208767664360799</v>
       </c>
       <c r="F5">
-        <f>POWER(10, E5-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.7154831183309275E-7</v>
       </c>
       <c r="G5">
@@ -644,7 +655,7 @@
         <v>12.199177688552099</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5469791390990651E-7</v>
       </c>
       <c r="J5">
@@ -654,7 +665,7 @@
         <v>12.1934824667513</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4486561706870449E-7</v>
       </c>
     </row>
@@ -666,7 +677,7 @@
         <v>12.118307815306601</v>
       </c>
       <c r="C6">
-        <f>POWER(10, B6-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>6.2647432418291061E-7</v>
       </c>
       <c r="D6">
@@ -676,7 +687,7 @@
         <v>12.4340361389494</v>
       </c>
       <c r="F6">
-        <f>POWER(10, E6-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.2960793760695447E-6</v>
       </c>
       <c r="G6">
@@ -686,7 +697,7 @@
         <v>12.2874786219946</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.2485592460533784E-7</v>
       </c>
       <c r="J6">
@@ -696,7 +707,7 @@
         <v>12.277680993867</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.042248847074522E-7</v>
       </c>
     </row>
@@ -708,7 +719,7 @@
         <v>12.037161848442199</v>
       </c>
       <c r="C7">
-        <f>POWER(10, B7-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.1970549579163583E-7</v>
       </c>
       <c r="D7">
@@ -718,7 +729,7 @@
         <v>12.5122413616345</v>
       </c>
       <c r="F7">
-        <f>POWER(10, E7-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.551803841474921E-6</v>
       </c>
       <c r="G7">
@@ -728,7 +739,7 @@
         <v>12.369784378528101</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1178404979833432E-6</v>
       </c>
       <c r="J7">
@@ -738,7 +749,7 @@
         <v>12.3703933908424</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.119409148309624E-6</v>
       </c>
     </row>
@@ -750,7 +761,7 @@
         <v>11.966119912668701</v>
       </c>
       <c r="C8">
-        <f>POWER(10, B8-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.4128114732730155E-7</v>
       </c>
       <c r="D8">
@@ -760,7 +771,7 @@
         <v>12.5950839083325</v>
       </c>
       <c r="F8">
-        <f>POWER(10, E8-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.8779298679201243E-6</v>
       </c>
       <c r="G8">
@@ -770,7 +781,7 @@
         <v>12.451919040955699</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3505619250189747E-6</v>
       </c>
       <c r="J8">
@@ -780,7 +791,7 @@
         <v>12.455969552247799</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3632170625017857E-6</v>
       </c>
     </row>
@@ -792,7 +803,7 @@
         <v>12.436323171848599</v>
       </c>
       <c r="C9">
-        <f>POWER(10, B9-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3029226467563407E-6</v>
       </c>
       <c r="D9">
@@ -802,7 +813,7 @@
         <v>12.683446323462199</v>
       </c>
       <c r="F9">
-        <f>POWER(10, E9-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.3016632549748102E-6</v>
       </c>
       <c r="G9">
@@ -812,7 +823,7 @@
         <v>12.5345990728551</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6337836059043367E-6</v>
       </c>
       <c r="J9">
@@ -822,7 +833,7 @@
         <v>12.5365986066553</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6413230464861584E-6</v>
       </c>
     </row>
@@ -834,7 +845,7 @@
         <v>12.5335254495035</v>
       </c>
       <c r="C10">
-        <f>POWER(10, B10-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6297497027229012E-6</v>
       </c>
       <c r="D10">
@@ -844,7 +855,7 @@
         <v>12.7705763420811</v>
       </c>
       <c r="F10">
-        <f>POWER(10, E10-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.8130134136489863E-6</v>
       </c>
       <c r="G10">
@@ -854,7 +865,7 @@
         <v>12.6260825737084</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0168705972401809E-6</v>
       </c>
       <c r="J10">
@@ -864,7 +875,7 @@
         <v>12.619607193385599</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9870219029967818E-6</v>
       </c>
     </row>
@@ -876,7 +887,7 @@
         <v>12.6363854378368</v>
       </c>
       <c r="C11">
-        <f>POWER(10, B11-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.0652893181024261E-6</v>
       </c>
       <c r="D11">
@@ -886,7 +897,7 @@
         <v>12.856750915327</v>
       </c>
       <c r="F11">
-        <f>POWER(10, E11-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.4304127379320456E-6</v>
       </c>
       <c r="G11">
@@ -896,7 +907,7 @@
         <v>12.7027318824865</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4061757384654503E-6</v>
       </c>
       <c r="J11">
@@ -906,7 +917,7 @@
         <v>12.7018387936014</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4012327312016271E-6</v>
       </c>
     </row>
@@ -918,7 +929,7 @@
         <v>12.744235340094001</v>
       </c>
       <c r="C12">
-        <f>POWER(10, B12-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.6474684974329554E-6</v>
       </c>
       <c r="D12">
@@ -928,7 +939,7 @@
         <v>12.9438198665905</v>
       </c>
       <c r="F12">
-        <f>POWER(10, E12-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>4.1919426031952488E-6</v>
       </c>
       <c r="G12">
@@ -938,7 +949,7 @@
         <v>12.7898134756384</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.940417079037278E-6</v>
       </c>
       <c r="J12">
@@ -948,7 +959,7 @@
         <v>12.781368887970499</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8837947639929699E-6</v>
       </c>
     </row>
@@ -960,7 +971,7 @@
         <v>12.830710967669599</v>
       </c>
       <c r="C13">
-        <f>POWER(10, B13-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.2307728801741338E-6</v>
       </c>
       <c r="D13">
@@ -970,7 +981,7 @@
         <v>13.028958686460401</v>
       </c>
       <c r="F13">
-        <f>POWER(10, E13-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>5.0998117761230631E-6</v>
       </c>
       <c r="G13">
@@ -980,7 +991,7 @@
         <v>12.8818301312457</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6343403198349643E-6</v>
       </c>
       <c r="J13">
@@ -990,7 +1001,7 @@
         <v>12.8681551788903</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5216860731273602E-6</v>
       </c>
     </row>
@@ -1002,7 +1013,7 @@
         <v>12.915730202065101</v>
       </c>
       <c r="C14">
-        <f>POWER(10, B14-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.9293947725883628E-6</v>
       </c>
       <c r="D14">
@@ -1012,7 +1023,7 @@
         <v>13.1148897257097</v>
       </c>
       <c r="F14">
-        <f>POWER(10, E14-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>6.215630465696085E-6</v>
       </c>
       <c r="G14">
@@ -1022,7 +1033,7 @@
         <v>12.964462600757299</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.396003826143235E-6</v>
       </c>
       <c r="J14">
@@ -1032,7 +1043,7 @@
         <v>12.955396540196601</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3051868114834216E-6</v>
       </c>
     </row>
@@ -1044,7 +1055,7 @@
         <v>13.0041415683284</v>
       </c>
       <c r="C15">
-        <f>POWER(10, B15-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.8165606060603615E-6</v>
       </c>
       <c r="D15">
@@ -1054,7 +1065,7 @@
         <v>13.206864925030199</v>
       </c>
       <c r="F15">
-        <f>POWER(10, E15-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.6817538370536299E-6</v>
       </c>
       <c r="G15">
@@ -1064,7 +1075,7 @@
         <v>13.0478110982649</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3260661887594399E-6</v>
       </c>
       <c r="J15">
@@ -1074,7 +1085,7 @@
         <v>13.0390160925283</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2192915051122168E-6</v>
       </c>
     </row>
@@ -1086,7 +1097,7 @@
         <v>13.0909428598091</v>
       </c>
       <c r="C16">
-        <f>POWER(10, B16-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.8821801438855626E-6</v>
       </c>
       <c r="D16">
@@ -1096,7 +1107,7 @@
         <v>13.299485149773499</v>
       </c>
       <c r="F16">
-        <f>POWER(10, E16-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>9.507812547766368E-6</v>
       </c>
       <c r="G16">
@@ -1106,7 +1117,7 @@
         <v>13.1322396128592</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4689690579498688E-6</v>
       </c>
       <c r="J16">
@@ -1116,7 +1127,7 @@
         <v>13.119049040793501</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2754446264764857E-6</v>
       </c>
     </row>
@@ -1128,7 +1139,7 @@
         <v>13.179785664592799</v>
       </c>
       <c r="C17">
-        <f>POWER(10, B17-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.2174058217717719E-6</v>
       </c>
       <c r="D17">
@@ -1138,7 +1149,7 @@
         <v>13.3867086173784</v>
       </c>
       <c r="F17">
-        <f>POWER(10, E17-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.1622621057981298E-5</v>
       </c>
       <c r="G17">
@@ -1148,7 +1159,7 @@
         <v>13.216392911383601</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8521461130833756E-6</v>
       </c>
       <c r="J17">
@@ -1158,7 +1169,7 @@
         <v>13.1972862360757</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5141817789278837E-6</v>
       </c>
     </row>
@@ -1170,7 +1181,7 @@
         <v>13.2691914279293</v>
       </c>
       <c r="C18">
-        <f>POWER(10, B18-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>8.8672078570124654E-6</v>
       </c>
       <c r="D18">
@@ -1180,7 +1191,7 @@
         <v>13.469132668625999</v>
       </c>
       <c r="F18">
-        <f>POWER(10, E18-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.4051676072272072E-5</v>
       </c>
       <c r="G18">
@@ -1190,7 +1201,7 @@
         <v>13.301085476465801</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5429124056088258E-6</v>
       </c>
       <c r="J18">
@@ -1200,7 +1211,7 @@
         <v>13.285638974969601</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.2094657261391616E-6</v>
       </c>
     </row>
@@ -1212,7 +1223,7 @@
         <v>13.3580965535137</v>
       </c>
       <c r="C19">
-        <f>POWER(10, B19-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.0881581383602971E-5</v>
       </c>
       <c r="D19">
@@ -1222,7 +1233,7 @@
         <v>13.554965265239501</v>
       </c>
       <c r="F19">
-        <f>POWER(10, E19-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.7122245757253025E-5</v>
       </c>
       <c r="G19">
@@ -1232,7 +1243,7 @@
         <v>13.386320763804299</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1612245925461964E-5</v>
       </c>
       <c r="J19">
@@ -1242,7 +1253,7 @@
         <v>13.3697622487087</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1177835389863527E-5</v>
       </c>
     </row>
@@ -1254,7 +1265,7 @@
         <v>13.4475973537778</v>
       </c>
       <c r="C20">
-        <f>POWER(10, B20-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3371890598295518E-5</v>
       </c>
       <c r="D20">
@@ -1264,7 +1275,7 @@
         <v>13.6408502245799</v>
       </c>
       <c r="F20">
-        <f>POWER(10, E20-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.0866311460010096E-5</v>
       </c>
       <c r="G20">
@@ -1274,7 +1285,7 @@
         <v>13.470985768511699</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4111761551172588E-5</v>
       </c>
       <c r="J20">
@@ -1284,7 +1295,7 @@
         <v>13.4544181822016</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3583561181457722E-5</v>
       </c>
     </row>
@@ -1296,7 +1307,7 @@
         <v>13.537697819811401</v>
       </c>
       <c r="C21">
-        <f>POWER(10, B21-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6454825490517985E-5</v>
       </c>
       <c r="D21">
@@ -1306,7 +1317,7 @@
         <v>13.729020023658901</v>
       </c>
       <c r="F21">
-        <f>POWER(10, E21-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.5563215704251914E-5</v>
       </c>
       <c r="G21">
@@ -1316,7 +1327,7 @@
         <v>13.5539334823495</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7081615558449263E-5</v>
       </c>
       <c r="J21">
@@ -1326,7 +1337,7 @@
         <v>13.548645066438899</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6874873559787811E-5</v>
       </c>
     </row>
@@ -1338,7 +1349,7 @@
         <v>13.627272533581101</v>
       </c>
       <c r="C22">
-        <f>POWER(10, B22-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.0224043678917554E-5</v>
       </c>
       <c r="D22">
@@ -1348,7 +1359,7 @@
         <v>13.830055250997599</v>
       </c>
       <c r="F22">
-        <f>POWER(10, E22-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.2258985995799319E-5</v>
       </c>
       <c r="G22">
@@ -1358,7 +1369,7 @@
         <v>13.6364119880323</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0654155815333156E-5</v>
       </c>
       <c r="J22">
@@ -1368,7 +1379,7 @@
         <v>13.631548087440301</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0424129169137591E-5</v>
       </c>
     </row>
@@ -1380,7 +1391,7 @@
         <v>13.7129516753619</v>
       </c>
       <c r="C23">
-        <f>POWER(10, B23-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.4634691974946078E-5</v>
       </c>
       <c r="D23">
@@ -1390,7 +1401,7 @@
         <v>13.9191268854527</v>
       </c>
       <c r="F23">
-        <f>POWER(10, E23-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.9602476637812306E-5</v>
       </c>
       <c r="G23">
@@ -1400,7 +1411,7 @@
         <v>13.7302609210961</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5636361211740782E-5</v>
       </c>
       <c r="J23">
@@ -1410,7 +1421,7 @@
         <v>13.718545357983899</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4954037246249327E-5</v>
       </c>
     </row>
@@ -1422,7 +1433,7 @@
         <v>13.7985361673336</v>
       </c>
       <c r="C24">
-        <f>POWER(10, B24-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.0000716591770054E-5</v>
       </c>
       <c r="D24">
@@ -1432,7 +1443,7 @@
         <v>14.0079594992993</v>
       </c>
       <c r="F24">
-        <f>POWER(10, E24-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>4.8590901919467273E-5</v>
       </c>
       <c r="G24">
@@ -1442,7 +1453,7 @@
         <v>13.8169428417792</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1299565071153124E-5</v>
       </c>
       <c r="J24">
@@ -1452,7 +1463,7 @@
         <v>13.804095628190201</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.038722833150881E-5</v>
       </c>
     </row>
@@ -1464,7 +1475,7 @@
         <v>13.889221708320701</v>
       </c>
       <c r="C25">
-        <f>POWER(10, B25-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>3.6967252109001644E-5</v>
       </c>
       <c r="D25">
@@ -1474,7 +1485,7 @@
         <v>14.0944968844692</v>
       </c>
       <c r="F25">
-        <f>POWER(10, E25-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>5.9305141364087674E-5</v>
       </c>
       <c r="G25">
@@ -1484,7 +1495,7 @@
         <v>13.9041720030003</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.826198208191486E-5</v>
       </c>
       <c r="J25">
@@ -1494,7 +1505,7 @@
         <v>13.888158870177501</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6876893678381349E-5</v>
       </c>
     </row>
@@ -1506,7 +1517,7 @@
         <v>13.980052660725599</v>
       </c>
       <c r="C26">
-        <f>POWER(10, B26-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>4.5566757094917849E-5</v>
       </c>
       <c r="D26">
@@ -1516,7 +1527,7 @@
         <v>14.181974002371399</v>
       </c>
       <c r="F26">
-        <f>POWER(10, E26-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>7.2538649097431921E-5</v>
       </c>
       <c r="G26">
@@ -1526,7 +1537,7 @@
         <v>13.991951859599901</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6832497713620888E-5</v>
       </c>
       <c r="J26">
@@ -1536,7 +1547,7 @@
         <v>13.975983018544101</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5141759175100172E-5</v>
       </c>
     </row>
@@ -1548,7 +1559,7 @@
         <v>14.0753898023933</v>
       </c>
       <c r="C27">
-        <f>POWER(10, B27-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>5.6752534763427918E-5</v>
       </c>
       <c r="D27">
@@ -1558,7 +1569,7 @@
         <v>14.2655606790701</v>
       </c>
       <c r="F27">
-        <f>POWER(10, E27-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>8.7933860490093852E-5</v>
       </c>
       <c r="G27">
@@ -1568,7 +1579,7 @@
         <v>14.079947602579599</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7351273183520524E-5</v>
       </c>
       <c r="J27">
@@ -1578,7 +1589,7 @@
         <v>14.0639545790157</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5277709601091373E-5</v>
       </c>
     </row>
@@ -1590,7 +1601,7 @@
         <v>14.1693581360419</v>
       </c>
       <c r="C28">
-        <f>POWER(10, B28-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>7.0461777880322047E-5</v>
       </c>
       <c r="D28">
@@ -1600,7 +1611,7 @@
         <v>14.3373535873267</v>
       </c>
       <c r="F28">
-        <f>POWER(10, E28-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.0374066995172044E-4</v>
       </c>
       <c r="G28">
@@ -1610,7 +1621,7 @@
         <v>14.164464294762301</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9672237143221868E-5</v>
       </c>
       <c r="J28">
@@ -1620,7 +1631,7 @@
         <v>14.153151652153401</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7880825187836594E-5</v>
       </c>
     </row>
@@ -1632,7 +1643,7 @@
         <v>14.2699682918619</v>
       </c>
       <c r="C29">
-        <f>POWER(10, B29-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>8.8830836719025718E-5</v>
       </c>
       <c r="D29">
@@ -1642,7 +1653,7 @@
         <v>14.4068481960689</v>
       </c>
       <c r="F29">
-        <f>POWER(10, E29-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.2174290401552009E-4</v>
       </c>
       <c r="G29">
@@ -1652,7 +1663,7 @@
         <v>14.230118589989299</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1042727903695246E-5</v>
       </c>
       <c r="J29">
@@ -1662,7 +1673,7 @@
         <v>14.2341347099907</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1795643040075301E-5</v>
       </c>
     </row>
@@ -1674,7 +1685,7 @@
         <v>14.3593674882838</v>
       </c>
       <c r="C30">
-        <f>POWER(10, B30-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.0913472269729516E-4</v>
       </c>
       <c r="D30">
@@ -1684,7 +1695,7 @@
         <v>14.4774431722184</v>
       </c>
       <c r="F30">
-        <f>POWER(10, E30-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.4323153070066073E-4</v>
       </c>
       <c r="G30">
@@ -1694,7 +1705,7 @@
         <v>14.295700219691501</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4253108149795441E-5</v>
       </c>
       <c r="J30">
@@ -1704,7 +1715,7 @@
         <v>14.3046377795037</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6212885681270382E-5</v>
       </c>
     </row>
@@ -1716,7 +1727,7 @@
         <v>14.449745894741101</v>
       </c>
       <c r="C31">
-        <f>POWER(10, B31-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.3438207901154002E-4</v>
       </c>
       <c r="D31">
@@ -1726,7 +1737,7 @@
         <v>14.547937563950001</v>
       </c>
       <c r="F31">
-        <f>POWER(10, E31-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>1.6847405341825276E-4</v>
       </c>
       <c r="G31">
@@ -1736,7 +1747,7 @@
         <v>14.361962811990701</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0978885934334265E-4</v>
       </c>
       <c r="J31">
@@ -1746,7 +1757,7 @@
         <v>14.3751109810988</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1316351848283813E-4</v>
       </c>
     </row>
@@ -1758,7 +1769,7 @@
         <v>14.543537265678101</v>
       </c>
       <c r="C32">
-        <f>POWER(10, B32-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.6677568252572821E-4</v>
       </c>
       <c r="D32">
@@ -1768,7 +1779,7 @@
         <v>14.6588509468884</v>
       </c>
       <c r="F32">
-        <f>POWER(10, E32-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.1749356294912167E-4</v>
       </c>
       <c r="G32">
@@ -1778,7 +1789,7 @@
         <v>14.4285325407764</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.279758438130177E-4</v>
       </c>
       <c r="J32">
@@ -1788,7 +1799,7 @@
         <v>14.4463123199512</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3332382993118492E-4</v>
       </c>
     </row>
@@ -1800,7 +1811,7 @@
         <v>14.6144166446126</v>
       </c>
       <c r="C33">
-        <f>POWER(10, B33-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>1.963415004659225E-4</v>
       </c>
       <c r="D33">
@@ -1810,7 +1821,7 @@
         <v>14.783185633839301</v>
       </c>
       <c r="F33">
-        <f>POWER(10, E33-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>2.8958835560872917E-4</v>
       </c>
       <c r="G33">
@@ -1820,7 +1831,7 @@
         <v>14.495410829669799</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4928160325353274E-4</v>
       </c>
       <c r="J33">
@@ -1830,7 +1841,7 @@
         <v>14.517866326039499</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5720334653301351E-4</v>
       </c>
     </row>
@@ -1842,7 +1853,7 @@
         <v>14.6771242067115</v>
       </c>
       <c r="C34">
-        <f>POWER(10, B34-10)/$N$3</f>
+        <f t="shared" si="0"/>
         <v>2.2684001519324647E-4</v>
       </c>
       <c r="D34">
@@ -1852,7 +1863,7 @@
         <v>14.9180955979009</v>
       </c>
       <c r="F34">
-        <f>POWER(10, E34-10)/$N$3</f>
+        <f t="shared" si="1"/>
         <v>3.9508547081907003E-4</v>
       </c>
       <c r="G34">
@@ -1862,7 +1873,7 @@
         <v>14.562215098334301</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7410472572152997E-4</v>
       </c>
       <c r="J34">
@@ -1872,7 +1883,7 @@
         <v>14.5897747461592</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8551123094169336E-4</v>
       </c>
     </row>
@@ -1884,7 +1895,7 @@
         <v>14.7393234623399</v>
       </c>
       <c r="C35">
-        <f>POWER(10, B35-10)/$N$3</f>
+        <f t="shared" ref="C35:C66" si="4">POWER(10, B35-10)/$N$3</f>
         <v>2.6176942759085267E-4</v>
       </c>
       <c r="D35">
@@ -1894,7 +1905,7 @@
         <v>15.0572400734886</v>
       </c>
       <c r="F35">
-        <f>POWER(10, E35-10)/$N$3</f>
+        <f t="shared" ref="F35:F66" si="5">POWER(10, E35-10)/$N$3</f>
         <v>5.4429649098266001E-4</v>
       </c>
       <c r="G35">
@@ -1904,7 +1915,7 @@
         <v>14.629713024788</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0338011369399996E-4</v>
       </c>
       <c r="J35">
@@ -1914,7 +1925,7 @@
         <v>14.661266080433901</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1870642490360497E-4</v>
       </c>
     </row>
@@ -1926,7 +1937,7 @@
         <v>14.802566974810301</v>
       </c>
       <c r="C36">
-        <f>POWER(10, B36-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.0280457728310413E-4</v>
       </c>
       <c r="D36">
@@ -1936,7 +1947,7 @@
         <v>15.1954783459481</v>
       </c>
       <c r="F36">
-        <f>POWER(10, E36-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>7.4829666029612016E-4</v>
       </c>
       <c r="G36">
@@ -1946,7 +1957,7 @@
         <v>14.6975238136769</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3774931518579195E-4</v>
       </c>
       <c r="J36">
@@ -1956,7 +1967,7 @@
         <v>14.733496246346</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5828055284620377E-4</v>
       </c>
     </row>
@@ -1968,7 +1979,7 @@
         <v>14.868117870608501</v>
       </c>
       <c r="C37">
-        <f>POWER(10, B37-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.5213835539414602E-4</v>
       </c>
       <c r="D37">
@@ -1978,7 +1989,7 @@
         <v>15.3349857633425</v>
       </c>
       <c r="F37">
-        <f>POWER(10, E37-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.0317660284054682E-3</v>
       </c>
       <c r="G37">
@@ -1988,7 +1999,7 @@
         <v>14.7656489151624</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7812778439112364E-4</v>
       </c>
       <c r="J37">
@@ -1998,7 +2009,7 @@
         <v>14.7877431236732</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9264329944102421E-4</v>
       </c>
     </row>
@@ -2010,7 +2021,7 @@
         <v>15.0081114038768</v>
       </c>
       <c r="C38">
-        <f>POWER(10, B38-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>4.8607900688169556E-4</v>
       </c>
       <c r="D38">
@@ -2020,7 +2031,7 @@
         <v>15.483638635761899</v>
       </c>
       <c r="F38">
-        <f>POWER(10, E38-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.4528945569562887E-3</v>
       </c>
       <c r="G38">
@@ -2030,7 +2041,7 @@
         <v>14.834480966111901</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2589404675998913E-4</v>
       </c>
       <c r="J38">
@@ -2040,7 +2051,7 @@
         <v>14.831234900160901</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2346728337892549E-4</v>
       </c>
     </row>
@@ -2052,7 +2063,7 @@
         <v>15.157055652880301</v>
       </c>
       <c r="C39">
-        <f>POWER(10, B39-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>6.8493776747319962E-4</v>
       </c>
       <c r="D39">
@@ -2062,7 +2073,7 @@
         <v>15.6280580600794</v>
       </c>
       <c r="F39">
-        <f>POWER(10, E39-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.0260656850044872E-3</v>
       </c>
       <c r="G39">
@@ -2072,7 +2083,7 @@
         <v>14.9032408833683</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8180036949831092E-4</v>
       </c>
       <c r="J39">
@@ -2082,7 +2093,7 @@
         <v>14.8752468439405</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5796643362891612E-4</v>
       </c>
     </row>
@@ -2094,7 +2105,7 @@
         <v>15.300478548628501</v>
       </c>
       <c r="C40">
-        <f>POWER(10, B40-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>9.5295854713663066E-4</v>
       </c>
       <c r="D40">
@@ -2104,7 +2115,7 @@
         <v>15.770774470942101</v>
       </c>
       <c r="F40">
-        <f>POWER(10, E40-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.8142970272283341E-3</v>
       </c>
       <c r="G40">
@@ -2114,7 +2125,7 @@
         <v>14.971924697828101</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4721891004391852E-4</v>
       </c>
       <c r="J40">
@@ -2124,7 +2135,7 @@
         <v>14.918995974928601</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9590540958461058E-4</v>
       </c>
     </row>
@@ -2136,7 +2147,7 @@
         <v>15.439455190953799</v>
       </c>
       <c r="C41">
-        <f>POWER(10, B41-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3123529503590943E-3</v>
       </c>
       <c r="D41">
@@ -2146,7 +2157,7 @@
         <v>15.901584187607201</v>
       </c>
       <c r="F41">
-        <f>POWER(10, E41-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8034669654698557E-3</v>
       </c>
       <c r="G41">
@@ -2156,7 +2167,7 @@
         <v>15.041321686219</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2470734934121916E-4</v>
       </c>
       <c r="J41">
@@ -2166,7 +2177,7 @@
         <v>14.963268351201799</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3839320311694354E-4</v>
       </c>
     </row>
@@ -2178,7 +2189,7 @@
         <v>15.592448258200999</v>
       </c>
       <c r="C42">
-        <f>POWER(10, B42-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.8665675834324362E-3</v>
       </c>
       <c r="D42">
@@ -2188,7 +2199,7 @@
         <v>16.422895846885002</v>
       </c>
       <c r="F42">
-        <f>POWER(10, E42-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.2632558203024141E-2</v>
       </c>
       <c r="G42">
@@ -2198,7 +2209,7 @@
         <v>15.1038694372879</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0598921965031066E-4</v>
       </c>
       <c r="J42">
@@ -2208,7 +2219,7 @@
         <v>15.007672106510499</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8558757704246042E-4</v>
       </c>
     </row>
@@ -2220,7 +2231,7 @@
         <v>15.745553223326899</v>
       </c>
       <c r="C43">
-        <f>POWER(10, B43-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.6555145437939898E-3</v>
       </c>
       <c r="D43">
@@ -2230,7 +2241,7 @@
         <v>16.318440571332498</v>
       </c>
       <c r="F43">
-        <f>POWER(10, E43-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>9.9319844818487896E-3</v>
       </c>
       <c r="G43">
@@ -2240,7 +2251,7 @@
         <v>15.147092629628199</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6940367242704899E-4</v>
       </c>
       <c r="J43">
@@ -2250,7 +2261,7 @@
         <v>15.0526045625497</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3851775118703919E-4</v>
       </c>
     </row>
@@ -2262,7 +2273,7 @@
         <v>15.8924225799748</v>
       </c>
       <c r="C44">
-        <f>POWER(10, B44-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.7240717604682836E-3</v>
       </c>
       <c r="D44">
@@ -2272,7 +2283,7 @@
         <v>16.214649667319001</v>
       </c>
       <c r="F44">
-        <f>POWER(10, E44-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>7.8206910235430419E-3</v>
       </c>
       <c r="G44">
@@ -2282,7 +2293,7 @@
         <v>15.1892378472988</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3762106071058222E-4</v>
       </c>
       <c r="J44">
@@ -2292,7 +2303,7 @@
         <v>15.0972734245968</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.968550675874121E-4</v>
       </c>
     </row>
@@ -2304,7 +2315,7 @@
         <v>16.028037371805599</v>
       </c>
       <c r="C45">
-        <f>POWER(10, B45-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>5.0890044753188418E-3</v>
       </c>
       <c r="D45">
@@ -2314,7 +2325,7 @@
         <v>16.116193053934399</v>
       </c>
       <c r="F45">
-        <f>POWER(10, E45-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>6.2343117402355232E-3</v>
       </c>
       <c r="G45">
@@ -2324,7 +2335,7 @@
         <v>15.2315003296759</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1300981884360973E-4</v>
       </c>
       <c r="J45">
@@ -2334,7 +2345,7 @@
         <v>15.1420748422576</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6171396962183245E-4</v>
       </c>
     </row>
@@ -2346,7 +2357,7 @@
         <v>16.193293613335701</v>
       </c>
       <c r="C46">
-        <f>POWER(10, B46-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.4454178188106367E-3</v>
       </c>
       <c r="D46">
@@ -2356,7 +2367,7 @@
         <v>16.013688513809299</v>
       </c>
       <c r="F46">
-        <f>POWER(10, E46-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.9236137380389289E-3</v>
       </c>
       <c r="G46">
@@ -2366,7 +2377,7 @@
         <v>15.2730748800759</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9468538091711988E-4</v>
       </c>
       <c r="J46">
@@ -2376,7 +2387,7 @@
         <v>15.187009208893301</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3384555818926196E-4</v>
       </c>
     </row>
@@ -2388,7 +2399,7 @@
         <v>16.350592407533501</v>
       </c>
       <c r="C47">
-        <f>POWER(10, B47-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0695174345101881E-2</v>
       </c>
       <c r="D47">
@@ -2398,7 +2409,7 @@
         <v>15.819806217283199</v>
       </c>
       <c r="F47">
-        <f>POWER(10, E47-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.1506610082628365E-3</v>
       </c>
       <c r="G47">
@@ -2408,7 +2419,7 @@
         <v>15.315570630320501</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8665674987890618E-4</v>
       </c>
       <c r="J47">
@@ -2418,7 +2429,7 @@
         <v>15.232076919032099</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1408992496404616E-4</v>
       </c>
     </row>
@@ -2430,7 +2441,7 @@
         <v>16.489680931441001</v>
       </c>
       <c r="C48">
-        <f>POWER(10, B48-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.4732498055012927E-2</v>
       </c>
       <c r="D48">
@@ -2440,7 +2451,7 @@
         <v>15.719186799549499</v>
       </c>
       <c r="F48">
-        <f>POWER(10, E48-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4990920936558162E-3</v>
       </c>
       <c r="G48">
@@ -2450,7 +2461,7 @@
         <v>15.357779630729301</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0873643536775141E-3</v>
       </c>
       <c r="J48">
@@ -2460,7 +2471,7 @@
         <v>15.277278368373301</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0338698484964265E-4</v>
       </c>
     </row>
@@ -2472,7 +2483,7 @@
         <v>16.6241547750191</v>
       </c>
       <c r="C49">
-        <f>POWER(10, B49-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.0079377098077767E-2</v>
       </c>
       <c r="D49">
@@ -2482,7 +2493,7 @@
         <v>15.0388735727584</v>
       </c>
       <c r="F49">
-        <f>POWER(10, E49-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>5.2175790030750777E-4</v>
       </c>
       <c r="G49">
@@ -2492,7 +2503,7 @@
         <v>15.4005110631765</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.199793553574433E-3</v>
       </c>
       <c r="J49">
@@ -2502,7 +2513,7 @@
         <v>15.322613953790199</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0027886615483082E-3</v>
       </c>
     </row>
@@ -2514,7 +2525,7 @@
         <v>15.886091580888699</v>
       </c>
       <c r="C50">
-        <f>POWER(10, B50-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>3.6701772754531552E-3</v>
       </c>
       <c r="D50">
@@ -2524,7 +2535,7 @@
         <v>15.6237386752176</v>
       </c>
       <c r="F50">
-        <f>POWER(10, E50-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.006014815561051E-3</v>
       </c>
       <c r="G50">
@@ -2534,7 +2545,7 @@
         <v>15.442954155468099</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3229688434311286E-3</v>
       </c>
       <c r="J50">
@@ -2544,7 +2555,7 @@
         <v>15.3676788224258</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1124340753426673E-3</v>
       </c>
     </row>
@@ -2556,7 +2567,7 @@
         <v>15.7476481575384</v>
       </c>
       <c r="C51">
-        <f>POWER(10, B51-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.6683550649369797E-3</v>
       </c>
       <c r="D51">
@@ -2566,7 +2577,7 @@
         <v>15.524366314600099</v>
       </c>
       <c r="F51">
-        <f>POWER(10, E51-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.5957386921863226E-3</v>
       </c>
       <c r="G51">
@@ -2576,7 +2587,7 @@
         <v>15.4859225772156</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4605554116272899E-3</v>
       </c>
       <c r="J51">
@@ -2586,7 +2597,7 @@
         <v>15.412876229960601</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2344448465027751E-3</v>
       </c>
     </row>
@@ -2598,7 +2609,7 @@
         <v>16.046201856716301</v>
       </c>
       <c r="C52">
-        <f>POWER(10, B52-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>5.3063674186165193E-3</v>
       </c>
       <c r="D52">
@@ -2608,7 +2619,7 @@
         <v>14.911994971840301</v>
       </c>
       <c r="F52">
-        <f>POWER(10, E52-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8957442006258319E-4</v>
       </c>
       <c r="G52">
@@ -2618,7 +2629,7 @@
         <v>15.528601059667899</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.611374626172732E-3</v>
       </c>
       <c r="J52">
@@ -2628,7 +2639,7 @@
         <v>15.4586142043559</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3715437496906581E-3</v>
       </c>
     </row>
@@ -2640,7 +2651,7 @@
         <v>15.6491898570051</v>
       </c>
       <c r="C53">
-        <f>POWER(10, B53-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>2.1270873166332254E-3</v>
       </c>
       <c r="D53">
@@ -2650,7 +2661,7 @@
         <v>15.4301011553991</v>
       </c>
       <c r="F53">
-        <f>POWER(10, E53-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.2843891151728931E-3</v>
       </c>
       <c r="G53">
@@ -2660,7 +2671,7 @@
         <v>15.5718077850628</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.779931324111343E-3</v>
       </c>
       <c r="J53">
@@ -2670,7 +2681,7 @@
         <v>15.5044879069742</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5243453418392751E-3</v>
       </c>
     </row>
@@ -2682,7 +2693,7 @@
         <v>15.5513471428023</v>
       </c>
       <c r="C54">
-        <f>POWER(10, B54-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.6980192280036249E-3</v>
       </c>
       <c r="D54">
@@ -2692,7 +2703,7 @@
         <v>14.7801052199758</v>
       </c>
       <c r="F54">
-        <f>POWER(10, E54-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.875415973273757E-4</v>
       </c>
       <c r="G54">
@@ -2702,7 +2713,7 @@
         <v>15.614722963153801</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9648003378760904E-3</v>
       </c>
       <c r="J54">
@@ -2712,7 +2723,7 @@
         <v>15.5509078124963</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6963023880606641E-3</v>
       </c>
     </row>
@@ -2724,7 +2735,7 @@
         <v>16.148935841278501</v>
       </c>
       <c r="C55">
-        <f>POWER(10, B55-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>6.7225076060410749E-3</v>
       </c>
       <c r="D55">
@@ -2734,7 +2745,7 @@
         <v>15.336408381573399</v>
       </c>
       <c r="F55">
-        <f>POWER(10, E55-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>1.0351513254822707E-3</v>
       </c>
       <c r="G55">
@@ -2744,7 +2755,7 @@
         <v>15.658169313832399</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1715247060779723E-3</v>
       </c>
       <c r="J55">
@@ -2754,7 +2765,7 @@
         <v>15.5970553979787</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8864741519414967E-3</v>
       </c>
     </row>
@@ -2766,7 +2777,7 @@
         <v>15.454676523047301</v>
       </c>
       <c r="C56">
-        <f>POWER(10, B56-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3591643790747197E-3</v>
       </c>
       <c r="D56">
@@ -2776,7 +2787,7 @@
         <v>14.702644813377001</v>
       </c>
       <c r="F56">
-        <f>POWER(10, E56-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4056933870013713E-4</v>
       </c>
       <c r="G56">
@@ -2786,7 +2797,7 @@
         <v>15.7009084619937</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3960943935805975E-3</v>
       </c>
       <c r="J56">
@@ -2796,7 +2807,7 @@
         <v>15.643339927212001</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0986276388295783E-3</v>
       </c>
     </row>
@@ -2808,7 +2819,7 @@
         <v>15.3586068292853</v>
       </c>
       <c r="C57">
-        <f>POWER(10, B57-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0894374248522046E-3</v>
       </c>
       <c r="D57">
@@ -2818,7 +2829,7 @@
         <v>15.2388635406136</v>
       </c>
       <c r="F57">
-        <f>POWER(10, E57-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>8.2691144254515303E-4</v>
       </c>
       <c r="G57">
@@ -2828,7 +2839,7 @@
         <v>15.7450098052089</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6521938654771753E-3</v>
       </c>
       <c r="J57">
@@ -2838,7 +2849,7 @@
         <v>15.689348073143799</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3331546917117162E-3</v>
       </c>
     </row>
@@ -2850,7 +2861,7 @@
         <v>15.2625809140601</v>
       </c>
       <c r="C58">
-        <f>POWER(10, B58-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>8.7332597026559627E-4</v>
       </c>
       <c r="D58">
@@ -2860,7 +2871,7 @@
         <v>14.7112246582181</v>
       </c>
       <c r="F58">
-        <f>POWER(10, E58-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.4536924082936459E-4</v>
       </c>
       <c r="G58">
@@ -2870,7 +2881,7 @@
         <v>15.7879859854621</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9280699424703324E-3</v>
       </c>
       <c r="J58">
@@ -2880,7 +2891,7 @@
         <v>15.7359064824726</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5971793637258305E-3</v>
       </c>
     </row>
@@ -2892,7 +2903,7 @@
         <v>15.171475566623799</v>
       </c>
       <c r="C59">
-        <f>POWER(10, B59-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.080615763510003E-4</v>
       </c>
       <c r="D59">
@@ -2902,7 +2913,7 @@
         <v>14.765681510414201</v>
       </c>
       <c r="F59">
-        <f>POWER(10, E59-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.7814865959390595E-4</v>
       </c>
       <c r="G59">
@@ -2912,7 +2923,7 @@
         <v>15.8323319155277</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2428538524660608E-3</v>
       </c>
       <c r="J59">
@@ -2922,7 +2933,7 @@
         <v>15.784684127437901</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9058927968932369E-3</v>
       </c>
     </row>
@@ -2934,7 +2945,7 @@
         <v>15.2036623114639</v>
       </c>
       <c r="C60">
-        <f>POWER(10, B60-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>7.6253147095987699E-4</v>
       </c>
       <c r="D60">
@@ -2944,7 +2955,7 @@
         <v>14.753614960837099</v>
       </c>
       <c r="F60">
-        <f>POWER(10, E60-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.7052687876677744E-4</v>
       </c>
       <c r="G60">
@@ -2954,7 +2965,7 @@
         <v>15.8734533902955</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5649123081728856E-3</v>
       </c>
       <c r="J60">
@@ -2964,7 +2975,7 @@
         <v>15.8357007705992</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2681067321516954E-3</v>
       </c>
     </row>
@@ -2976,7 +2987,7 @@
         <v>15.245160877682</v>
       </c>
       <c r="C61">
-        <f>POWER(10, B61-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>8.3898913880173025E-4</v>
       </c>
       <c r="D61">
@@ -2986,7 +2997,7 @@
         <v>14.7871324668579</v>
       </c>
       <c r="F61">
-        <f>POWER(10, E61-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>2.9223210598995999E-4</v>
       </c>
       <c r="G61">
@@ -2996,7 +3007,7 @@
         <v>15.909226894981099</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8709927325660874E-3</v>
       </c>
       <c r="J61">
@@ -3006,7 +3017,7 @@
         <v>15.885625540152599</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6662409263243227E-3</v>
       </c>
     </row>
@@ -3018,7 +3029,7 @@
         <v>15.287982098751201</v>
       </c>
       <c r="C62">
-        <f>POWER(10, B62-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>9.2592873002832633E-4</v>
       </c>
       <c r="D62">
@@ -3028,7 +3039,7 @@
         <v>14.8224119696843</v>
       </c>
       <c r="F62">
-        <f>POWER(10, E62-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.1696216940496586E-4</v>
       </c>
       <c r="G62">
@@ -3038,7 +3049,7 @@
         <v>15.943819656219301</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1919405726288574E-3</v>
       </c>
       <c r="J62">
@@ -3048,7 +3059,7 @@
         <v>15.9348672793249</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1064140796118727E-3</v>
       </c>
     </row>
@@ -3060,7 +3071,7 @@
         <v>15.33011506645</v>
       </c>
       <c r="C63">
-        <f>POWER(10, B63-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.0202592183400938E-3</v>
       </c>
       <c r="D63">
@@ -3070,7 +3081,7 @@
         <v>14.862477980242801</v>
       </c>
       <c r="F63">
-        <f>POWER(10, E63-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.4759493640716975E-4</v>
       </c>
       <c r="G63">
@@ -3080,7 +3091,7 @@
         <v>15.9780662883558</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5358820145446413E-3</v>
       </c>
       <c r="J63">
@@ -3090,7 +3101,7 @@
         <v>15.985947764739601</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6189496243889154E-3</v>
       </c>
     </row>
@@ -3102,7 +3113,7 @@
         <v>15.3723641506484</v>
       </c>
       <c r="C64">
-        <f>POWER(10, B64-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.1245003932235326E-3</v>
       </c>
       <c r="D64">
@@ -3112,7 +3123,7 @@
         <v>14.9038312871063</v>
       </c>
       <c r="F64">
-        <f>POWER(10, E64-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>3.8231976282671466E-4</v>
       </c>
       <c r="G64">
@@ -3122,7 +3133,7 @@
         <v>16.015342479089501</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9424005590306807E-3</v>
       </c>
       <c r="J64">
@@ -3132,7 +3143,7 @@
         <v>16.035500479441598</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1772118962899053E-3</v>
       </c>
     </row>
@@ -3144,7 +3155,7 @@
         <v>15.4139167202051</v>
       </c>
       <c r="C65">
-        <f>POWER(10, B65-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.237405896505595E-3</v>
       </c>
       <c r="D65">
@@ -3154,7 +3165,7 @@
         <v>14.944905553032999</v>
       </c>
       <c r="F65">
-        <f>POWER(10, E65-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.2024350889244608E-4</v>
       </c>
       <c r="G65">
@@ -3164,7 +3175,7 @@
         <v>16.056939289032901</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.439196516481757E-3</v>
       </c>
       <c r="J65">
@@ -3174,7 +3185,7 @@
         <v>16.086479346667399</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8220349426721194E-3</v>
       </c>
     </row>
@@ -3186,7 +3197,7 @@
         <v>15.4572119494725</v>
       </c>
       <c r="C66">
-        <f>POWER(10, B66-10)/$N$3</f>
+        <f t="shared" si="4"/>
         <v>1.3671224355180185E-3</v>
       </c>
       <c r="D66">
@@ -3196,7 +3207,7 @@
         <v>14.9837221063926</v>
       </c>
       <c r="F66">
-        <f>POWER(10, E66-10)/$N$3</f>
+        <f t="shared" si="5"/>
         <v>4.5953391312193178E-4</v>
       </c>
       <c r="G66">
@@ -3206,7 +3217,7 @@
         <v>16.1007668842987</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0167552458473914E-3</v>
       </c>
       <c r="J66">
@@ -3216,7 +3227,7 @@
         <v>16.137620282105999</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.549614563975791E-3</v>
       </c>
     </row>
@@ -3228,7 +3239,7 @@
         <v>15.499402582261601</v>
       </c>
       <c r="C67">
-        <f>POWER(10, B67-10)/$N$3</f>
+        <f t="shared" ref="C67:C98" si="6">POWER(10, B67-10)/$N$3</f>
         <v>1.5066002780657472E-3</v>
       </c>
       <c r="D67">
@@ -3238,7 +3249,7 @@
         <v>15.022243336719299</v>
       </c>
       <c r="F67">
-        <f>POWER(10, E67-10)/$N$3</f>
+        <f t="shared" ref="F67:F98" si="7">POWER(10, E67-10)/$N$3</f>
         <v>5.0215616360133281E-4</v>
       </c>
       <c r="G67">
@@ -3248,7 +3259,7 @@
         <v>16.144288377110101</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I116" si="2">POWER(10, H67-10)/$N$3</f>
+        <f t="shared" ref="I67:I116" si="8">POWER(10, H67-10)/$N$3</f>
         <v>6.6509523761772221E-3</v>
       </c>
       <c r="J67">
@@ -3258,7 +3269,7 @@
         <v>16.187643146284898</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L115" si="3">POWER(10, K67-10)/$N$3</f>
+        <f t="shared" ref="L67:L115" si="9">POWER(10, K67-10)/$N$3</f>
         <v>7.3491753091174897E-3</v>
       </c>
     </row>
@@ -3270,7 +3281,7 @@
         <v>15.5429379276568</v>
       </c>
       <c r="C68">
-        <f>POWER(10, B68-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.6654568635227928E-3</v>
       </c>
       <c r="D68">
@@ -3280,7 +3291,7 @@
         <v>15.0604664505816</v>
       </c>
       <c r="F68">
-        <f>POWER(10, E68-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>5.4835513102685759E-4</v>
       </c>
       <c r="G68">
@@ -3290,7 +3301,7 @@
         <v>16.183533039270401</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.279951739129634E-3</v>
       </c>
       <c r="J68">
@@ -3300,7 +3311,7 @@
         <v>16.2391056941307</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.2737263963041912E-3</v>
       </c>
     </row>
@@ -3312,7 +3323,7 @@
         <v>15.5853625504615</v>
       </c>
       <c r="C69">
-        <f>POWER(10, B69-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.8363607913557145E-3</v>
       </c>
       <c r="D69">
@@ -3322,7 +3333,7 @@
         <v>15.0983886710174</v>
       </c>
       <c r="F69">
-        <f>POWER(10, E69-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>5.9838973105477223E-4</v>
       </c>
       <c r="G69">
@@ -3332,7 +3343,7 @@
         <v>16.185472159524899</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.3125293215731395E-3</v>
       </c>
       <c r="J69">
@@ -3342,7 +3353,7 @@
         <v>16.290302267068999</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.3088863483356925E-3</v>
       </c>
     </row>
@@ -3354,7 +3365,7 @@
         <v>15.629551489383701</v>
       </c>
       <c r="C70">
-        <f>POWER(10, B70-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.0330448072793422E-3</v>
       </c>
       <c r="D70">
@@ -3364,7 +3375,7 @@
         <v>15.1332135410116</v>
       </c>
       <c r="F70">
-        <f>POWER(10, E70-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>6.4834923388527865E-4</v>
       </c>
       <c r="G70">
@@ -3374,7 +3385,7 @@
         <v>16.225108964281901</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.0113263817750829E-3</v>
       </c>
       <c r="J70">
@@ -3384,7 +3395,7 @@
         <v>16.340367508800501</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0446311447324682E-2</v>
       </c>
     </row>
@@ -3396,7 +3407,7 @@
         <v>15.672625806438401</v>
       </c>
       <c r="C71">
-        <f>POWER(10, B71-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.2450254439194055E-3</v>
       </c>
       <c r="D71">
@@ -3406,7 +3417,7 @@
         <v>15.169318732541401</v>
       </c>
       <c r="F71">
-        <f>POWER(10, E71-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>7.0455385179363738E-4</v>
       </c>
       <c r="G71">
@@ -3416,7 +3427,7 @@
         <v>16.268108559979801</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.8451259408900296E-3</v>
       </c>
       <c r="J71">
@@ -3426,7 +3437,7 @@
         <v>16.381512517204001</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.1484391212522852E-2</v>
       </c>
     </row>
@@ -3438,7 +3449,7 @@
         <v>15.7162332657861</v>
       </c>
       <c r="C72">
-        <f>POWER(10, B72-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.4821540222590638E-3</v>
       </c>
       <c r="D72">
@@ -3448,7 +3459,7 @@
         <v>15.2051091008322</v>
       </c>
       <c r="F72">
-        <f>POWER(10, E72-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>7.6507597043345467E-4</v>
       </c>
       <c r="G72">
@@ -3458,7 +3469,7 @@
         <v>16.308641556098902</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.7103976957479306E-3</v>
       </c>
       <c r="J72">
@@ -3468,7 +3479,7 @@
         <v>16.417565133879801</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.2478448611971298E-2</v>
       </c>
     </row>
@@ -3480,7 +3491,7 @@
         <v>15.759130900153201</v>
       </c>
       <c r="C73">
-        <f>POWER(10, B73-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.7398473138639939E-3</v>
       </c>
       <c r="D73">
@@ -3490,7 +3501,7 @@
         <v>15.240582013307399</v>
       </c>
       <c r="F73">
-        <f>POWER(10, E73-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>8.3018995505880499E-4</v>
       </c>
       <c r="G73">
@@ -3500,7 +3511,7 @@
         <v>16.345395830721898</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0567963185725783E-2</v>
       </c>
       <c r="J73">
@@ -3510,7 +3521,7 @@
         <v>16.454564886158099</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.3588150461003069E-2</v>
       </c>
     </row>
@@ -3522,7 +3533,7 @@
         <v>15.803812521806799</v>
       </c>
       <c r="C74">
-        <f>POWER(10, B74-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.0367426065317652E-3</v>
       </c>
       <c r="D74">
@@ -3532,7 +3543,7 @@
         <v>15.2761376826711</v>
       </c>
       <c r="F74">
-        <f>POWER(10, E74-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>9.010173288855806E-4</v>
       </c>
       <c r="G74">
@@ -3542,7 +3553,7 @@
         <v>16.380936990518698</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.1469182186583734E-2</v>
       </c>
       <c r="J74">
@@ -3552,7 +3563,7 @@
         <v>16.490778277307701</v>
       </c>
       <c r="L74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.4769770201280319E-2</v>
       </c>
     </row>
@@ -3564,7 +3575,7 @@
         <v>15.8473670941629</v>
       </c>
       <c r="C75">
-        <f>POWER(10, B75-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.3570866821204365E-3</v>
       </c>
       <c r="D75">
@@ -3574,7 +3585,7 @@
         <v>15.3117763019919</v>
       </c>
       <c r="F75">
-        <f>POWER(10, E75-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>9.7807410970044231E-4</v>
       </c>
       <c r="G75">
@@ -3584,7 +3595,7 @@
         <v>16.4169883405688</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.2461886789154731E-2</v>
       </c>
       <c r="J75">
@@ -3594,7 +3605,7 @@
         <v>16.527943027753999</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.6089349611942163E-2</v>
       </c>
     </row>
@@ -3606,7 +3617,7 @@
         <v>15.8914607530597</v>
       </c>
       <c r="C76">
-        <f>POWER(10, B76-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.7158332285072639E-3</v>
       </c>
       <c r="D76">
@@ -3616,7 +3627,7 @@
         <v>15.3462839726176</v>
       </c>
       <c r="F76">
-        <f>POWER(10, E76-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.0589597019291606E-3</v>
       </c>
       <c r="G76">
@@ -3626,7 +3637,7 @@
         <v>16.452685169941201</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3529465231820763E-2</v>
       </c>
       <c r="J76">
@@ -3636,7 +3647,7 @@
         <v>16.564317910341501</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.7494976817259793E-2</v>
       </c>
     </row>
@@ -3648,7 +3659,7 @@
         <v>15.935256879865101</v>
       </c>
       <c r="C77">
-        <f>POWER(10, B77-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>4.1100995488809319E-3</v>
       </c>
       <c r="D77">
@@ -3658,7 +3669,7 @@
         <v>15.3731650677034</v>
       </c>
       <c r="F77">
-        <f>POWER(10, E77-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.1265760873775839E-3</v>
       </c>
       <c r="G77">
@@ -3668,7 +3679,7 @@
         <v>16.4893292419343</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4720572580768728E-2</v>
       </c>
       <c r="J77">
@@ -3678,7 +3689,7 @@
         <v>16.6020861858599</v>
       </c>
       <c r="L77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.9084537818649685E-2</v>
       </c>
     </row>
@@ -3690,7 +3701,7 @@
         <v>15.9795950829949</v>
       </c>
       <c r="C78">
-        <f>POWER(10, B78-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>4.5518772711153699E-3</v>
       </c>
       <c r="D78">
@@ -3700,7 +3711,7 @@
         <v>15.400093248668499</v>
       </c>
       <c r="F78">
-        <f>POWER(10, E78-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.1986398430921842E-3</v>
       </c>
       <c r="G78">
@@ -3710,7 +3721,7 @@
         <v>16.5260549290558</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.6019552868014743E-2</v>
       </c>
       <c r="J78">
@@ -3720,7 +3731,7 @@
         <v>16.6386242435422</v>
       </c>
       <c r="L78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.075963457650885E-2</v>
       </c>
     </row>
@@ -3732,7 +3743,7 @@
         <v>16.022789039999001</v>
       </c>
       <c r="C79">
-        <f>POWER(10, B79-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>5.0278753358433629E-3</v>
       </c>
       <c r="D79">
@@ -3742,7 +3753,7 @@
         <v>15.4266617916811</v>
       </c>
       <c r="F79">
-        <f>POWER(10, E79-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.2742576591488835E-3</v>
       </c>
       <c r="G79">
@@ -3752,7 +3763,7 @@
         <v>16.562862413082101</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.7436442183327548E-2</v>
       </c>
       <c r="J79">
@@ -3762,7 +3773,7 @@
         <v>16.675682446403801</v>
       </c>
       <c r="L79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.2608820581187156E-2</v>
       </c>
     </row>
@@ -3774,7 +3785,7 @@
         <v>16.0652524497788</v>
       </c>
       <c r="C80">
-        <f>POWER(10, B80-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>5.5443151792862345E-3</v>
       </c>
       <c r="D80">
@@ -3784,7 +3795,7 @@
         <v>15.4524611872242</v>
       </c>
       <c r="F80">
-        <f>POWER(10, E80-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.3522489354384371E-3</v>
       </c>
       <c r="G80">
@@ -3794,7 +3805,7 @@
         <v>16.598438722173601</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.8924925701998118E-2</v>
       </c>
       <c r="J80">
@@ -3804,7 +3815,7 @@
         <v>16.712382475562698</v>
       </c>
       <c r="L80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.4602426133568108E-2</v>
       </c>
     </row>
@@ -3816,7 +3827,7 @@
         <v>16.1086779446034</v>
       </c>
       <c r="C81">
-        <f>POWER(10, B81-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>6.1273601194185316E-3</v>
       </c>
       <c r="D81">
@@ -3826,7 +3837,7 @@
         <v>15.4791200764318</v>
       </c>
       <c r="F81">
-        <f>POWER(10, E81-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.4378564747797114E-3</v>
       </c>
       <c r="G81">
@@ -3836,7 +3847,7 @@
         <v>16.634968752476802</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.058563240970256E-2</v>
       </c>
       <c r="J81">
@@ -3846,7 +3857,7 @@
         <v>16.7500466484491</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.6831324360996105E-2</v>
       </c>
     </row>
@@ -3858,7 +3869,7 @@
         <v>16.150943070310401</v>
       </c>
       <c r="C82">
-        <f>POWER(10, B82-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>6.7536497079732838E-3</v>
       </c>
       <c r="D82">
@@ -3868,7 +3879,7 @@
         <v>15.507051672031899</v>
       </c>
       <c r="F82">
-        <f>POWER(10, E82-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.5333706033353294E-3</v>
       </c>
       <c r="G82">
@@ -3878,7 +3889,7 @@
         <v>16.671579178480901</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.2396215591628556E-2</v>
       </c>
       <c r="J82">
@@ -3888,7 +3899,7 @@
         <v>16.787353015703701</v>
       </c>
       <c r="L82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.9238054863523891E-2</v>
       </c>
     </row>
@@ -3900,7 +3911,7 @@
         <v>16.1941731469987</v>
       </c>
       <c r="C83">
-        <f>POWER(10, B83-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>7.4605115659540748E-3</v>
       </c>
       <c r="D83">
@@ -3910,7 +3921,7 @@
         <v>15.532575911510101</v>
       </c>
       <c r="F83">
-        <f>POWER(10, E83-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.6261903234809892E-3</v>
       </c>
       <c r="G83">
@@ -3920,7 +3931,7 @@
         <v>16.70959202025</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.4444855886267849E-2</v>
       </c>
       <c r="J83">
@@ -3930,7 +3941,7 @@
         <v>16.824742473176901</v>
       </c>
       <c r="L83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.1866761806564718E-2</v>
       </c>
     </row>
@@ -3942,7 +3953,7 @@
         <v>16.237090756952199</v>
       </c>
       <c r="C84">
-        <f>POWER(10, B84-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>8.2354288213298075E-3</v>
       </c>
       <c r="D84">
@@ -3952,7 +3963,7 @@
         <v>15.5593730162119</v>
       </c>
       <c r="F84">
-        <f>POWER(10, E84-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.7296908069130276E-3</v>
       </c>
       <c r="G84">
@@ -3962,7 +3973,7 @@
         <v>16.745483498164798</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6550882401514167E-2</v>
       </c>
       <c r="J84">
@@ -3972,7 +3983,7 @@
         <v>16.8622152059305</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.4738468415449961E-2</v>
       </c>
     </row>
@@ -3984,7 +3995,7 @@
         <v>16.280122106658101</v>
       </c>
       <c r="C85">
-        <f>POWER(10, B85-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>9.093217260876375E-3</v>
       </c>
       <c r="D85">
@@ -3994,7 +4005,7 @@
         <v>15.585805348825801</v>
       </c>
       <c r="F85">
-        <f>POWER(10, E85-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.838234064582204E-3</v>
       </c>
       <c r="G85">
@@ -4004,7 +4015,7 @@
         <v>16.782337146262002</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8902313485870811E-2</v>
       </c>
       <c r="J85">
@@ -4014,7 +4025,7 @@
         <v>16.8930880188279</v>
       </c>
       <c r="L85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.7297822671769808E-2</v>
       </c>
     </row>
@@ -4026,7 +4037,7 @@
         <v>16.324128409110902</v>
       </c>
       <c r="C86">
-        <f>POWER(10, B86-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.0062916525081563E-2</v>
       </c>
       <c r="D86">
@@ -4036,7 +4047,7 @@
         <v>15.6135177209521</v>
       </c>
       <c r="F86">
-        <f>POWER(10, E86-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>1.9593552366071782E-3</v>
       </c>
       <c r="G86">
@@ -4046,7 +4057,7 @@
         <v>16.816610968418999</v>
       </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.1275656123678532E-2</v>
       </c>
       <c r="J86">
@@ -4056,7 +4067,7 @@
         <v>16.923571076046201</v>
       </c>
       <c r="L86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.000981442627162E-2</v>
       </c>
     </row>
@@ -4068,7 +4079,7 @@
         <v>16.366527231853102</v>
       </c>
       <c r="C87">
-        <f>POWER(10, B87-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.109488213297165E-2</v>
       </c>
       <c r="D87">
@@ -4078,7 +4089,7 @@
         <v>15.642104309687999</v>
       </c>
       <c r="F87">
-        <f>POWER(10, E87-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.0926652887285546E-3</v>
       </c>
       <c r="G87">
@@ -4088,7 +4099,7 @@
         <v>16.850066090836901</v>
       </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.3780148297612514E-2</v>
       </c>
       <c r="J87">
@@ -4098,7 +4109,7 @@
         <v>16.953215003142802</v>
       </c>
       <c r="L87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.2836153300317398E-2</v>
       </c>
     </row>
@@ -4110,7 +4121,7 @@
         <v>16.410767093369401</v>
       </c>
       <c r="C88">
-        <f>POWER(10, B88-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.2284643403099784E-2</v>
       </c>
       <c r="D88">
@@ -4120,7 +4131,7 @@
         <v>15.670743237241499</v>
       </c>
       <c r="F88">
-        <f>POWER(10, E88-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.2353148239092086E-3</v>
       </c>
       <c r="G88">
@@ -4130,7 +4141,7 @@
         <v>16.8813618155793</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6304233896528773E-2</v>
       </c>
       <c r="J88">
@@ -4140,7 +4151,7 @@
         <v>16.983358700718199</v>
       </c>
       <c r="L88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.5914954862110786E-2</v>
       </c>
     </row>
@@ -4152,7 +4163,7 @@
         <v>16.454258718088902</v>
       </c>
       <c r="C89">
-        <f>POWER(10, B89-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.3578574489252839E-2</v>
       </c>
       <c r="D89">
@@ -4162,7 +4173,7 @@
         <v>15.6998485988595</v>
       </c>
       <c r="F89">
-        <f>POWER(10, E89-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.3902540341704552E-3</v>
       </c>
       <c r="G89">
@@ -4172,7 +4183,7 @@
         <v>16.909148136977599</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8702908032766957E-2</v>
       </c>
       <c r="J89">
@@ -4182,7 +4193,7 @@
         <v>17.0135559953548</v>
       </c>
       <c r="L89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.9221116002620247E-2</v>
       </c>
     </row>
@@ -4194,7 +4205,7 @@
         <v>16.498735723914798</v>
       </c>
       <c r="C90">
-        <f>POWER(10, B90-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.5042886714066523E-2</v>
       </c>
       <c r="D90">
@@ -4204,7 +4215,7 @@
         <v>15.728178492282501</v>
       </c>
       <c r="F90">
-        <f>POWER(10, E90-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.5513729882230313E-3</v>
       </c>
       <c r="G90">
@@ -4214,7 +4225,7 @@
         <v>16.936533571861901</v>
       </c>
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.1221997522015642E-2</v>
       </c>
       <c r="J90">
@@ -4224,7 +4235,7 @@
         <v>17.044256433327799</v>
       </c>
       <c r="L90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.2826506896448265E-2</v>
       </c>
     </row>
@@ -4236,7 +4247,7 @@
         <v>16.5415880559902</v>
       </c>
       <c r="C91">
-        <f>POWER(10, B91-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.6602883364189917E-2</v>
       </c>
       <c r="D91">
@@ -4246,7 +4257,7 @@
         <v>15.756975011949599</v>
       </c>
       <c r="F91">
-        <f>POWER(10, E91-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.7262800963485266E-3</v>
       </c>
       <c r="G91">
@@ -4256,7 +4267,7 @@
         <v>16.96396335919</v>
       </c>
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.390953320141875E-2</v>
       </c>
       <c r="J91">
@@ -4266,7 +4277,7 @@
         <v>17.074562007298798</v>
       </c>
       <c r="L91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.6644463564691862E-2</v>
       </c>
     </row>
@@ -4278,7 +4289,7 @@
         <v>16.586301119090901</v>
       </c>
       <c r="C92">
-        <f>POWER(10, B92-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>1.840333704798881E-2</v>
       </c>
       <c r="D92">
@@ -4288,7 +4299,7 @@
         <v>15.784991732635</v>
       </c>
       <c r="F92">
-        <f>POWER(10, E92-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>2.9079517324681909E-3</v>
       </c>
       <c r="G92">
@@ -4298,7 +4309,7 @@
         <v>16.9914375707936</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.677707178704698E-2</v>
       </c>
       <c r="J92">
@@ -4308,7 +4319,7 @@
         <v>17.104921466155702</v>
       </c>
       <c r="L92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.0745893884001201E-2</v>
       </c>
     </row>
@@ -4320,7 +4331,7 @@
         <v>16.629819408066801</v>
       </c>
       <c r="C93">
-        <f>POWER(10, B93-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.0342993908765709E-2</v>
       </c>
       <c r="D93">
@@ -4330,7 +4341,7 @@
         <v>15.8134752642215</v>
       </c>
       <c r="F93">
-        <f>POWER(10, E93-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.105065209369132E-3</v>
       </c>
       <c r="G93">
@@ -4340,7 +4351,7 @@
         <v>17.018058722813699</v>
       </c>
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.9734090901710132E-2</v>
       </c>
       <c r="J93">
@@ -4350,7 +4361,7 @@
         <v>17.135334905708699</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.5152392255502165E-2</v>
       </c>
     </row>
@@ -4362,7 +4373,7 @@
         <v>16.668616112807801</v>
       </c>
       <c r="C94">
-        <f>POWER(10, B94-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.2243932770098892E-2</v>
       </c>
       <c r="D94">
@@ -4372,7 +4383,7 @@
         <v>15.842845722854801</v>
       </c>
       <c r="F94">
-        <f>POWER(10, E94-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.3223178827858943E-3</v>
       </c>
       <c r="G94">
@@ -4382,7 +4393,7 @@
         <v>17.043373229065999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.2719185278398042E-2</v>
       </c>
       <c r="J94">
@@ -4392,7 +4403,7 @@
         <v>17.166255089976001</v>
       </c>
       <c r="L94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.9960120842504941E-2</v>
       </c>
     </row>
@@ -4404,7 +4415,7 @@
         <v>16.703538608669199</v>
       </c>
       <c r="C95">
-        <f>POWER(10, B95-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.4106494977233862E-2</v>
       </c>
       <c r="D95">
@@ -4414,7 +4425,7 @@
         <v>15.8718521852793</v>
       </c>
       <c r="F95">
-        <f>POWER(10, E95-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.5517929942102157E-3</v>
       </c>
       <c r="G95">
@@ -4424,7 +4435,7 @@
         <v>17.0687253908605</v>
       </c>
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.5888293864650433E-2</v>
       </c>
       <c r="J95">
@@ -4434,7 +4445,7 @@
         <v>17.196324110995398</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.4975534752289075E-2</v>
       </c>
     </row>
@@ -4446,7 +4457,7 @@
         <v>16.7380928816237</v>
       </c>
       <c r="C96">
-        <f>POWER(10, B96-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.6102874937433844E-2</v>
       </c>
       <c r="D96">
@@ -4456,7 +4467,7 @@
         <v>15.900073163550701</v>
       </c>
       <c r="F96">
-        <f>POWER(10, E96-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>3.7902567037168943E-3</v>
       </c>
       <c r="G96">
@@ -4466,7 +4477,7 @@
         <v>17.09411526421</v>
       </c>
       <c r="I96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.9253052047421151E-2</v>
       </c>
       <c r="J96">
@@ -4476,7 +4487,7 @@
         <v>17.2273543484059</v>
       </c>
       <c r="L96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.052853704923231E-2</v>
       </c>
     </row>
@@ -4488,7 +4499,7 @@
         <v>16.772718636304699</v>
       </c>
       <c r="C97">
-        <f>POWER(10, B97-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>2.8269237680855073E-2</v>
       </c>
       <c r="D97">
@@ -4498,7 +4509,7 @@
         <v>15.926664287557299</v>
       </c>
       <c r="F97">
-        <f>POWER(10, E97-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>4.0295796866212331E-3</v>
       </c>
       <c r="G97">
@@ -4508,7 +4519,7 @@
         <v>17.1195429052108</v>
       </c>
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.2825849005588144E-2</v>
       </c>
       <c r="J97">
@@ -4518,7 +4529,7 @@
         <v>17.2552551383755</v>
       </c>
       <c r="L97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5871806508567336E-2</v>
       </c>
     </row>
@@ -4530,7 +4541,7 @@
         <v>16.8083024668063</v>
       </c>
       <c r="C98">
-        <f>POWER(10, B98-10)/$N$3</f>
+        <f t="shared" si="6"/>
         <v>3.0683007611160142E-2</v>
       </c>
       <c r="D98">
@@ -4540,7 +4551,7 @@
         <v>15.9537205762292</v>
       </c>
       <c r="F98">
-        <f>POWER(10, E98-10)/$N$3</f>
+        <f t="shared" si="7"/>
         <v>4.2886048976280775E-3</v>
       </c>
       <c r="G98">
@@ -4550,7 +4561,7 @@
         <v>17.145008370042699</v>
       </c>
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.66198776923521E-2</v>
       </c>
       <c r="J98">
@@ -4560,7 +4571,7 @@
         <v>17.282289623731501</v>
       </c>
       <c r="L98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.1387139708775364E-2</v>
       </c>
     </row>
@@ -4572,7 +4583,7 @@
         <v>16.844405970473002</v>
       </c>
       <c r="C99">
-        <f>POWER(10, B99-10)/$N$3</f>
+        <f t="shared" ref="C99:C130" si="10">POWER(10, B99-10)/$N$3</f>
         <v>3.334275117607232E-2</v>
       </c>
       <c r="D99">
@@ -4582,7 +4593,7 @@
         <v>15.9812442479691</v>
       </c>
       <c r="F99">
-        <f>POWER(10, E99-10)/$N$3</f>
+        <f t="shared" ref="F99:F130" si="11">POWER(10, E99-10)/$N$3</f>
         <v>4.5691951691627201E-3</v>
       </c>
       <c r="G99">
@@ -4592,7 +4603,7 @@
         <v>17.170058934685201</v>
       </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.0575570208877184E-2</v>
       </c>
       <c r="J99">
@@ -4602,7 +4613,7 @@
         <v>17.308453593445002</v>
       </c>
       <c r="L99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.7061959449020047E-2</v>
       </c>
     </row>
@@ -4614,7 +4625,7 @@
         <v>16.880141887824902</v>
       </c>
       <c r="C100">
-        <f>POWER(10, B100-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>3.6202398852344039E-2</v>
       </c>
       <c r="D100">
@@ -4624,7 +4635,7 @@
         <v>16.0079711216889</v>
       </c>
       <c r="F100">
-        <f>POWER(10, E100-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>4.859220230428318E-3</v>
       </c>
       <c r="G100">
@@ -4634,7 +4645,7 @@
         <v>17.1960529963361</v>
       </c>
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.4928744788280127E-2</v>
       </c>
       <c r="J100">
@@ -4644,7 +4655,7 @@
         <v>17.3360285718123</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10342464355379004</v>
       </c>
     </row>
@@ -4656,7 +4667,7 @@
         <v>16.914615452263899</v>
       </c>
       <c r="C101">
-        <f>POWER(10, B101-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>3.9193217107601271E-2</v>
       </c>
       <c r="D101">
@@ -4666,7 +4677,7 @@
         <v>16.035165534774901</v>
       </c>
       <c r="F101">
-        <f>POWER(10, E101-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.1732205699834373E-3</v>
       </c>
       <c r="G101">
@@ -4676,7 +4687,7 @@
         <v>17.220269921557598</v>
       </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.9225571838671974E-2</v>
       </c>
       <c r="J101">
@@ -4686,7 +4697,7 @@
         <v>17.3622738978877</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10986752946772925</v>
       </c>
     </row>
@@ -4698,7 +4709,7 @@
         <v>16.950053342496201</v>
       </c>
       <c r="C102">
-        <f>POWER(10, B102-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>4.2525438790066275E-2</v>
       </c>
       <c r="D102">
@@ -4708,7 +4719,7 @@
         <v>16.062406145851799</v>
       </c>
       <c r="F102">
-        <f>POWER(10, E102-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.5080973433774879E-3</v>
       </c>
       <c r="G102">
@@ -4718,7 +4729,7 @@
         <v>17.246339998526299</v>
       </c>
       <c r="I102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.4127011124218221E-2</v>
       </c>
       <c r="J102">
@@ -4728,7 +4739,7 @@
         <v>17.389017499438602</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.11684576073326353</v>
       </c>
     </row>
@@ -4740,7 +4751,7 @@
         <v>16.9855654788186</v>
       </c>
       <c r="C103">
-        <f>POWER(10, B103-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>4.614885602022685E-2</v>
       </c>
       <c r="D103">
@@ -4750,7 +4761,7 @@
         <v>16.089693033400899</v>
       </c>
       <c r="F103">
-        <f>POWER(10, E103-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>5.8652765541680734E-3</v>
       </c>
       <c r="G103">
@@ -4760,7 +4771,7 @@
         <v>17.270627742125299</v>
       </c>
       <c r="I103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.8965823504229755E-2</v>
       </c>
       <c r="J103">
@@ -4770,7 +4781,7 @@
         <v>17.417639410059198</v>
       </c>
       <c r="L103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.12480582948899949</v>
       </c>
     </row>
@@ -4782,7 +4793,7 @@
         <v>17.0220497357361</v>
       </c>
       <c r="C104">
-        <f>POWER(10, B104-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.019323609392564E-2</v>
       </c>
       <c r="D104">
@@ -4792,7 +4803,7 @@
         <v>16.116601275789399</v>
       </c>
       <c r="F104">
-        <f>POWER(10, E104-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>6.240174533529136E-3</v>
       </c>
       <c r="G104">
@@ -4802,7 +4813,7 @@
         <v>17.296774056706099</v>
       </c>
       <c r="I104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.4486446846763023E-2</v>
       </c>
       <c r="J104">
@@ -4812,7 +4823,7 @@
         <v>17.4444682926745</v>
       </c>
       <c r="L104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.13275893312014883</v>
       </c>
     </row>
@@ -4824,7 +4835,7 @@
         <v>17.058612359252798</v>
       </c>
       <c r="C105">
-        <f>POWER(10, B105-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.4601908170891979E-2</v>
       </c>
       <c r="D105">
@@ -4834,7 +4845,7 @@
         <v>16.1444059525078</v>
       </c>
       <c r="F105">
-        <f>POWER(10, E105-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>6.6527532146996322E-3</v>
       </c>
       <c r="G105">
@@ -4844,7 +4855,7 @@
         <v>17.321132825779099</v>
       </c>
       <c r="I105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.9937455283989965E-2</v>
       </c>
       <c r="J105">
@@ -4854,7 +4865,7 @@
         <v>17.474563831622302</v>
       </c>
       <c r="L105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14228505713819584</v>
       </c>
     </row>
@@ -4866,7 +4877,7 @@
         <v>17.092999657808701</v>
       </c>
       <c r="C106">
-        <f>POWER(10, B106-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>5.910103939824693E-2</v>
       </c>
       <c r="D106">
@@ -4876,7 +4887,7 @@
         <v>16.171832141695901</v>
       </c>
       <c r="F106">
-        <f>POWER(10, E106-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.0864316509780872E-3</v>
       </c>
       <c r="G106">
@@ -4886,7 +4897,7 @@
         <v>17.347355600916199</v>
       </c>
       <c r="I106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.10615759277052153</v>
       </c>
       <c r="J106">
@@ -4896,7 +4907,7 @@
         <v>17.499172979179502</v>
       </c>
       <c r="L106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15058039781880431</v>
       </c>
     </row>
@@ -4908,7 +4919,7 @@
         <v>17.129262974196301</v>
       </c>
       <c r="C107">
-        <f>POWER(10, B107-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>6.4247825773706885E-2</v>
       </c>
       <c r="D107">
@@ -4918,7 +4929,7 @@
         <v>16.196314969815301</v>
       </c>
       <c r="F107">
-        <f>POWER(10, E107-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.4973956657973474E-3</v>
       </c>
       <c r="G107">
@@ -4928,7 +4939,7 @@
         <v>17.371785603165399</v>
       </c>
       <c r="I107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11230033819626797</v>
       </c>
       <c r="J107">
@@ -4938,7 +4949,7 @@
         <v>17.524278892402101</v>
       </c>
       <c r="L107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15954175070230611</v>
       </c>
     </row>
@@ -4950,7 +4961,7 @@
         <v>17.164697934547199</v>
       </c>
       <c r="C108">
-        <f>POWER(10, B108-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>6.9709729182843239E-2</v>
       </c>
       <c r="D108">
@@ -4960,7 +4971,7 @@
         <v>16.219979398923002</v>
       </c>
       <c r="F108">
-        <f>POWER(10, E108-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>7.9172591370473347E-3</v>
       </c>
       <c r="G108">
@@ -4970,7 +4981,7 @@
         <v>17.397626281143399</v>
       </c>
       <c r="I108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11918503878293335</v>
       </c>
       <c r="J108">
@@ -4980,7 +4991,7 @@
         <v>17.551734867830501</v>
       </c>
       <c r="L108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16995358453036502</v>
       </c>
     </row>
@@ -4992,7 +5003,7 @@
         <v>17.201566960199401</v>
       </c>
       <c r="C109">
-        <f>POWER(10, B109-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>7.5886132745941567E-2</v>
       </c>
       <c r="D109">
@@ -5002,7 +5013,7 @@
         <v>16.2441067554326</v>
       </c>
       <c r="F109">
-        <f>POWER(10, E109-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>8.3695520856360544E-3</v>
       </c>
       <c r="G109">
@@ -5012,7 +5023,7 @@
         <v>17.4225865061901</v>
       </c>
       <c r="I109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.12623563446911712</v>
       </c>
       <c r="J109">
@@ -5022,7 +5033,7 @@
         <v>17.5773797003909</v>
       </c>
       <c r="L109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.18029146237555993</v>
       </c>
     </row>
@@ -5034,7 +5045,7 @@
         <v>17.2385151789173</v>
       </c>
       <c r="C110">
-        <f>POWER(10, B110-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>8.2624841599784907E-2</v>
       </c>
       <c r="D110">
@@ -5044,7 +5055,7 @@
         <v>16.268270001589102</v>
       </c>
       <c r="F110">
-        <f>POWER(10, E110-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>8.8484145776810512E-3</v>
       </c>
       <c r="G110">
@@ -5054,7 +5065,7 @@
         <v>17.4485027509409</v>
       </c>
       <c r="I110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.13399796779509332</v>
       </c>
       <c r="J110">
@@ -5064,7 +5075,7 @@
         <v>17.6058473785566</v>
       </c>
       <c r="L110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1925053658987923</v>
       </c>
     </row>
@@ -5076,7 +5087,7 @@
         <v>17.273720633219799</v>
       </c>
       <c r="C111">
-        <f>POWER(10, B111-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>8.9601667951801592E-2</v>
       </c>
       <c r="D111">
@@ -5086,7 +5097,7 @@
         <v>16.292469190778501</v>
       </c>
       <c r="F111">
-        <f>POWER(10, E111-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>9.3554493480074736E-3</v>
       </c>
       <c r="G111">
@@ -5096,7 +5107,7 @@
         <v>17.473535968022102</v>
       </c>
       <c r="I111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14194870310665331</v>
       </c>
       <c r="J111">
@@ -5106,7 +5117,7 @@
         <v>17.6329661632289</v>
       </c>
       <c r="L111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.20490927853694554</v>
       </c>
     </row>
@@ -5118,7 +5129,7 @@
         <v>17.310367354629399</v>
       </c>
       <c r="C112">
-        <f>POWER(10, B112-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>9.7490616248402995E-2</v>
       </c>
       <c r="D112">
@@ -5128,7 +5139,7 @@
         <v>16.3162741107787</v>
       </c>
       <c r="F112">
-        <f>POWER(10, E112-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>9.8825625489176623E-3</v>
       </c>
       <c r="G112">
@@ -5138,7 +5149,7 @@
         <v>17.500912442519599</v>
       </c>
       <c r="I112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15118472124690049</v>
       </c>
       <c r="J112">
@@ -5148,7 +5159,7 @@
         <v>17.660126719732201</v>
       </c>
       <c r="L112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.21813340605165038</v>
       </c>
     </row>
@@ -5160,7 +5171,7 @@
         <v>17.343432667793699</v>
       </c>
       <c r="C113">
-        <f>POWER(10, B113-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.10520300104634855</v>
       </c>
       <c r="D113">
@@ -5170,7 +5181,7 @@
         <v>16.3409756121981</v>
       </c>
       <c r="F113">
-        <f>POWER(10, E113-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.046094872041365E-2</v>
       </c>
       <c r="G113">
@@ -5180,7 +5191,7 @@
         <v>17.524634423096799</v>
       </c>
       <c r="I113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15967241138439525</v>
       </c>
       <c r="J113">
@@ -5190,7 +5201,7 @@
         <v>17.6887284119295</v>
       </c>
       <c r="L113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.23298280675096639</v>
       </c>
     </row>
@@ -5202,7 +5213,7 @@
         <v>17.370605304345201</v>
       </c>
       <c r="C114">
-        <f>POWER(10, B114-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.11199554960255048</v>
       </c>
       <c r="D114">
@@ -5212,7 +5223,7 @@
         <v>16.364851404910599</v>
       </c>
       <c r="F114">
-        <f>POWER(10, E114-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.1052152426855194E-2</v>
       </c>
       <c r="G114">
@@ -5222,7 +5233,7 @@
         <v>17.5497768656343</v>
       </c>
       <c r="I114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.16918907912775349</v>
       </c>
       <c r="J114">
@@ -5232,7 +5243,7 @@
         <v>17.715974860601602</v>
       </c>
       <c r="L114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.24806775800851075</v>
       </c>
     </row>
@@ -5244,7 +5255,7 @@
         <v>17.3969029767592</v>
       </c>
       <c r="C115">
-        <f>POWER(10, B115-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.11898670489457835</v>
       </c>
       <c r="D115">
@@ -5254,7 +5265,7 @@
         <v>16.389194259754099</v>
       </c>
       <c r="F115">
-        <f>POWER(10, E115-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.1689332729937928E-2</v>
       </c>
       <c r="G115">
@@ -5264,7 +5275,7 @@
         <v>17.574955379818199</v>
       </c>
       <c r="I115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.17928784239106191</v>
       </c>
       <c r="J115">
@@ -5274,7 +5285,7 @@
         <v>17.702992432412099</v>
       </c>
       <c r="L115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.24076197287364265</v>
       </c>
     </row>
@@ -5286,7 +5297,7 @@
         <v>17.4236999184597</v>
       </c>
       <c r="C116">
-        <f>POWER(10, B116-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.12655968331855597</v>
       </c>
       <c r="D116">
@@ -5296,7 +5307,7 @@
         <v>16.414871853545598</v>
       </c>
       <c r="F116">
-        <f>POWER(10, E116-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.2401302880843392E-2</v>
       </c>
       <c r="G116">
@@ -5306,7 +5317,7 @@
         <v>17.591124237289499</v>
       </c>
       <c r="I116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18608856988178557</v>
       </c>
     </row>
@@ -5318,7 +5329,7 @@
         <v>17.450538136247498</v>
       </c>
       <c r="C117">
-        <f>POWER(10, B117-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.13462744299695942</v>
       </c>
       <c r="D117">
@@ -5328,7 +5339,7 @@
         <v>16.441890343523902</v>
       </c>
       <c r="F117">
-        <f>POWER(10, E117-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.3197321738226667E-2</v>
       </c>
     </row>
@@ -5340,7 +5351,7 @@
         <v>17.476956820416198</v>
       </c>
       <c r="C118">
-        <f>POWER(10, B118-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.14307122030048897</v>
       </c>
       <c r="D118">
@@ -5350,7 +5361,7 @@
         <v>16.468519024858299</v>
       </c>
       <c r="F118">
-        <f>POWER(10, E118-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.4031835538111742E-2</v>
       </c>
     </row>
@@ -5362,7 +5373,7 @@
         <v>17.5038770713163</v>
       </c>
       <c r="C119">
-        <f>POWER(10, B119-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.15222028555273115</v>
       </c>
       <c r="D119">
@@ -5372,7 +5383,7 @@
         <v>16.496060812062201</v>
       </c>
       <c r="F119">
-        <f>POWER(10, E119-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.495051913111653E-2</v>
       </c>
     </row>
@@ -5384,7 +5395,7 @@
         <v>17.530376506260001</v>
       </c>
       <c r="C120">
-        <f>POWER(10, B120-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.16179755975217205</v>
       </c>
       <c r="D120">
@@ -5394,7 +5405,7 @@
         <v>16.522777225896601</v>
       </c>
       <c r="F120">
-        <f>POWER(10, E120-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.5899105343784057E-2</v>
       </c>
     </row>
@@ -5406,7 +5417,7 @@
         <v>17.557842035059402</v>
       </c>
       <c r="C121">
-        <f>POWER(10, B121-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.17236040109423761</v>
       </c>
       <c r="D121">
@@ -5416,7 +5427,7 @@
         <v>16.550409753975501</v>
       </c>
       <c r="F121">
-        <f>POWER(10, E121-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.6943581460136036E-2</v>
       </c>
     </row>
@@ -5428,7 +5439,7 @@
         <v>17.583959473553001</v>
       </c>
       <c r="C122">
-        <f>POWER(10, B122-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.18304376263978656</v>
       </c>
       <c r="D122">
@@ -5438,7 +5449,7 @@
         <v>16.577214189358799</v>
       </c>
       <c r="F122">
-        <f>POWER(10, E122-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.80222765807036E-2</v>
       </c>
     </row>
@@ -5450,7 +5461,7 @@
         <v>17.611508952889899</v>
       </c>
       <c r="C123">
-        <f>POWER(10, B123-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.19503134413510831</v>
       </c>
       <c r="D123">
@@ -5460,7 +5471,7 @@
         <v>16.604062036220601</v>
       </c>
       <c r="F123">
-        <f>POWER(10, E123-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>1.9171561947773894E-2</v>
       </c>
     </row>
@@ -5472,7 +5483,7 @@
         <v>17.637706221377599</v>
       </c>
       <c r="C124">
-        <f>POWER(10, B124-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.2071579870655274</v>
       </c>
       <c r="D124">
@@ -5482,7 +5493,7 @@
         <v>16.623937915284699</v>
       </c>
       <c r="F124">
-        <f>POWER(10, E124-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.0069353205106527E-2</v>
       </c>
     </row>
@@ -5494,7 +5505,7 @@
         <v>17.6653399078535</v>
       </c>
       <c r="C125">
-        <f>POWER(10, B125-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.22076761649940962</v>
       </c>
       <c r="D125">
@@ -5504,7 +5515,7 @@
         <v>16.6433986946797</v>
       </c>
       <c r="F125">
-        <f>POWER(10, E125-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.098911638239867E-2</v>
       </c>
     </row>
@@ -5516,7 +5527,7 @@
         <v>17.692083784295299</v>
       </c>
       <c r="C126">
-        <f>POWER(10, B126-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.23478981049083331</v>
       </c>
       <c r="D126">
@@ -5526,7 +5537,7 @@
         <v>16.661564107730499</v>
       </c>
       <c r="F126">
-        <f>POWER(10, E126-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.1885656002367367E-2</v>
       </c>
     </row>
@@ -5538,7 +5549,7 @@
         <v>17.719335401342398</v>
       </c>
       <c r="C127">
-        <f>POWER(10, B127-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.24999473499943231</v>
       </c>
       <c r="D127">
@@ -5548,7 +5559,7 @@
         <v>16.6793095083402</v>
       </c>
       <c r="F127">
-        <f>POWER(10, E127-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.2798431507960952E-2</v>
       </c>
     </row>
@@ -5560,7 +5571,7 @@
         <v>17.7461610225348</v>
       </c>
       <c r="C128">
-        <f>POWER(10, B128-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.2659233563142549</v>
       </c>
       <c r="D128">
@@ -5570,7 +5581,7 @@
         <v>16.6970738086907</v>
       </c>
       <c r="F128">
-        <f>POWER(10, E128-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.3750309292977379E-2</v>
       </c>
     </row>
@@ -5582,7 +5593,7 @@
         <v>17.773964629403601</v>
       </c>
       <c r="C129">
-        <f>POWER(10, B129-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.28350458725022554</v>
       </c>
       <c r="D129">
@@ -5592,7 +5603,7 @@
         <v>16.7152978053659</v>
       </c>
       <c r="F129">
-        <f>POWER(10, E129-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.4768132730329701E-2</v>
       </c>
     </row>
@@ -5604,7 +5615,7 @@
         <v>17.8004035520839</v>
       </c>
       <c r="C130">
-        <f>POWER(10, B130-10)/$N$3</f>
+        <f t="shared" si="10"/>
         <v>0.30129991771978143</v>
       </c>
       <c r="D130">
@@ -5614,7 +5625,7 @@
         <v>16.734865535031901</v>
       </c>
       <c r="F130">
-        <f>POWER(10, E130-10)/$N$3</f>
+        <f t="shared" si="11"/>
         <v>2.5909617166923485E-2</v>
       </c>
     </row>
@@ -5626,7 +5637,7 @@
         <v>17.828292142852298</v>
       </c>
       <c r="C131">
-        <f>POWER(10, B131-10)/$N$3</f>
+        <f t="shared" ref="C131:C162" si="12">POWER(10, B131-10)/$N$3</f>
         <v>0.32128289453919295</v>
       </c>
       <c r="D131">
@@ -5636,7 +5647,7 @@
         <v>16.761084705575101</v>
       </c>
       <c r="F131">
-        <f>POWER(10, E131-10)/$N$3</f>
+        <f t="shared" ref="F131:F162" si="13">POWER(10, E131-10)/$N$3</f>
         <v>2.7522011156600055E-2</v>
       </c>
     </row>
@@ -5648,7 +5659,7 @@
         <v>17.854811878168199</v>
       </c>
       <c r="C132">
-        <f>POWER(10, B132-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.3415130778623866</v>
       </c>
       <c r="D132">
@@ -5658,7 +5669,7 @@
         <v>16.788673053701402</v>
       </c>
       <c r="F132">
-        <f>POWER(10, E132-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>2.932705912158317E-2</v>
       </c>
     </row>
@@ -5670,7 +5681,7 @@
         <v>17.8827857125961</v>
       </c>
       <c r="C133">
-        <f>POWER(10, B133-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.36423457896525047</v>
       </c>
       <c r="D133">
@@ -5680,7 +5691,7 @@
         <v>16.8163068115946</v>
       </c>
       <c r="F133">
-        <f>POWER(10, E133-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.1253759981027626E-2</v>
       </c>
     </row>
@@ -5692,7 +5703,7 @@
         <v>17.909858784160399</v>
       </c>
       <c r="C134">
-        <f>POWER(10, B134-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.38766290435324507</v>
       </c>
       <c r="D134">
@@ -5702,7 +5713,7 @@
         <v>16.843541884080398</v>
       </c>
       <c r="F134">
-        <f>POWER(10, E134-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.3276477308652588E-2</v>
       </c>
     </row>
@@ -5714,7 +5725,7 @@
         <v>17.937445846199299</v>
       </c>
       <c r="C135">
-        <f>POWER(10, B135-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.41308679017760908</v>
       </c>
       <c r="D135">
@@ -5724,7 +5735,7 @@
         <v>16.869486468038801</v>
       </c>
       <c r="F135">
-        <f>POWER(10, E135-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.5324980357393149E-2</v>
       </c>
     </row>
@@ -5736,7 +5747,7 @@
         <v>17.964601668724899</v>
       </c>
       <c r="C136">
-        <f>POWER(10, B136-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.43974117215563574</v>
       </c>
       <c r="D136">
@@ -5746,7 +5757,7 @@
         <v>16.8972532428965</v>
       </c>
       <c r="F136">
-        <f>POWER(10, E136-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.765725887187199E-2</v>
       </c>
     </row>
@@ -5758,7 +5769,7 @@
         <v>17.992273052777101</v>
       </c>
       <c r="C137">
-        <f>POWER(10, B137-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.46867146651563363</v>
       </c>
       <c r="D137">
@@ -5768,7 +5779,7 @@
         <v>16.917514761469299</v>
       </c>
       <c r="F137">
-        <f>POWER(10, E137-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>3.945574266997235E-2</v>
       </c>
     </row>
@@ -5780,7 +5791,7 @@
         <v>18.019987059844901</v>
       </c>
       <c r="C138">
-        <f>POWER(10, B138-10)/$N$3</f>
+        <f t="shared" si="12"/>
         <v>0.49955409208607204</v>
       </c>
       <c r="D138">
@@ -5790,7 +5801,7 @@
         <v>16.691477043366401</v>
       </c>
       <c r="F138">
-        <f>POWER(10, E138-10)/$N$3</f>
+        <f t="shared" si="13"/>
         <v>2.3446202110167215E-2</v>
       </c>
     </row>
